--- a/Utilities/titles/VariableListing.xlsx
+++ b/Utilities/titles/VariableListing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FTT_Stand_Alone\Utilities\titles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ximin\Documents\GitHub\FTT_StandAlone_v0.8\Utilities\titles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F63962F-05BF-4AE5-844F-54068E3B0E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191AE843-71E2-4AD2-972B-67BDE868AD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="25260" windowHeight="13245" xr2:uid="{3966A5EA-18B5-40FC-82B6-8DC341B5B05B}"/>
+    <workbookView xWindow="-130" yWindow="10690" windowWidth="19420" windowHeight="10300" xr2:uid="{3966A5EA-18B5-40FC-82B6-8DC341B5B05B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2555,14 +2555,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5694E675-77F6-4F54-A793-A54451BF0049}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:N327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="I122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J148" sqref="J148"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2711,7 +2711,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>212</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>216</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>218</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>226</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>283</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>284</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>285</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>286</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>287</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>288</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>289</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>290</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>291</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>292</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>293</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>294</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>295</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>296</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>297</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>298</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>353</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>354</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>355</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>356</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>357</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>381</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>358</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>359</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>360</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>361</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>362</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>374</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>363</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>364</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>480</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>379</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>365</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>330</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>477</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>401</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>318</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>322</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>329</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>396</v>
       </c>
@@ -8381,7 +8381,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>327</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>400</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>478</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>403</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>323</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>387</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>398</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>389</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>402</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>391</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>331</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>711</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>351</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>326</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>392</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>714</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>349</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>394</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>393</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>399</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>395</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>383</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>325</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>321</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>319</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>390</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>715</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>324</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>397</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>328</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>320</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>498</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>499</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>500</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>501</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>502</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>503</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>594</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>504</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>505</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>506</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>507</v>
       </c>
@@ -9635,7 +9635,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>508</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>509</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>569</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>570</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>510</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>582</v>
       </c>
@@ -9836,7 +9836,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>583</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>584</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>511</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>512</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>513</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>514</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>515</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>516</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>597</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>517</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>518</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>519</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>520</v>
       </c>
@@ -10339,7 +10339,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>521</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>522</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>571</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>572</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>523</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>585</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>586</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>587</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>526</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>527</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>528</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>529</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>530</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>531</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>598</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>532</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>533</v>
       </c>
@@ -10979,7 +10979,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>534</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>535</v>
       </c>
@@ -11061,7 +11061,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>536</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>537</v>
       </c>
@@ -11143,7 +11143,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>573</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>574</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>538</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>588</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>589</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>590</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>539</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>540</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>541</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>542</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>543</v>
       </c>
@@ -11546,7 +11546,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>544</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>599</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>545</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>546</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>547</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>548</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>549</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>550</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>575</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>576</v>
       </c>
@@ -11935,7 +11935,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>551</v>
       </c>
@@ -11973,7 +11973,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>591</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>592</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>593</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>554</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>555</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>556</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>557</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>558</v>
       </c>
@@ -12268,7 +12268,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>559</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>600</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>560</v>
       </c>
@@ -12385,7 +12385,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>561</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>562</v>
       </c>
@@ -12464,7 +12464,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>563</v>
       </c>
@@ -12505,7 +12505,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>564</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>565</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>577</v>
       </c>
@@ -12622,7 +12622,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>578</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>566</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>579</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>580</v>
       </c>
@@ -12753,7 +12753,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>581</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>404</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>408</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>410</v>
       </c>
@@ -12896,7 +12896,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>413</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>416</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>419</v>
       </c>
@@ -13007,7 +13007,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>421</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>423</v>
       </c>
@@ -13083,7 +13083,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>425</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>428</v>
       </c>
@@ -13159,7 +13159,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>430</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>433</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>434</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>436</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>440</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>442</v>
       </c>
@@ -13354,7 +13354,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>444</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>446</v>
       </c>
@@ -13415,7 +13415,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>448</v>
       </c>
@@ -13450,7 +13450,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>450</v>
       </c>
@@ -13485,7 +13485,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>452</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>454</v>
       </c>
@@ -13552,7 +13552,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>457</v>
       </c>
@@ -13584,7 +13584,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>459</v>
       </c>
@@ -13619,7 +13619,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>461</v>
       </c>
@@ -13648,7 +13648,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>463</v>
       </c>
@@ -13680,7 +13680,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>465</v>
       </c>
@@ -13715,7 +13715,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>467</v>
       </c>
@@ -13750,7 +13750,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>469</v>
       </c>
@@ -13785,7 +13785,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>471</v>
       </c>
@@ -13820,7 +13820,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>473</v>
       </c>
@@ -13855,7 +13855,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>475</v>
       </c>
@@ -13890,7 +13890,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>482</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>483</v>
       </c>
@@ -13960,7 +13960,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>485</v>
       </c>
@@ -13995,7 +13995,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>487</v>
       </c>
@@ -14030,7 +14030,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>489</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>490</v>
       </c>
@@ -14100,7 +14100,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>491</v>
       </c>
@@ -14135,7 +14135,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>492</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>494</v>
       </c>
@@ -14202,7 +14202,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>496</v>
       </c>
@@ -14237,7 +14237,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>595</v>
       </c>
@@ -14272,7 +14272,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>609</v>
       </c>
@@ -14307,7 +14307,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>710</v>
       </c>
@@ -14332,6 +14332,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L327" xr:uid="{5694E675-77F6-4F54-A793-A54451BF0049}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="FTT-P"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A150:L187">
       <sortCondition descending="1" ref="A1:A327"/>
     </sortState>

--- a/Utilities/titles/VariableListing.xlsx
+++ b/Utilities/titles/VariableListing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ximin\Documents\GitHub\FTT_StandAlone_v0.8\Utilities\titles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cambridgeeconometrics-my.sharepoint.com/personal/pv_camecon_com/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191AE843-71E2-4AD2-972B-67BDE868AD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{191AE843-71E2-4AD2-972B-67BDE868AD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B389DA8-A540-4B62-A504-3F32AB0B4FA1}"/>
   <bookViews>
-    <workbookView xWindow="-130" yWindow="10690" windowWidth="19420" windowHeight="10300" xr2:uid="{3966A5EA-18B5-40FC-82B6-8DC341B5B05B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3966A5EA-18B5-40FC-82B6-8DC341B5B05B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3329" uniqueCount="719">
   <si>
     <t>Variable name</t>
   </si>
@@ -2188,6 +2188,12 @@
   </si>
   <si>
     <t>FTT-Transport Hydrogen blending mandate</t>
+  </si>
+  <si>
+    <t>MWCB</t>
+  </si>
+  <si>
+    <t>Bare LCOE w/o storage cost component</t>
   </si>
 </sst>
 </file>
@@ -2556,13 +2562,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5694E675-77F6-4F54-A793-A54451BF0049}">
   <sheetPr codeName="Sheet1" filterMode="1"/>
-  <dimension ref="A1:N327"/>
+  <dimension ref="A1:N328"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14330,6 +14336,50 @@
         <v>36</v>
       </c>
     </row>
+    <row r="328" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>717</v>
+      </c>
+      <c r="B328" t="s">
+        <v>718</v>
+      </c>
+      <c r="C328" t="s">
+        <v>190</v>
+      </c>
+      <c r="D328" t="s">
+        <v>29</v>
+      </c>
+      <c r="E328" t="s">
+        <v>11</v>
+      </c>
+      <c r="F328" t="s">
+        <v>17</v>
+      </c>
+      <c r="G328" t="s">
+        <v>8</v>
+      </c>
+      <c r="H328" t="s">
+        <v>31</v>
+      </c>
+      <c r="I328" t="s">
+        <v>9</v>
+      </c>
+      <c r="J328" t="s">
+        <v>9</v>
+      </c>
+      <c r="K328">
+        <v>2001</v>
+      </c>
+      <c r="L328" t="s">
+        <v>9</v>
+      </c>
+      <c r="M328" t="s">
+        <v>233</v>
+      </c>
+      <c r="N328" t="s">
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L327" xr:uid="{5694E675-77F6-4F54-A793-A54451BF0049}">
     <filterColumn colId="7">

--- a/Utilities/titles/VariableListing.xlsx
+++ b/Utilities/titles/VariableListing.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FTT_Stand_Alone\Utilities\titles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/f_j_m_m_nijsse_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F63962F-05BF-4AE5-844F-54068E3B0E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{4F63962F-05BF-4AE5-844F-54068E3B0E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69F9F076-E2A3-47B5-8428-126CEEFD11BA}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="25260" windowHeight="13245" xr2:uid="{3966A5EA-18B5-40FC-82B6-8DC341B5B05B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3966A5EA-18B5-40FC-82B6-8DC341B5B05B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$327</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$329</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3338" uniqueCount="720">
   <si>
     <t>Variable name</t>
   </si>
@@ -2188,6 +2188,15 @@
   </si>
   <si>
     <t>FTT-Transport Hydrogen blending mandate</t>
+  </si>
+  <si>
+    <t>Demand for energy resources</t>
+  </si>
+  <si>
+    <t>FRET</t>
+  </si>
+  <si>
+    <t>Energy supply</t>
   </si>
 </sst>
 </file>
@@ -2556,13 +2565,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5694E675-77F6-4F54-A793-A54451BF0049}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N327"/>
+  <dimension ref="A1:N329"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="I122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J148" sqref="J148"/>
+      <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6201,25 +6210,25 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>209</v>
+        <v>718</v>
       </c>
       <c r="B89" t="s">
-        <v>210</v>
+        <v>719</v>
       </c>
       <c r="C89" t="s">
-        <v>263</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s">
         <v>29</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F89" t="s">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="G89" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H89" t="s">
         <v>31</v>
@@ -6231,10 +6240,7 @@
         <v>9</v>
       </c>
       <c r="K89">
-        <v>2001</v>
-      </c>
-      <c r="L89" t="s">
-        <v>9</v>
+        <v>2010</v>
       </c>
       <c r="N89" t="s">
         <v>233</v>
@@ -6242,19 +6248,19 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="B90" t="s">
-        <v>213</v>
+        <v>717</v>
       </c>
       <c r="C90" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E90" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="F90" t="s">
         <v>17</v>
@@ -6263,7 +6269,7 @@
         <v>8</v>
       </c>
       <c r="H90" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I90" t="s">
         <v>9</v>
@@ -6274,37 +6280,34 @@
       <c r="K90">
         <v>2010</v>
       </c>
-      <c r="L90" t="s">
-        <v>228</v>
-      </c>
       <c r="N90" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B91" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C91" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="D91" t="s">
         <v>29</v>
       </c>
       <c r="E91" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="G91" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H91" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I91" t="s">
         <v>9</v>
@@ -6313,10 +6316,10 @@
         <v>9</v>
       </c>
       <c r="K91">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="L91" t="s">
-        <v>228</v>
+        <v>9</v>
       </c>
       <c r="N91" t="s">
         <v>233</v>
@@ -6324,19 +6327,19 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B92" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C92" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D92" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E92" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F92" t="s">
         <v>17</v>
@@ -6365,10 +6368,10 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B93" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C93" t="s">
         <v>193</v>
@@ -6377,7 +6380,7 @@
         <v>29</v>
       </c>
       <c r="E93" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F93" t="s">
         <v>17</v>
@@ -6386,7 +6389,7 @@
         <v>8</v>
       </c>
       <c r="H93" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I93" t="s">
         <v>9</v>
@@ -6406,19 +6409,19 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B94" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="D94" t="s">
         <v>29</v>
       </c>
       <c r="E94" t="s">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="F94" t="s">
         <v>17</v>
@@ -6436,7 +6439,7 @@
         <v>9</v>
       </c>
       <c r="K94">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="L94" t="s">
         <v>228</v>
@@ -6447,19 +6450,19 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B95" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>193</v>
       </c>
       <c r="D95" t="s">
         <v>29</v>
       </c>
       <c r="E95" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
@@ -6477,10 +6480,10 @@
         <v>9</v>
       </c>
       <c r="K95">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="L95" t="s">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="N95" t="s">
         <v>233</v>
@@ -6488,19 +6491,19 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B96" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="C96" t="s">
-        <v>194</v>
+        <v>6</v>
       </c>
       <c r="D96" t="s">
         <v>29</v>
       </c>
       <c r="E96" t="s">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
@@ -6509,7 +6512,7 @@
         <v>8</v>
       </c>
       <c r="H96" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I96" t="s">
         <v>9</v>
@@ -6518,7 +6521,7 @@
         <v>9</v>
       </c>
       <c r="K96">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="L96" t="s">
         <v>228</v>
@@ -6529,19 +6532,19 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B97" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C97" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="D97" t="s">
         <v>29</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F97" t="s">
         <v>17</v>
@@ -6559,10 +6562,10 @@
         <v>9</v>
       </c>
       <c r="K97">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="L97" t="s">
-        <v>228</v>
+        <v>9</v>
       </c>
       <c r="N97" t="s">
         <v>233</v>
@@ -6570,19 +6573,19 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B98" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C98" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D98" t="s">
         <v>29</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F98" t="s">
         <v>17</v>
@@ -6611,13 +6614,13 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B99" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C99" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="D99" t="s">
         <v>29</v>
@@ -6652,13 +6655,13 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B100" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="D100" t="s">
         <v>29</v>
@@ -6693,13 +6696,13 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B101" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C101" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="D101" t="s">
         <v>29</v>
@@ -6734,19 +6737,19 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B102" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D102" t="s">
         <v>29</v>
       </c>
       <c r="E102" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
         <v>17</v>
@@ -6775,13 +6778,13 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B103" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C103" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D103" t="s">
         <v>29</v>
@@ -6816,19 +6819,19 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B104" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C104" t="s">
-        <v>198</v>
+        <v>6</v>
       </c>
       <c r="D104" t="s">
         <v>29</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F104" t="s">
         <v>17</v>
@@ -6857,10 +6860,10 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B105" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C105" t="s">
         <v>198</v>
@@ -6869,7 +6872,7 @@
         <v>29</v>
       </c>
       <c r="E105" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
         <v>17</v>
@@ -6898,10 +6901,10 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B106" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C106" t="s">
         <v>198</v>
@@ -6910,7 +6913,7 @@
         <v>29</v>
       </c>
       <c r="E106" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
         <v>17</v>
@@ -6939,13 +6942,13 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B107" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C107" t="s">
-        <v>257</v>
+        <v>198</v>
       </c>
       <c r="D107" t="s">
         <v>29</v>
@@ -6969,10 +6972,10 @@
         <v>9</v>
       </c>
       <c r="K107">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="L107" t="s">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="N107" t="s">
         <v>233</v>
@@ -6980,13 +6983,13 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B108" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C108" t="s">
-        <v>257</v>
+        <v>198</v>
       </c>
       <c r="D108" t="s">
         <v>29</v>
@@ -7010,10 +7013,10 @@
         <v>9</v>
       </c>
       <c r="K108">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="L108" t="s">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="N108" t="s">
         <v>233</v>
@@ -7021,13 +7024,13 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="B109" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="C109" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D109" t="s">
         <v>29</v>
@@ -7051,10 +7054,10 @@
         <v>9</v>
       </c>
       <c r="K109">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="L109" t="s">
-        <v>228</v>
+        <v>9</v>
       </c>
       <c r="N109" t="s">
         <v>233</v>
@@ -7062,13 +7065,13 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B110" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C110" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D110" t="s">
         <v>29</v>
@@ -7103,10 +7106,10 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B111" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C111" t="s">
         <v>264</v>
@@ -7133,10 +7136,10 @@
         <v>9</v>
       </c>
       <c r="K111">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="L111" t="s">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="N111" t="s">
         <v>233</v>
@@ -7144,10 +7147,10 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B112" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C112" t="s">
         <v>264</v>
@@ -7174,10 +7177,10 @@
         <v>9</v>
       </c>
       <c r="K112">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="L112" t="s">
-        <v>228</v>
+        <v>9</v>
       </c>
       <c r="N112" t="s">
         <v>233</v>
@@ -7185,10 +7188,10 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B113" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C113" t="s">
         <v>264</v>
@@ -7226,19 +7229,19 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B114" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C114" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D114" t="s">
         <v>29</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F114" t="s">
         <v>17</v>
@@ -7267,19 +7270,19 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B115" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C115" t="s">
-        <v>190</v>
+        <v>264</v>
       </c>
       <c r="D115" t="s">
         <v>29</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F115" t="s">
         <v>17</v>
@@ -7297,7 +7300,7 @@
         <v>9</v>
       </c>
       <c r="K115">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="L115" t="s">
         <v>9</v>
@@ -7308,13 +7311,13 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B116" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C116" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="D116" t="s">
         <v>29</v>
@@ -7341,7 +7344,7 @@
         <v>2010</v>
       </c>
       <c r="L116" t="s">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="N116" t="s">
         <v>233</v>
@@ -7349,56 +7352,92 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B117" t="s">
-        <v>299</v>
+        <v>275</v>
+      </c>
+      <c r="C117" t="s">
+        <v>190</v>
       </c>
       <c r="D117" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E117" t="s">
-        <v>315</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="G117" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H117" t="s">
-        <v>317</v>
+        <v>31</v>
+      </c>
+      <c r="I117" t="s">
+        <v>9</v>
+      </c>
+      <c r="J117" t="s">
+        <v>9</v>
+      </c>
+      <c r="K117">
+        <v>2010</v>
+      </c>
+      <c r="L117" t="s">
+        <v>9</v>
+      </c>
+      <c r="N117" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B118" t="s">
-        <v>300</v>
+        <v>276</v>
+      </c>
+      <c r="C118" t="s">
+        <v>190</v>
       </c>
       <c r="D118" t="s">
         <v>29</v>
       </c>
       <c r="E118" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
         <v>17</v>
       </c>
       <c r="G118" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H118" t="s">
-        <v>317</v>
+        <v>31</v>
+      </c>
+      <c r="I118" t="s">
+        <v>9</v>
+      </c>
+      <c r="J118" t="s">
+        <v>9</v>
+      </c>
+      <c r="K118">
+        <v>2010</v>
+      </c>
+      <c r="L118" t="s">
+        <v>9</v>
+      </c>
+      <c r="N118" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B119" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D119" t="s">
         <v>17</v>
@@ -7407,7 +7446,7 @@
         <v>315</v>
       </c>
       <c r="F119" t="s">
-        <v>315</v>
+        <v>201</v>
       </c>
       <c r="G119" t="s">
         <v>17</v>
@@ -7418,19 +7457,19 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B120" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D120" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E120" t="s">
-        <v>315</v>
+        <v>201</v>
       </c>
       <c r="F120" t="s">
-        <v>315</v>
+        <v>17</v>
       </c>
       <c r="G120" t="s">
         <v>17</v>
@@ -7441,10 +7480,10 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B121" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D121" t="s">
         <v>17</v>
@@ -7453,59 +7492,50 @@
         <v>315</v>
       </c>
       <c r="F121" t="s">
-        <v>17</v>
+        <v>315</v>
       </c>
       <c r="G121" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H121" t="s">
         <v>317</v>
       </c>
-      <c r="J121">
-        <v>2014</v>
-      </c>
-      <c r="K121">
-        <v>2014</v>
-      </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B122" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D122" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E122" t="s">
         <v>315</v>
       </c>
       <c r="F122" t="s">
-        <v>17</v>
+        <v>315</v>
       </c>
       <c r="G122" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H122" t="s">
         <v>317</v>
       </c>
-      <c r="K122">
-        <v>2001</v>
-      </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B123" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D123" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E123" t="s">
-        <v>201</v>
+        <v>315</v>
       </c>
       <c r="F123" t="s">
         <v>17</v>
@@ -7516,16 +7546,19 @@
       <c r="H123" t="s">
         <v>317</v>
       </c>
+      <c r="J123">
+        <v>2014</v>
+      </c>
       <c r="K123">
-        <v>2001</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B124" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D124" t="s">
         <v>29</v>
@@ -7542,25 +7575,22 @@
       <c r="H124" t="s">
         <v>317</v>
       </c>
-      <c r="J124">
-        <v>2014</v>
-      </c>
       <c r="K124">
-        <v>1990</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B125" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D125" t="s">
         <v>29</v>
       </c>
       <c r="E125" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="F125" t="s">
         <v>17</v>
@@ -7577,10 +7607,10 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B126" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D126" t="s">
         <v>29</v>
@@ -7597,22 +7627,25 @@
       <c r="H126" t="s">
         <v>317</v>
       </c>
+      <c r="J126">
+        <v>2014</v>
+      </c>
       <c r="K126">
-        <v>2001</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B127" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D127" t="s">
         <v>29</v>
       </c>
       <c r="E127" t="s">
-        <v>315</v>
+        <v>17</v>
       </c>
       <c r="F127" t="s">
         <v>17</v>
@@ -7629,10 +7662,10 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B128" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D128" t="s">
         <v>29</v>
@@ -7655,10 +7688,10 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B129" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D129" t="s">
         <v>29</v>
@@ -7681,10 +7714,10 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B130" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D130" t="s">
         <v>29</v>
@@ -7707,10 +7740,10 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B131" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D131" t="s">
         <v>29</v>
@@ -7733,10 +7766,10 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B132" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D132" t="s">
         <v>29</v>
@@ -7745,24 +7778,24 @@
         <v>315</v>
       </c>
       <c r="F132" t="s">
-        <v>316</v>
+        <v>17</v>
       </c>
       <c r="G132" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H132" t="s">
         <v>317</v>
       </c>
       <c r="K132">
-        <v>2014</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>353</v>
+        <v>297</v>
       </c>
       <c r="B133" t="s">
-        <v>366</v>
+        <v>313</v>
       </c>
       <c r="D133" t="s">
         <v>29</v>
@@ -7780,15 +7813,15 @@
         <v>317</v>
       </c>
       <c r="K133">
-        <v>2014</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>354</v>
+        <v>298</v>
       </c>
       <c r="B134" t="s">
-        <v>367</v>
+        <v>314</v>
       </c>
       <c r="D134" t="s">
         <v>29</v>
@@ -7797,10 +7830,10 @@
         <v>315</v>
       </c>
       <c r="F134" t="s">
-        <v>17</v>
+        <v>316</v>
       </c>
       <c r="G134" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H134" t="s">
         <v>317</v>
@@ -7811,16 +7844,16 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B135" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D135" t="s">
         <v>29</v>
       </c>
       <c r="E135" t="s">
-        <v>201</v>
+        <v>315</v>
       </c>
       <c r="F135" t="s">
         <v>17</v>
@@ -7837,10 +7870,10 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B136" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D136" t="s">
         <v>29</v>
@@ -7858,21 +7891,21 @@
         <v>317</v>
       </c>
       <c r="K136">
-        <v>2010</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B137" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D137" t="s">
         <v>29</v>
       </c>
       <c r="E137" t="s">
-        <v>315</v>
+        <v>201</v>
       </c>
       <c r="F137" t="s">
         <v>17</v>
@@ -7883,13 +7916,16 @@
       <c r="H137" t="s">
         <v>317</v>
       </c>
+      <c r="K137">
+        <v>2014</v>
+      </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="B138" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="D138" t="s">
         <v>29</v>
@@ -7907,15 +7943,15 @@
         <v>317</v>
       </c>
       <c r="K138">
-        <v>2014</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B139" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D139" t="s">
         <v>29</v>
@@ -7932,16 +7968,13 @@
       <c r="H139" t="s">
         <v>317</v>
       </c>
-      <c r="K139">
-        <v>2014</v>
-      </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="B140" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="D140" t="s">
         <v>29</v>
@@ -7964,7 +7997,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B141" t="s">
         <v>371</v>
@@ -7990,10 +8023,10 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B142" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D142" t="s">
         <v>29</v>
@@ -8016,10 +8049,10 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B143" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D143" t="s">
         <v>29</v>
@@ -8042,10 +8075,10 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B144" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D144" t="s">
         <v>29</v>
@@ -8068,10 +8101,10 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B145" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D145" t="s">
         <v>29</v>
@@ -8094,10 +8127,10 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="B146" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D146" t="s">
         <v>29</v>
@@ -8120,10 +8153,10 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>480</v>
+        <v>363</v>
       </c>
       <c r="B147" t="s">
-        <v>481</v>
+        <v>376</v>
       </c>
       <c r="D147" t="s">
         <v>29</v>
@@ -8146,10 +8179,10 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="B148" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D148" t="s">
         <v>29</v>
@@ -8166,25 +8199,22 @@
       <c r="H148" t="s">
         <v>317</v>
       </c>
-      <c r="J148">
-        <v>2014</v>
-      </c>
       <c r="K148">
         <v>2014</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>365</v>
+        <v>480</v>
       </c>
       <c r="B149" t="s">
-        <v>378</v>
+        <v>481</v>
       </c>
       <c r="D149" t="s">
         <v>29</v>
       </c>
       <c r="E149" t="s">
-        <v>201</v>
+        <v>315</v>
       </c>
       <c r="F149" t="s">
         <v>17</v>
@@ -8201,16 +8231,16 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="B150" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="D150" t="s">
         <v>29</v>
       </c>
       <c r="E150" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="F150" t="s">
         <v>17</v>
@@ -8219,24 +8249,27 @@
         <v>8</v>
       </c>
       <c r="H150" t="s">
-        <v>388</v>
+        <v>317</v>
+      </c>
+      <c r="J150">
+        <v>2014</v>
       </c>
       <c r="K150">
-        <v>2001</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>477</v>
+        <v>365</v>
       </c>
       <c r="B151" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D151" t="s">
         <v>29</v>
       </c>
       <c r="E151" t="s">
-        <v>347</v>
+        <v>201</v>
       </c>
       <c r="F151" t="s">
         <v>17</v>
@@ -8245,18 +8278,18 @@
         <v>8</v>
       </c>
       <c r="H151" t="s">
-        <v>388</v>
+        <v>317</v>
       </c>
       <c r="K151">
-        <v>2017</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>401</v>
+        <v>330</v>
       </c>
       <c r="B152" t="s">
-        <v>386</v>
+        <v>344</v>
       </c>
       <c r="D152" t="s">
         <v>29</v>
@@ -8274,15 +8307,15 @@
         <v>388</v>
       </c>
       <c r="K152">
-        <v>2017</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>318</v>
+        <v>477</v>
       </c>
       <c r="B153" t="s">
-        <v>333</v>
+        <v>386</v>
       </c>
       <c r="D153" t="s">
         <v>29</v>
@@ -8300,15 +8333,15 @@
         <v>388</v>
       </c>
       <c r="K153">
-        <v>2001</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>322</v>
+        <v>401</v>
       </c>
       <c r="B154" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="D154" t="s">
         <v>29</v>
@@ -8326,15 +8359,15 @@
         <v>388</v>
       </c>
       <c r="K154">
-        <v>2001</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B155" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D155" t="s">
         <v>29</v>
@@ -8357,10 +8390,10 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>396</v>
+        <v>322</v>
       </c>
       <c r="B156" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="D156" t="s">
         <v>29</v>
@@ -8378,35 +8411,38 @@
         <v>388</v>
       </c>
       <c r="K156">
-        <v>2017</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B157" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D157" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E157" t="s">
         <v>347</v>
       </c>
       <c r="F157" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="G157" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H157" t="s">
         <v>388</v>
       </c>
+      <c r="K157">
+        <v>2001</v>
+      </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B158" t="s">
         <v>386</v>
@@ -8415,7 +8451,7 @@
         <v>29</v>
       </c>
       <c r="E158" t="s">
-        <v>201</v>
+        <v>347</v>
       </c>
       <c r="F158" t="s">
         <v>17</v>
@@ -8432,42 +8468,39 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>478</v>
+        <v>327</v>
       </c>
       <c r="B159" t="s">
-        <v>479</v>
+        <v>341</v>
       </c>
       <c r="D159" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E159" t="s">
         <v>347</v>
       </c>
       <c r="F159" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="G159" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H159" t="s">
         <v>388</v>
       </c>
-      <c r="K159">
-        <v>2014</v>
-      </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B160" t="s">
         <v>386</v>
       </c>
       <c r="D160" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E160" t="s">
-        <v>347</v>
+        <v>201</v>
       </c>
       <c r="F160" t="s">
         <v>17</v>
@@ -8479,15 +8512,15 @@
         <v>388</v>
       </c>
       <c r="K160">
-        <v>2012</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>323</v>
+        <v>478</v>
       </c>
       <c r="B161" t="s">
-        <v>337</v>
+        <v>479</v>
       </c>
       <c r="D161" t="s">
         <v>29</v>
@@ -8504,22 +8537,19 @@
       <c r="H161" t="s">
         <v>388</v>
       </c>
-      <c r="J161">
-        <v>2017</v>
-      </c>
       <c r="K161">
-        <v>1990</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="B162" t="s">
         <v>386</v>
       </c>
       <c r="D162" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E162" t="s">
         <v>347</v>
@@ -8534,15 +8564,15 @@
         <v>388</v>
       </c>
       <c r="K162">
-        <v>2017</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>398</v>
+        <v>323</v>
       </c>
       <c r="B163" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="D163" t="s">
         <v>29</v>
@@ -8559,13 +8589,16 @@
       <c r="H163" t="s">
         <v>388</v>
       </c>
+      <c r="J163">
+        <v>2017</v>
+      </c>
       <c r="K163">
-        <v>2017</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B164" t="s">
         <v>386</v>
@@ -8591,7 +8624,7 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B165" t="s">
         <v>386</v>
@@ -8617,7 +8650,7 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B166" t="s">
         <v>386</v>
@@ -8643,123 +8676,117 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>331</v>
+        <v>402</v>
       </c>
       <c r="B167" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="D167" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E167" t="s">
         <v>347</v>
       </c>
       <c r="F167" t="s">
-        <v>347</v>
+        <v>17</v>
       </c>
       <c r="G167" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H167" t="s">
         <v>388</v>
       </c>
+      <c r="K167">
+        <v>2017</v>
+      </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>711</v>
+        <v>391</v>
       </c>
       <c r="B168" t="s">
-        <v>712</v>
+        <v>386</v>
       </c>
       <c r="D168" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E168" t="s">
         <v>347</v>
       </c>
       <c r="F168" t="s">
-        <v>347</v>
+        <v>17</v>
       </c>
       <c r="G168" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H168" t="s">
         <v>388</v>
       </c>
+      <c r="K168">
+        <v>2017</v>
+      </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="B169" t="s">
-        <v>352</v>
-      </c>
-      <c r="C169" t="s">
-        <v>25</v>
+        <v>345</v>
       </c>
       <c r="D169" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E169" t="s">
-        <v>41</v>
+        <v>347</v>
       </c>
       <c r="F169" t="s">
-        <v>17</v>
+        <v>347</v>
       </c>
       <c r="G169" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H169" t="s">
-        <v>36</v>
-      </c>
-      <c r="I169" t="s">
-        <v>9</v>
-      </c>
-      <c r="J169">
-        <v>2016</v>
-      </c>
-      <c r="K169">
-        <v>2010</v>
-      </c>
-      <c r="L169" t="s">
-        <v>228</v>
-      </c>
-      <c r="N169" t="s">
-        <v>233</v>
+        <v>388</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>326</v>
+        <v>711</v>
       </c>
       <c r="B170" t="s">
-        <v>340</v>
+        <v>712</v>
       </c>
       <c r="D170" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E170" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F170" t="s">
-        <v>17</v>
+        <v>347</v>
       </c>
       <c r="G170" t="s">
         <v>17</v>
+      </c>
+      <c r="H170" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>392</v>
+        <v>351</v>
       </c>
       <c r="B171" t="s">
-        <v>386</v>
+        <v>352</v>
+      </c>
+      <c r="C171" t="s">
+        <v>25</v>
       </c>
       <c r="D171" t="s">
         <v>29</v>
       </c>
       <c r="E171" t="s">
-        <v>347</v>
+        <v>41</v>
       </c>
       <c r="F171" t="s">
         <v>17</v>
@@ -8768,18 +8795,30 @@
         <v>8</v>
       </c>
       <c r="H171" t="s">
-        <v>388</v>
+        <v>36</v>
+      </c>
+      <c r="I171" t="s">
+        <v>9</v>
+      </c>
+      <c r="J171">
+        <v>2016</v>
       </c>
       <c r="K171">
-        <v>2017</v>
+        <v>2010</v>
+      </c>
+      <c r="L171" t="s">
+        <v>228</v>
+      </c>
+      <c r="N171" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>714</v>
+        <v>326</v>
       </c>
       <c r="B172" t="s">
-        <v>713</v>
+        <v>340</v>
       </c>
       <c r="D172" t="s">
         <v>29</v>
@@ -8793,88 +8832,82 @@
       <c r="G172" t="s">
         <v>17</v>
       </c>
-      <c r="H172" t="s">
-        <v>388</v>
-      </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="B173" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D173" t="s">
         <v>29</v>
       </c>
       <c r="E173" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F173" t="s">
         <v>17</v>
       </c>
       <c r="G173" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H173" t="s">
         <v>388</v>
       </c>
+      <c r="K173">
+        <v>2017</v>
+      </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>394</v>
+        <v>714</v>
       </c>
       <c r="B174" t="s">
-        <v>386</v>
+        <v>713</v>
       </c>
       <c r="D174" t="s">
         <v>29</v>
       </c>
       <c r="E174" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F174" t="s">
         <v>17</v>
       </c>
       <c r="G174" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H174" t="s">
         <v>388</v>
       </c>
-      <c r="K174">
-        <v>2017</v>
-      </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="B175" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="D175" t="s">
         <v>29</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F175" t="s">
         <v>17</v>
       </c>
       <c r="G175" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H175" t="s">
         <v>388</v>
       </c>
-      <c r="K175">
-        <v>2017</v>
-      </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B176" t="s">
         <v>386</v>
@@ -8900,7 +8933,7 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B177" t="s">
         <v>386</v>
@@ -8926,19 +8959,16 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="B178" t="s">
-        <v>384</v>
-      </c>
-      <c r="C178" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D178" t="s">
         <v>29</v>
       </c>
       <c r="E178" t="s">
-        <v>201</v>
+        <v>347</v>
       </c>
       <c r="F178" t="s">
         <v>17</v>
@@ -8949,25 +8979,22 @@
       <c r="H178" t="s">
         <v>388</v>
       </c>
-      <c r="J178">
-        <v>2016</v>
-      </c>
       <c r="K178">
-        <v>2010</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>325</v>
+        <v>395</v>
       </c>
       <c r="B179" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="D179" t="s">
         <v>29</v>
       </c>
       <c r="E179" t="s">
-        <v>17</v>
+        <v>347</v>
       </c>
       <c r="F179" t="s">
         <v>17</v>
@@ -8979,21 +9006,24 @@
         <v>388</v>
       </c>
       <c r="K179">
-        <v>2001</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>321</v>
+        <v>383</v>
       </c>
       <c r="B180" t="s">
-        <v>335</v>
+        <v>384</v>
+      </c>
+      <c r="C180" t="s">
+        <v>385</v>
       </c>
       <c r="D180" t="s">
         <v>29</v>
       </c>
       <c r="E180" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="F180" t="s">
         <v>17</v>
@@ -9004,16 +9034,19 @@
       <c r="H180" t="s">
         <v>388</v>
       </c>
+      <c r="J180">
+        <v>2016</v>
+      </c>
       <c r="K180">
-        <v>2001</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B181" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D181" t="s">
         <v>29</v>
@@ -9036,19 +9069,19 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>390</v>
+        <v>321</v>
       </c>
       <c r="B182" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="D182" t="s">
         <v>29</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>17</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>17</v>
       </c>
       <c r="G182" t="s">
         <v>8</v>
@@ -9057,15 +9090,15 @@
         <v>388</v>
       </c>
       <c r="K182">
-        <v>2017</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>715</v>
+        <v>319</v>
       </c>
       <c r="B183" t="s">
-        <v>716</v>
+        <v>334</v>
       </c>
       <c r="D183" t="s">
         <v>29</v>
@@ -9088,19 +9121,19 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>324</v>
+        <v>390</v>
       </c>
       <c r="B184" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
       <c r="D184" t="s">
         <v>29</v>
       </c>
       <c r="E184" t="s">
-        <v>17</v>
+        <v>347</v>
       </c>
       <c r="F184" t="s">
-        <v>17</v>
+        <v>348</v>
       </c>
       <c r="G184" t="s">
         <v>8</v>
@@ -9109,21 +9142,21 @@
         <v>388</v>
       </c>
       <c r="K184">
-        <v>2001</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>397</v>
+        <v>715</v>
       </c>
       <c r="B185" t="s">
-        <v>386</v>
+        <v>716</v>
       </c>
       <c r="D185" t="s">
         <v>29</v>
       </c>
       <c r="E185" t="s">
-        <v>347</v>
+        <v>17</v>
       </c>
       <c r="F185" t="s">
         <v>17</v>
@@ -9135,15 +9168,15 @@
         <v>388</v>
       </c>
       <c r="K185">
-        <v>2017</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B186" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D186" t="s">
         <v>29</v>
@@ -9166,10 +9199,10 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>320</v>
+        <v>397</v>
       </c>
       <c r="B187" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="D187" t="s">
         <v>29</v>
@@ -9178,33 +9211,30 @@
         <v>347</v>
       </c>
       <c r="F187" t="s">
-        <v>346</v>
+        <v>17</v>
       </c>
       <c r="G187" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H187" t="s">
         <v>388</v>
       </c>
       <c r="K187">
-        <v>2014</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>498</v>
+        <v>328</v>
       </c>
       <c r="B188" t="s">
-        <v>614</v>
-      </c>
-      <c r="C188" t="s">
-        <v>35</v>
+        <v>342</v>
       </c>
       <c r="D188" t="s">
         <v>29</v>
       </c>
       <c r="E188" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="F188" t="s">
         <v>17</v>
@@ -9213,80 +9243,50 @@
         <v>8</v>
       </c>
       <c r="H188" t="s">
-        <v>281</v>
-      </c>
-      <c r="I188">
-        <v>1970</v>
-      </c>
-      <c r="J188">
-        <v>2015</v>
+        <v>388</v>
       </c>
       <c r="K188">
-        <v>1970</v>
-      </c>
-      <c r="M188" t="s">
-        <v>233</v>
-      </c>
-      <c r="N188" t="s">
-        <v>233</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>499</v>
+        <v>320</v>
       </c>
       <c r="B189" t="s">
-        <v>615</v>
-      </c>
-      <c r="C189" t="s">
-        <v>161</v>
+        <v>332</v>
       </c>
       <c r="D189" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E189" t="s">
-        <v>279</v>
+        <v>347</v>
       </c>
       <c r="F189" t="s">
-        <v>17</v>
+        <v>346</v>
       </c>
       <c r="G189" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H189" t="s">
-        <v>281</v>
-      </c>
-      <c r="I189" t="s">
-        <v>9</v>
-      </c>
-      <c r="J189" t="s">
-        <v>9</v>
+        <v>388</v>
       </c>
       <c r="K189">
-        <v>2015</v>
-      </c>
-      <c r="L189" t="s">
-        <v>9</v>
-      </c>
-      <c r="M189" t="s">
-        <v>233</v>
-      </c>
-      <c r="N189" t="s">
-        <v>233</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B190" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C190" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D190" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E190" t="s">
         <v>279</v>
@@ -9300,14 +9300,14 @@
       <c r="H190" t="s">
         <v>281</v>
       </c>
-      <c r="I190" t="s">
-        <v>9</v>
-      </c>
-      <c r="J190" t="s">
-        <v>9</v>
+      <c r="I190">
+        <v>1970</v>
+      </c>
+      <c r="J190">
+        <v>2015</v>
       </c>
       <c r="K190">
-        <v>2015</v>
+        <v>1970</v>
       </c>
       <c r="M190" t="s">
         <v>233</v>
@@ -9318,16 +9318,16 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B191" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C191" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="D191" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E191" t="s">
         <v>279</v>
@@ -9341,14 +9341,17 @@
       <c r="H191" t="s">
         <v>281</v>
       </c>
-      <c r="I191">
-        <v>1971</v>
-      </c>
-      <c r="J191">
+      <c r="I191" t="s">
+        <v>9</v>
+      </c>
+      <c r="J191" t="s">
+        <v>9</v>
+      </c>
+      <c r="K191">
         <v>2015</v>
       </c>
-      <c r="K191">
-        <v>1971</v>
+      <c r="L191" t="s">
+        <v>9</v>
       </c>
       <c r="M191" t="s">
         <v>233</v>
@@ -9359,16 +9362,16 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B192" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C192" t="s">
         <v>16</v>
       </c>
       <c r="D192" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E192" t="s">
         <v>279</v>
@@ -9382,14 +9385,14 @@
       <c r="H192" t="s">
         <v>281</v>
       </c>
-      <c r="I192">
-        <v>1970</v>
-      </c>
-      <c r="J192">
+      <c r="I192" t="s">
+        <v>9</v>
+      </c>
+      <c r="J192" t="s">
+        <v>9</v>
+      </c>
+      <c r="K192">
         <v>2015</v>
-      </c>
-      <c r="K192">
-        <v>1970</v>
       </c>
       <c r="M192" t="s">
         <v>233</v>
@@ -9400,34 +9403,37 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B193" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C193" t="s">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="D193" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E193" t="s">
         <v>279</v>
       </c>
       <c r="F193" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="G193" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H193" t="s">
         <v>281</v>
       </c>
-      <c r="I193" t="s">
-        <v>9</v>
-      </c>
-      <c r="J193" t="s">
-        <v>9</v>
+      <c r="I193">
+        <v>1971</v>
+      </c>
+      <c r="J193">
+        <v>2015</v>
+      </c>
+      <c r="K193">
+        <v>1971</v>
       </c>
       <c r="M193" t="s">
         <v>233</v>
@@ -9438,13 +9444,13 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>594</v>
+        <v>502</v>
       </c>
       <c r="B194" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C194" t="s">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="D194" t="s">
         <v>29</v>
@@ -9453,19 +9459,22 @@
         <v>279</v>
       </c>
       <c r="F194" t="s">
-        <v>280</v>
+        <v>17</v>
       </c>
       <c r="G194" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H194" t="s">
         <v>281</v>
       </c>
-      <c r="I194" t="s">
-        <v>9</v>
-      </c>
-      <c r="J194" t="s">
-        <v>9</v>
+      <c r="I194">
+        <v>1970</v>
+      </c>
+      <c r="J194">
+        <v>2015</v>
+      </c>
+      <c r="K194">
+        <v>1970</v>
       </c>
       <c r="M194" t="s">
         <v>233</v>
@@ -9476,37 +9485,34 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B195" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C195" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="D195" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E195" t="s">
         <v>279</v>
       </c>
       <c r="F195" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="G195" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H195" t="s">
         <v>281</v>
       </c>
-      <c r="I195">
-        <v>2000</v>
-      </c>
-      <c r="J195">
-        <v>2015</v>
-      </c>
-      <c r="K195">
-        <v>2000</v>
+      <c r="I195" t="s">
+        <v>9</v>
+      </c>
+      <c r="J195" t="s">
+        <v>9</v>
       </c>
       <c r="M195" t="s">
         <v>233</v>
@@ -9517,22 +9523,22 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>505</v>
+        <v>594</v>
       </c>
       <c r="B196" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C196" t="s">
-        <v>161</v>
+        <v>263</v>
       </c>
       <c r="D196" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E196" t="s">
         <v>279</v>
       </c>
       <c r="F196" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G196" t="s">
         <v>17</v>
@@ -9555,13 +9561,13 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B197" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C197" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="D197" t="s">
         <v>29</v>
@@ -9578,11 +9584,11 @@
       <c r="H197" t="s">
         <v>281</v>
       </c>
-      <c r="I197" t="s">
-        <v>9</v>
-      </c>
-      <c r="J197" t="s">
-        <v>9</v>
+      <c r="I197">
+        <v>2000</v>
+      </c>
+      <c r="J197">
+        <v>2015</v>
       </c>
       <c r="K197">
         <v>2000</v>
@@ -9596,25 +9602,25 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B198" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C198" t="s">
-        <v>282</v>
+        <v>161</v>
       </c>
       <c r="D198" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E198" t="s">
         <v>279</v>
       </c>
       <c r="F198" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="G198" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H198" t="s">
         <v>281</v>
@@ -9625,9 +9631,6 @@
       <c r="J198" t="s">
         <v>9</v>
       </c>
-      <c r="K198">
-        <v>2000</v>
-      </c>
       <c r="M198" t="s">
         <v>233</v>
       </c>
@@ -9637,13 +9640,13 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B199" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C199" t="s">
-        <v>282</v>
+        <v>35</v>
       </c>
       <c r="D199" t="s">
         <v>29</v>
@@ -9678,10 +9681,10 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B200" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C200" t="s">
         <v>282</v>
@@ -9719,13 +9722,13 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>569</v>
+        <v>508</v>
       </c>
       <c r="B201" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C201" t="s">
-        <v>568</v>
+        <v>282</v>
       </c>
       <c r="D201" t="s">
         <v>29</v>
@@ -9742,22 +9745,34 @@
       <c r="H201" t="s">
         <v>281</v>
       </c>
+      <c r="I201" t="s">
+        <v>9</v>
+      </c>
+      <c r="J201" t="s">
+        <v>9</v>
+      </c>
       <c r="K201">
         <v>2000</v>
       </c>
+      <c r="M201" t="s">
+        <v>233</v>
+      </c>
+      <c r="N201" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>570</v>
+        <v>509</v>
       </c>
       <c r="B202" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C202" t="s">
-        <v>567</v>
+        <v>282</v>
       </c>
       <c r="D202" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E202" t="s">
         <v>279</v>
@@ -9771,16 +9786,31 @@
       <c r="H202" t="s">
         <v>281</v>
       </c>
+      <c r="I202" t="s">
+        <v>9</v>
+      </c>
+      <c r="J202" t="s">
+        <v>9</v>
+      </c>
       <c r="K202">
         <v>2000</v>
       </c>
+      <c r="M202" t="s">
+        <v>233</v>
+      </c>
+      <c r="N202" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>510</v>
+        <v>569</v>
       </c>
       <c r="B203" t="s">
-        <v>629</v>
+        <v>627</v>
+      </c>
+      <c r="C203" t="s">
+        <v>568</v>
       </c>
       <c r="D203" t="s">
         <v>29</v>
@@ -9800,25 +9830,19 @@
       <c r="K203">
         <v>2000</v>
       </c>
-      <c r="M203" t="s">
-        <v>233</v>
-      </c>
-      <c r="N203" t="s">
-        <v>233</v>
-      </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="B204" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C204" t="s">
-        <v>16</v>
+        <v>567</v>
       </c>
       <c r="D204" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E204" t="s">
         <v>279</v>
@@ -9838,13 +9862,10 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>583</v>
+        <v>510</v>
       </c>
       <c r="B205" t="s">
-        <v>631</v>
-      </c>
-      <c r="C205" t="s">
-        <v>161</v>
+        <v>629</v>
       </c>
       <c r="D205" t="s">
         <v>29</v>
@@ -9864,16 +9885,22 @@
       <c r="K205">
         <v>2000</v>
       </c>
+      <c r="M205" t="s">
+        <v>233</v>
+      </c>
+      <c r="N205" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B206" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C206" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="D206" t="s">
         <v>29</v>
@@ -9896,13 +9923,13 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>511</v>
+        <v>583</v>
       </c>
       <c r="B207" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C207" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="D207" t="s">
         <v>29</v>
@@ -9917,36 +9944,24 @@
         <v>8</v>
       </c>
       <c r="H207" t="s">
-        <v>524</v>
-      </c>
-      <c r="I207">
-        <v>1970</v>
-      </c>
-      <c r="J207">
-        <v>2015</v>
+        <v>281</v>
       </c>
       <c r="K207">
-        <v>1970</v>
-      </c>
-      <c r="M207" t="s">
-        <v>233</v>
-      </c>
-      <c r="N207" t="s">
-        <v>233</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>512</v>
+        <v>584</v>
       </c>
       <c r="B208" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C208" t="s">
         <v>161</v>
       </c>
       <c r="D208" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E208" t="s">
         <v>279</v>
@@ -9958,39 +9973,24 @@
         <v>8</v>
       </c>
       <c r="H208" t="s">
-        <v>524</v>
-      </c>
-      <c r="I208" t="s">
-        <v>9</v>
-      </c>
-      <c r="J208" t="s">
-        <v>9</v>
+        <v>281</v>
       </c>
       <c r="K208">
-        <v>2015</v>
-      </c>
-      <c r="L208" t="s">
-        <v>9</v>
-      </c>
-      <c r="M208" t="s">
-        <v>233</v>
-      </c>
-      <c r="N208" t="s">
-        <v>233</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B209" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C209" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D209" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E209" t="s">
         <v>279</v>
@@ -10004,14 +10004,14 @@
       <c r="H209" t="s">
         <v>524</v>
       </c>
-      <c r="I209" t="s">
-        <v>9</v>
-      </c>
-      <c r="J209" t="s">
-        <v>9</v>
+      <c r="I209">
+        <v>1970</v>
+      </c>
+      <c r="J209">
+        <v>2015</v>
       </c>
       <c r="K209">
-        <v>2015</v>
+        <v>1970</v>
       </c>
       <c r="M209" t="s">
         <v>233</v>
@@ -10022,16 +10022,16 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B210" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C210" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="D210" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E210" t="s">
         <v>279</v>
@@ -10045,14 +10045,17 @@
       <c r="H210" t="s">
         <v>524</v>
       </c>
-      <c r="I210">
-        <v>1971</v>
-      </c>
-      <c r="J210">
+      <c r="I210" t="s">
+        <v>9</v>
+      </c>
+      <c r="J210" t="s">
+        <v>9</v>
+      </c>
+      <c r="K210">
         <v>2015</v>
       </c>
-      <c r="K210">
-        <v>1971</v>
+      <c r="L210" t="s">
+        <v>9</v>
       </c>
       <c r="M210" t="s">
         <v>233</v>
@@ -10063,16 +10066,16 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B211" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C211" t="s">
         <v>16</v>
       </c>
       <c r="D211" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E211" t="s">
         <v>279</v>
@@ -10086,14 +10089,14 @@
       <c r="H211" t="s">
         <v>524</v>
       </c>
-      <c r="I211">
-        <v>1970</v>
-      </c>
-      <c r="J211">
+      <c r="I211" t="s">
+        <v>9</v>
+      </c>
+      <c r="J211" t="s">
+        <v>9</v>
+      </c>
+      <c r="K211">
         <v>2015</v>
-      </c>
-      <c r="K211">
-        <v>1970</v>
       </c>
       <c r="M211" t="s">
         <v>233</v>
@@ -10104,34 +10107,37 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B212" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C212" t="s">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="D212" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E212" t="s">
         <v>279</v>
       </c>
       <c r="F212" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="G212" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H212" t="s">
         <v>524</v>
       </c>
-      <c r="I212" t="s">
-        <v>9</v>
-      </c>
-      <c r="J212" t="s">
-        <v>9</v>
+      <c r="I212">
+        <v>1971</v>
+      </c>
+      <c r="J212">
+        <v>2015</v>
+      </c>
+      <c r="K212">
+        <v>1971</v>
       </c>
       <c r="M212" t="s">
         <v>233</v>
@@ -10142,13 +10148,13 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>597</v>
+        <v>515</v>
       </c>
       <c r="B213" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C213" t="s">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="D213" t="s">
         <v>29</v>
@@ -10157,19 +10163,22 @@
         <v>279</v>
       </c>
       <c r="F213" t="s">
-        <v>280</v>
+        <v>17</v>
       </c>
       <c r="G213" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H213" t="s">
         <v>524</v>
       </c>
-      <c r="I213" t="s">
-        <v>9</v>
-      </c>
-      <c r="J213" t="s">
-        <v>9</v>
+      <c r="I213">
+        <v>1970</v>
+      </c>
+      <c r="J213">
+        <v>2015</v>
+      </c>
+      <c r="K213">
+        <v>1970</v>
       </c>
       <c r="M213" t="s">
         <v>233</v>
@@ -10180,37 +10189,34 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B214" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C214" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="D214" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E214" t="s">
         <v>279</v>
       </c>
       <c r="F214" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="G214" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H214" t="s">
         <v>524</v>
       </c>
-      <c r="I214">
-        <v>2000</v>
-      </c>
-      <c r="J214">
-        <v>2015</v>
-      </c>
-      <c r="K214">
-        <v>2000</v>
+      <c r="I214" t="s">
+        <v>9</v>
+      </c>
+      <c r="J214" t="s">
+        <v>9</v>
       </c>
       <c r="M214" t="s">
         <v>233</v>
@@ -10221,22 +10227,22 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>518</v>
+        <v>597</v>
       </c>
       <c r="B215" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C215" t="s">
-        <v>161</v>
+        <v>263</v>
       </c>
       <c r="D215" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E215" t="s">
         <v>279</v>
       </c>
       <c r="F215" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G215" t="s">
         <v>17</v>
@@ -10259,13 +10265,13 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B216" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C216" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="D216" t="s">
         <v>29</v>
@@ -10282,11 +10288,11 @@
       <c r="H216" t="s">
         <v>524</v>
       </c>
-      <c r="I216" t="s">
-        <v>9</v>
-      </c>
-      <c r="J216" t="s">
-        <v>9</v>
+      <c r="I216">
+        <v>2000</v>
+      </c>
+      <c r="J216">
+        <v>2015</v>
       </c>
       <c r="K216">
         <v>2000</v>
@@ -10300,25 +10306,25 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B217" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C217" t="s">
-        <v>282</v>
+        <v>161</v>
       </c>
       <c r="D217" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E217" t="s">
         <v>279</v>
       </c>
       <c r="F217" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="G217" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H217" t="s">
         <v>524</v>
@@ -10329,9 +10335,6 @@
       <c r="J217" t="s">
         <v>9</v>
       </c>
-      <c r="K217">
-        <v>2000</v>
-      </c>
       <c r="M217" t="s">
         <v>233</v>
       </c>
@@ -10341,13 +10344,13 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B218" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C218" t="s">
-        <v>282</v>
+        <v>35</v>
       </c>
       <c r="D218" t="s">
         <v>29</v>
@@ -10382,10 +10385,10 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B219" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C219" t="s">
         <v>282</v>
@@ -10423,13 +10426,13 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>571</v>
+        <v>521</v>
       </c>
       <c r="B220" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C220" t="s">
-        <v>568</v>
+        <v>282</v>
       </c>
       <c r="D220" t="s">
         <v>29</v>
@@ -10446,28 +10449,34 @@
       <c r="H220" t="s">
         <v>524</v>
       </c>
-      <c r="I220">
-        <v>2000</v>
-      </c>
-      <c r="J220">
-        <v>2015</v>
+      <c r="I220" t="s">
+        <v>9</v>
+      </c>
+      <c r="J220" t="s">
+        <v>9</v>
       </c>
       <c r="K220">
         <v>2000</v>
       </c>
+      <c r="M220" t="s">
+        <v>233</v>
+      </c>
+      <c r="N220" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>572</v>
+        <v>522</v>
       </c>
       <c r="B221" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C221" t="s">
-        <v>567</v>
+        <v>282</v>
       </c>
       <c r="D221" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E221" t="s">
         <v>279</v>
@@ -10481,22 +10490,31 @@
       <c r="H221" t="s">
         <v>524</v>
       </c>
-      <c r="I221">
-        <v>2000</v>
-      </c>
-      <c r="J221">
-        <v>2015</v>
+      <c r="I221" t="s">
+        <v>9</v>
+      </c>
+      <c r="J221" t="s">
+        <v>9</v>
       </c>
       <c r="K221">
         <v>2000</v>
       </c>
+      <c r="M221" t="s">
+        <v>233</v>
+      </c>
+      <c r="N221" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>523</v>
+        <v>571</v>
       </c>
       <c r="B222" t="s">
-        <v>648</v>
+        <v>646</v>
+      </c>
+      <c r="C222" t="s">
+        <v>568</v>
       </c>
       <c r="D222" t="s">
         <v>29</v>
@@ -10513,34 +10531,28 @@
       <c r="H222" t="s">
         <v>524</v>
       </c>
-      <c r="I222" t="s">
-        <v>9</v>
-      </c>
-      <c r="J222" t="s">
-        <v>9</v>
+      <c r="I222">
+        <v>2000</v>
+      </c>
+      <c r="J222">
+        <v>2015</v>
       </c>
       <c r="K222">
         <v>2000</v>
       </c>
-      <c r="M222" t="s">
-        <v>233</v>
-      </c>
-      <c r="N222" t="s">
-        <v>233</v>
-      </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="B223" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C223" t="s">
-        <v>16</v>
+        <v>567</v>
       </c>
       <c r="D223" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E223" t="s">
         <v>279</v>
@@ -10554,19 +10566,22 @@
       <c r="H223" t="s">
         <v>524</v>
       </c>
+      <c r="I223">
+        <v>2000</v>
+      </c>
+      <c r="J223">
+        <v>2015</v>
+      </c>
       <c r="K223">
         <v>2000</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>586</v>
+        <v>523</v>
       </c>
       <c r="B224" t="s">
-        <v>650</v>
-      </c>
-      <c r="C224" t="s">
-        <v>161</v>
+        <v>648</v>
       </c>
       <c r="D224" t="s">
         <v>29</v>
@@ -10583,19 +10598,31 @@
       <c r="H224" t="s">
         <v>524</v>
       </c>
+      <c r="I224" t="s">
+        <v>9</v>
+      </c>
+      <c r="J224" t="s">
+        <v>9</v>
+      </c>
       <c r="K224">
         <v>2000</v>
       </c>
+      <c r="M224" t="s">
+        <v>233</v>
+      </c>
+      <c r="N224" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B225" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C225" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="D225" t="s">
         <v>29</v>
@@ -10618,13 +10645,13 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>526</v>
+        <v>586</v>
       </c>
       <c r="B226" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C226" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="D226" t="s">
         <v>29</v>
@@ -10639,36 +10666,24 @@
         <v>8</v>
       </c>
       <c r="H226" t="s">
-        <v>525</v>
-      </c>
-      <c r="I226">
-        <v>1970</v>
-      </c>
-      <c r="J226">
-        <v>2015</v>
+        <v>524</v>
       </c>
       <c r="K226">
-        <v>1970</v>
-      </c>
-      <c r="M226" t="s">
-        <v>233</v>
-      </c>
-      <c r="N226" t="s">
-        <v>233</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
       <c r="B227" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C227" t="s">
         <v>161</v>
       </c>
       <c r="D227" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E227" t="s">
         <v>279</v>
@@ -10680,39 +10695,24 @@
         <v>8</v>
       </c>
       <c r="H227" t="s">
-        <v>525</v>
-      </c>
-      <c r="I227" t="s">
-        <v>9</v>
-      </c>
-      <c r="J227" t="s">
-        <v>9</v>
+        <v>524</v>
       </c>
       <c r="K227">
-        <v>2015</v>
-      </c>
-      <c r="L227" t="s">
-        <v>9</v>
-      </c>
-      <c r="M227" t="s">
-        <v>233</v>
-      </c>
-      <c r="N227" t="s">
-        <v>233</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B228" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C228" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D228" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E228" t="s">
         <v>279</v>
@@ -10726,14 +10726,14 @@
       <c r="H228" t="s">
         <v>525</v>
       </c>
-      <c r="I228" t="s">
-        <v>9</v>
-      </c>
-      <c r="J228" t="s">
-        <v>9</v>
+      <c r="I228">
+        <v>1970</v>
+      </c>
+      <c r="J228">
+        <v>2015</v>
       </c>
       <c r="K228">
-        <v>2015</v>
+        <v>1970</v>
       </c>
       <c r="M228" t="s">
         <v>233</v>
@@ -10744,16 +10744,16 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B229" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C229" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="D229" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E229" t="s">
         <v>279</v>
@@ -10767,14 +10767,17 @@
       <c r="H229" t="s">
         <v>525</v>
       </c>
-      <c r="I229">
-        <v>1971</v>
-      </c>
-      <c r="J229">
+      <c r="I229" t="s">
+        <v>9</v>
+      </c>
+      <c r="J229" t="s">
+        <v>9</v>
+      </c>
+      <c r="K229">
         <v>2015</v>
       </c>
-      <c r="K229">
-        <v>1971</v>
+      <c r="L229" t="s">
+        <v>9</v>
       </c>
       <c r="M229" t="s">
         <v>233</v>
@@ -10785,16 +10788,16 @@
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B230" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C230" t="s">
         <v>16</v>
       </c>
       <c r="D230" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E230" t="s">
         <v>279</v>
@@ -10808,14 +10811,14 @@
       <c r="H230" t="s">
         <v>525</v>
       </c>
-      <c r="I230">
-        <v>1970</v>
-      </c>
-      <c r="J230">
+      <c r="I230" t="s">
+        <v>9</v>
+      </c>
+      <c r="J230" t="s">
+        <v>9</v>
+      </c>
+      <c r="K230">
         <v>2015</v>
-      </c>
-      <c r="K230">
-        <v>1970</v>
       </c>
       <c r="M230" t="s">
         <v>233</v>
@@ -10826,34 +10829,37 @@
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B231" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C231" t="s">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="D231" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E231" t="s">
         <v>279</v>
       </c>
       <c r="F231" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="G231" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H231" t="s">
         <v>525</v>
       </c>
-      <c r="I231" t="s">
-        <v>9</v>
-      </c>
-      <c r="J231" t="s">
-        <v>9</v>
+      <c r="I231">
+        <v>1971</v>
+      </c>
+      <c r="J231">
+        <v>2015</v>
+      </c>
+      <c r="K231">
+        <v>1971</v>
       </c>
       <c r="M231" t="s">
         <v>233</v>
@@ -10864,13 +10870,13 @@
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>598</v>
+        <v>530</v>
       </c>
       <c r="B232" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C232" t="s">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="D232" t="s">
         <v>29</v>
@@ -10879,19 +10885,22 @@
         <v>279</v>
       </c>
       <c r="F232" t="s">
-        <v>280</v>
+        <v>17</v>
       </c>
       <c r="G232" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H232" t="s">
         <v>525</v>
       </c>
-      <c r="I232" t="s">
-        <v>9</v>
-      </c>
-      <c r="J232" t="s">
-        <v>9</v>
+      <c r="I232">
+        <v>1970</v>
+      </c>
+      <c r="J232">
+        <v>2015</v>
+      </c>
+      <c r="K232">
+        <v>1970</v>
       </c>
       <c r="M232" t="s">
         <v>233</v>
@@ -10902,37 +10911,34 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B233" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C233" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="D233" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E233" t="s">
         <v>279</v>
       </c>
       <c r="F233" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="G233" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H233" t="s">
         <v>525</v>
       </c>
-      <c r="I233">
-        <v>2000</v>
-      </c>
-      <c r="J233">
-        <v>2015</v>
-      </c>
-      <c r="K233">
-        <v>2000</v>
+      <c r="I233" t="s">
+        <v>9</v>
+      </c>
+      <c r="J233" t="s">
+        <v>9</v>
       </c>
       <c r="M233" t="s">
         <v>233</v>
@@ -10943,22 +10949,22 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>533</v>
+        <v>598</v>
       </c>
       <c r="B234" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C234" t="s">
-        <v>161</v>
+        <v>263</v>
       </c>
       <c r="D234" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E234" t="s">
         <v>279</v>
       </c>
       <c r="F234" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G234" t="s">
         <v>17</v>
@@ -10981,13 +10987,13 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B235" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C235" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="D235" t="s">
         <v>29</v>
@@ -11004,11 +11010,11 @@
       <c r="H235" t="s">
         <v>525</v>
       </c>
-      <c r="I235" t="s">
-        <v>9</v>
-      </c>
-      <c r="J235" t="s">
-        <v>9</v>
+      <c r="I235">
+        <v>2000</v>
+      </c>
+      <c r="J235">
+        <v>2015</v>
       </c>
       <c r="K235">
         <v>2000</v>
@@ -11022,25 +11028,25 @@
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B236" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C236" t="s">
-        <v>282</v>
+        <v>161</v>
       </c>
       <c r="D236" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E236" t="s">
         <v>279</v>
       </c>
       <c r="F236" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="G236" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H236" t="s">
         <v>525</v>
@@ -11051,9 +11057,6 @@
       <c r="J236" t="s">
         <v>9</v>
       </c>
-      <c r="K236">
-        <v>2000</v>
-      </c>
       <c r="M236" t="s">
         <v>233</v>
       </c>
@@ -11063,13 +11066,13 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B237" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C237" t="s">
-        <v>282</v>
+        <v>35</v>
       </c>
       <c r="D237" t="s">
         <v>29</v>
@@ -11104,10 +11107,10 @@
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B238" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C238" t="s">
         <v>282</v>
@@ -11145,13 +11148,13 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>573</v>
+        <v>536</v>
       </c>
       <c r="B239" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C239" t="s">
-        <v>568</v>
+        <v>282</v>
       </c>
       <c r="D239" t="s">
         <v>29</v>
@@ -11168,28 +11171,34 @@
       <c r="H239" t="s">
         <v>525</v>
       </c>
-      <c r="I239">
-        <v>2000</v>
-      </c>
-      <c r="J239">
-        <v>2015</v>
+      <c r="I239" t="s">
+        <v>9</v>
+      </c>
+      <c r="J239" t="s">
+        <v>9</v>
       </c>
       <c r="K239">
         <v>2000</v>
       </c>
+      <c r="M239" t="s">
+        <v>233</v>
+      </c>
+      <c r="N239" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>574</v>
+        <v>537</v>
       </c>
       <c r="B240" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C240" t="s">
-        <v>567</v>
+        <v>282</v>
       </c>
       <c r="D240" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E240" t="s">
         <v>279</v>
@@ -11203,22 +11212,31 @@
       <c r="H240" t="s">
         <v>525</v>
       </c>
-      <c r="I240">
-        <v>2000</v>
-      </c>
-      <c r="J240">
-        <v>2015</v>
+      <c r="I240" t="s">
+        <v>9</v>
+      </c>
+      <c r="J240" t="s">
+        <v>9</v>
       </c>
       <c r="K240">
         <v>2000</v>
       </c>
+      <c r="M240" t="s">
+        <v>233</v>
+      </c>
+      <c r="N240" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="B241" t="s">
-        <v>667</v>
+        <v>665</v>
+      </c>
+      <c r="C241" t="s">
+        <v>568</v>
       </c>
       <c r="D241" t="s">
         <v>29</v>
@@ -11235,34 +11253,28 @@
       <c r="H241" t="s">
         <v>525</v>
       </c>
-      <c r="I241" t="s">
-        <v>9</v>
-      </c>
-      <c r="J241" t="s">
-        <v>9</v>
+      <c r="I241">
+        <v>2000</v>
+      </c>
+      <c r="J241">
+        <v>2015</v>
       </c>
       <c r="K241">
         <v>2000</v>
       </c>
-      <c r="M241" t="s">
-        <v>233</v>
-      </c>
-      <c r="N241" t="s">
-        <v>233</v>
-      </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="B242" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C242" t="s">
-        <v>16</v>
+        <v>567</v>
       </c>
       <c r="D242" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E242" t="s">
         <v>279</v>
@@ -11276,19 +11288,22 @@
       <c r="H242" t="s">
         <v>525</v>
       </c>
+      <c r="I242">
+        <v>2000</v>
+      </c>
+      <c r="J242">
+        <v>2015</v>
+      </c>
       <c r="K242">
         <v>2000</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>589</v>
+        <v>538</v>
       </c>
       <c r="B243" t="s">
-        <v>669</v>
-      </c>
-      <c r="C243" t="s">
-        <v>161</v>
+        <v>667</v>
       </c>
       <c r="D243" t="s">
         <v>29</v>
@@ -11305,19 +11320,31 @@
       <c r="H243" t="s">
         <v>525</v>
       </c>
+      <c r="I243" t="s">
+        <v>9</v>
+      </c>
+      <c r="J243" t="s">
+        <v>9</v>
+      </c>
       <c r="K243">
         <v>2000</v>
       </c>
+      <c r="M243" t="s">
+        <v>233</v>
+      </c>
+      <c r="N243" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B244" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C244" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="D244" t="s">
         <v>29</v>
@@ -11340,13 +11367,13 @@
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>539</v>
+        <v>589</v>
       </c>
       <c r="B245" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C245" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="D245" t="s">
         <v>29</v>
@@ -11361,36 +11388,24 @@
         <v>8</v>
       </c>
       <c r="H245" t="s">
-        <v>552</v>
-      </c>
-      <c r="I245">
-        <v>1970</v>
-      </c>
-      <c r="J245">
-        <v>2015</v>
+        <v>525</v>
       </c>
       <c r="K245">
-        <v>1970</v>
-      </c>
-      <c r="M245" t="s">
-        <v>233</v>
-      </c>
-      <c r="N245" t="s">
-        <v>233</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="B246" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C246" t="s">
         <v>161</v>
       </c>
       <c r="D246" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E246" t="s">
         <v>279</v>
@@ -11402,39 +11417,24 @@
         <v>8</v>
       </c>
       <c r="H246" t="s">
-        <v>552</v>
-      </c>
-      <c r="I246" t="s">
-        <v>9</v>
-      </c>
-      <c r="J246" t="s">
-        <v>9</v>
+        <v>525</v>
       </c>
       <c r="K246">
-        <v>2015</v>
-      </c>
-      <c r="L246" t="s">
-        <v>9</v>
-      </c>
-      <c r="M246" t="s">
-        <v>233</v>
-      </c>
-      <c r="N246" t="s">
-        <v>233</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B247" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C247" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D247" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E247" t="s">
         <v>279</v>
@@ -11448,14 +11448,14 @@
       <c r="H247" t="s">
         <v>552</v>
       </c>
-      <c r="I247" t="s">
-        <v>9</v>
-      </c>
-      <c r="J247" t="s">
-        <v>9</v>
+      <c r="I247">
+        <v>1970</v>
+      </c>
+      <c r="J247">
+        <v>2015</v>
       </c>
       <c r="K247">
-        <v>2015</v>
+        <v>1970</v>
       </c>
       <c r="M247" t="s">
         <v>233</v>
@@ -11466,16 +11466,16 @@
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B248" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C248" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="D248" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E248" t="s">
         <v>279</v>
@@ -11489,14 +11489,17 @@
       <c r="H248" t="s">
         <v>552</v>
       </c>
-      <c r="I248">
-        <v>1971</v>
-      </c>
-      <c r="J248">
+      <c r="I248" t="s">
+        <v>9</v>
+      </c>
+      <c r="J248" t="s">
+        <v>9</v>
+      </c>
+      <c r="K248">
         <v>2015</v>
       </c>
-      <c r="K248">
-        <v>1971</v>
+      <c r="L248" t="s">
+        <v>9</v>
       </c>
       <c r="M248" t="s">
         <v>233</v>
@@ -11507,16 +11510,16 @@
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B249" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C249" t="s">
         <v>16</v>
       </c>
       <c r="D249" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E249" t="s">
         <v>279</v>
@@ -11530,14 +11533,14 @@
       <c r="H249" t="s">
         <v>552</v>
       </c>
-      <c r="I249">
-        <v>1970</v>
-      </c>
-      <c r="J249">
+      <c r="I249" t="s">
+        <v>9</v>
+      </c>
+      <c r="J249" t="s">
+        <v>9</v>
+      </c>
+      <c r="K249">
         <v>2015</v>
-      </c>
-      <c r="K249">
-        <v>1970</v>
       </c>
       <c r="M249" t="s">
         <v>233</v>
@@ -11548,34 +11551,37 @@
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B250" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C250" t="s">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="D250" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E250" t="s">
         <v>279</v>
       </c>
       <c r="F250" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="G250" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H250" t="s">
         <v>552</v>
       </c>
-      <c r="I250" t="s">
-        <v>9</v>
-      </c>
-      <c r="J250" t="s">
-        <v>9</v>
+      <c r="I250">
+        <v>1971</v>
+      </c>
+      <c r="J250">
+        <v>2015</v>
+      </c>
+      <c r="K250">
+        <v>1971</v>
       </c>
       <c r="M250" t="s">
         <v>233</v>
@@ -11586,13 +11592,13 @@
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>599</v>
+        <v>543</v>
       </c>
       <c r="B251" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C251" t="s">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="D251" t="s">
         <v>29</v>
@@ -11601,19 +11607,22 @@
         <v>279</v>
       </c>
       <c r="F251" t="s">
-        <v>280</v>
+        <v>17</v>
       </c>
       <c r="G251" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H251" t="s">
         <v>552</v>
       </c>
-      <c r="I251" t="s">
-        <v>9</v>
-      </c>
-      <c r="J251" t="s">
-        <v>9</v>
+      <c r="I251">
+        <v>1970</v>
+      </c>
+      <c r="J251">
+        <v>2015</v>
+      </c>
+      <c r="K251">
+        <v>1970</v>
       </c>
       <c r="M251" t="s">
         <v>233</v>
@@ -11624,37 +11633,34 @@
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B252" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C252" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="D252" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E252" t="s">
         <v>279</v>
       </c>
       <c r="F252" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="G252" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H252" t="s">
         <v>552</v>
       </c>
-      <c r="I252">
-        <v>2000</v>
-      </c>
-      <c r="J252">
-        <v>2015</v>
-      </c>
-      <c r="K252">
-        <v>2000</v>
+      <c r="I252" t="s">
+        <v>9</v>
+      </c>
+      <c r="J252" t="s">
+        <v>9</v>
       </c>
       <c r="M252" t="s">
         <v>233</v>
@@ -11665,22 +11671,22 @@
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>546</v>
+        <v>599</v>
       </c>
       <c r="B253" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C253" t="s">
-        <v>161</v>
+        <v>263</v>
       </c>
       <c r="D253" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E253" t="s">
         <v>279</v>
       </c>
       <c r="F253" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G253" t="s">
         <v>17</v>
@@ -11703,13 +11709,13 @@
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B254" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C254" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="D254" t="s">
         <v>29</v>
@@ -11726,11 +11732,11 @@
       <c r="H254" t="s">
         <v>552</v>
       </c>
-      <c r="I254" t="s">
-        <v>9</v>
-      </c>
-      <c r="J254" t="s">
-        <v>9</v>
+      <c r="I254">
+        <v>2000</v>
+      </c>
+      <c r="J254">
+        <v>2015</v>
       </c>
       <c r="K254">
         <v>2000</v>
@@ -11744,25 +11750,25 @@
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B255" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C255" t="s">
-        <v>282</v>
+        <v>161</v>
       </c>
       <c r="D255" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E255" t="s">
         <v>279</v>
       </c>
       <c r="F255" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="G255" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H255" t="s">
         <v>552</v>
@@ -11773,9 +11779,6 @@
       <c r="J255" t="s">
         <v>9</v>
       </c>
-      <c r="K255">
-        <v>2000</v>
-      </c>
       <c r="M255" t="s">
         <v>233</v>
       </c>
@@ -11785,13 +11788,13 @@
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B256" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C256" t="s">
-        <v>282</v>
+        <v>35</v>
       </c>
       <c r="D256" t="s">
         <v>29</v>
@@ -11826,10 +11829,10 @@
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B257" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C257" t="s">
         <v>282</v>
@@ -11867,13 +11870,13 @@
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>575</v>
+        <v>549</v>
       </c>
       <c r="B258" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C258" t="s">
-        <v>568</v>
+        <v>282</v>
       </c>
       <c r="D258" t="s">
         <v>29</v>
@@ -11890,28 +11893,34 @@
       <c r="H258" t="s">
         <v>552</v>
       </c>
-      <c r="I258">
-        <v>2000</v>
-      </c>
-      <c r="J258">
-        <v>2015</v>
+      <c r="I258" t="s">
+        <v>9</v>
+      </c>
+      <c r="J258" t="s">
+        <v>9</v>
       </c>
       <c r="K258">
         <v>2000</v>
       </c>
+      <c r="M258" t="s">
+        <v>233</v>
+      </c>
+      <c r="N258" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>576</v>
+        <v>550</v>
       </c>
       <c r="B259" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C259" t="s">
-        <v>567</v>
+        <v>282</v>
       </c>
       <c r="D259" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E259" t="s">
         <v>279</v>
@@ -11925,22 +11934,31 @@
       <c r="H259" t="s">
         <v>552</v>
       </c>
-      <c r="I259">
-        <v>2000</v>
-      </c>
-      <c r="J259">
-        <v>2015</v>
+      <c r="I259" t="s">
+        <v>9</v>
+      </c>
+      <c r="J259" t="s">
+        <v>9</v>
       </c>
       <c r="K259">
         <v>2000</v>
       </c>
+      <c r="M259" t="s">
+        <v>233</v>
+      </c>
+      <c r="N259" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="B260" t="s">
-        <v>686</v>
+        <v>684</v>
+      </c>
+      <c r="C260" t="s">
+        <v>568</v>
       </c>
       <c r="D260" t="s">
         <v>29</v>
@@ -11957,34 +11975,28 @@
       <c r="H260" t="s">
         <v>552</v>
       </c>
-      <c r="I260" t="s">
-        <v>9</v>
-      </c>
-      <c r="J260" t="s">
-        <v>9</v>
+      <c r="I260">
+        <v>2000</v>
+      </c>
+      <c r="J260">
+        <v>2015</v>
       </c>
       <c r="K260">
         <v>2000</v>
       </c>
-      <c r="M260" t="s">
-        <v>233</v>
-      </c>
-      <c r="N260" t="s">
-        <v>233</v>
-      </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="B261" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C261" t="s">
-        <v>16</v>
+        <v>567</v>
       </c>
       <c r="D261" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E261" t="s">
         <v>279</v>
@@ -11998,19 +12010,22 @@
       <c r="H261" t="s">
         <v>552</v>
       </c>
+      <c r="I261">
+        <v>2000</v>
+      </c>
+      <c r="J261">
+        <v>2015</v>
+      </c>
       <c r="K261">
         <v>2000</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>592</v>
+        <v>551</v>
       </c>
       <c r="B262" t="s">
-        <v>688</v>
-      </c>
-      <c r="C262" t="s">
-        <v>161</v>
+        <v>686</v>
       </c>
       <c r="D262" t="s">
         <v>29</v>
@@ -12027,19 +12042,31 @@
       <c r="H262" t="s">
         <v>552</v>
       </c>
+      <c r="I262" t="s">
+        <v>9</v>
+      </c>
+      <c r="J262" t="s">
+        <v>9</v>
+      </c>
       <c r="K262">
         <v>2000</v>
       </c>
+      <c r="M262" t="s">
+        <v>233</v>
+      </c>
+      <c r="N262" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B263" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C263" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="D263" t="s">
         <v>29</v>
@@ -12062,13 +12089,13 @@
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>554</v>
+        <v>592</v>
       </c>
       <c r="B264" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C264" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="D264" t="s">
         <v>29</v>
@@ -12083,36 +12110,24 @@
         <v>8</v>
       </c>
       <c r="H264" t="s">
-        <v>553</v>
-      </c>
-      <c r="I264">
-        <v>1970</v>
-      </c>
-      <c r="J264">
-        <v>2015</v>
+        <v>552</v>
       </c>
       <c r="K264">
-        <v>1970</v>
-      </c>
-      <c r="M264" t="s">
-        <v>233</v>
-      </c>
-      <c r="N264" t="s">
-        <v>233</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>555</v>
+        <v>593</v>
       </c>
       <c r="B265" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C265" t="s">
         <v>161</v>
       </c>
       <c r="D265" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E265" t="s">
         <v>279</v>
@@ -12124,39 +12139,24 @@
         <v>8</v>
       </c>
       <c r="H265" t="s">
-        <v>553</v>
-      </c>
-      <c r="I265" t="s">
-        <v>9</v>
-      </c>
-      <c r="J265" t="s">
-        <v>9</v>
+        <v>552</v>
       </c>
       <c r="K265">
-        <v>2015</v>
-      </c>
-      <c r="L265" t="s">
-        <v>9</v>
-      </c>
-      <c r="M265" t="s">
-        <v>233</v>
-      </c>
-      <c r="N265" t="s">
-        <v>233</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B266" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C266" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D266" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E266" t="s">
         <v>279</v>
@@ -12170,14 +12170,14 @@
       <c r="H266" t="s">
         <v>553</v>
       </c>
-      <c r="I266" t="s">
-        <v>9</v>
-      </c>
-      <c r="J266" t="s">
-        <v>9</v>
+      <c r="I266">
+        <v>1970</v>
+      </c>
+      <c r="J266">
+        <v>2015</v>
       </c>
       <c r="K266">
-        <v>2015</v>
+        <v>1970</v>
       </c>
       <c r="M266" t="s">
         <v>233</v>
@@ -12188,16 +12188,16 @@
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B267" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C267" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="D267" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E267" t="s">
         <v>279</v>
@@ -12211,14 +12211,17 @@
       <c r="H267" t="s">
         <v>553</v>
       </c>
-      <c r="I267">
-        <v>1971</v>
-      </c>
-      <c r="J267">
+      <c r="I267" t="s">
+        <v>9</v>
+      </c>
+      <c r="J267" t="s">
+        <v>9</v>
+      </c>
+      <c r="K267">
         <v>2015</v>
       </c>
-      <c r="K267">
-        <v>1971</v>
+      <c r="L267" t="s">
+        <v>9</v>
       </c>
       <c r="M267" t="s">
         <v>233</v>
@@ -12229,16 +12232,16 @@
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B268" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C268" t="s">
         <v>16</v>
       </c>
       <c r="D268" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E268" t="s">
         <v>279</v>
@@ -12252,14 +12255,14 @@
       <c r="H268" t="s">
         <v>553</v>
       </c>
-      <c r="I268">
-        <v>1970</v>
-      </c>
-      <c r="J268">
+      <c r="I268" t="s">
+        <v>9</v>
+      </c>
+      <c r="J268" t="s">
+        <v>9</v>
+      </c>
+      <c r="K268">
         <v>2015</v>
-      </c>
-      <c r="K268">
-        <v>1970</v>
       </c>
       <c r="M268" t="s">
         <v>233</v>
@@ -12270,34 +12273,37 @@
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B269" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C269" t="s">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="D269" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E269" t="s">
         <v>279</v>
       </c>
       <c r="F269" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="G269" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H269" t="s">
         <v>553</v>
       </c>
-      <c r="I269" t="s">
-        <v>9</v>
-      </c>
-      <c r="J269" t="s">
-        <v>9</v>
+      <c r="I269">
+        <v>1971</v>
+      </c>
+      <c r="J269">
+        <v>2015</v>
+      </c>
+      <c r="K269">
+        <v>1971</v>
       </c>
       <c r="M269" t="s">
         <v>233</v>
@@ -12308,13 +12314,13 @@
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>600</v>
+        <v>558</v>
       </c>
       <c r="B270" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C270" t="s">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="D270" t="s">
         <v>29</v>
@@ -12323,19 +12329,22 @@
         <v>279</v>
       </c>
       <c r="F270" t="s">
-        <v>280</v>
+        <v>17</v>
       </c>
       <c r="G270" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H270" t="s">
         <v>553</v>
       </c>
-      <c r="I270" t="s">
-        <v>9</v>
-      </c>
-      <c r="J270" t="s">
-        <v>9</v>
+      <c r="I270">
+        <v>1970</v>
+      </c>
+      <c r="J270">
+        <v>2015</v>
+      </c>
+      <c r="K270">
+        <v>1970</v>
       </c>
       <c r="M270" t="s">
         <v>233</v>
@@ -12346,37 +12355,34 @@
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B271" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C271" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="D271" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E271" t="s">
         <v>279</v>
       </c>
       <c r="F271" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="G271" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H271" t="s">
         <v>553</v>
       </c>
-      <c r="I271">
-        <v>2000</v>
-      </c>
-      <c r="J271">
-        <v>2015</v>
-      </c>
-      <c r="K271">
-        <v>2000</v>
+      <c r="I271" t="s">
+        <v>9</v>
+      </c>
+      <c r="J271" t="s">
+        <v>9</v>
       </c>
       <c r="M271" t="s">
         <v>233</v>
@@ -12387,22 +12393,22 @@
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>561</v>
+        <v>600</v>
       </c>
       <c r="B272" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C272" t="s">
-        <v>161</v>
+        <v>263</v>
       </c>
       <c r="D272" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E272" t="s">
         <v>279</v>
       </c>
       <c r="F272" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G272" t="s">
         <v>17</v>
@@ -12425,13 +12431,13 @@
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B273" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C273" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="D273" t="s">
         <v>29</v>
@@ -12448,11 +12454,11 @@
       <c r="H273" t="s">
         <v>553</v>
       </c>
-      <c r="I273" t="s">
-        <v>9</v>
-      </c>
-      <c r="J273" t="s">
-        <v>9</v>
+      <c r="I273">
+        <v>2000</v>
+      </c>
+      <c r="J273">
+        <v>2015</v>
       </c>
       <c r="K273">
         <v>2000</v>
@@ -12466,25 +12472,25 @@
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B274" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C274" t="s">
-        <v>282</v>
+        <v>161</v>
       </c>
       <c r="D274" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E274" t="s">
         <v>279</v>
       </c>
       <c r="F274" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="G274" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H274" t="s">
         <v>553</v>
@@ -12495,9 +12501,6 @@
       <c r="J274" t="s">
         <v>9</v>
       </c>
-      <c r="K274">
-        <v>2000</v>
-      </c>
       <c r="M274" t="s">
         <v>233</v>
       </c>
@@ -12507,13 +12510,13 @@
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B275" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C275" t="s">
-        <v>282</v>
+        <v>35</v>
       </c>
       <c r="D275" t="s">
         <v>29</v>
@@ -12548,10 +12551,10 @@
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B276" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C276" t="s">
         <v>282</v>
@@ -12589,13 +12592,13 @@
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="B277" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C277" t="s">
-        <v>568</v>
+        <v>282</v>
       </c>
       <c r="D277" t="s">
         <v>29</v>
@@ -12612,28 +12615,34 @@
       <c r="H277" t="s">
         <v>553</v>
       </c>
-      <c r="I277">
-        <v>2000</v>
-      </c>
-      <c r="J277">
-        <v>2015</v>
+      <c r="I277" t="s">
+        <v>9</v>
+      </c>
+      <c r="J277" t="s">
+        <v>9</v>
       </c>
       <c r="K277">
         <v>2000</v>
       </c>
+      <c r="M277" t="s">
+        <v>233</v>
+      </c>
+      <c r="N277" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="B278" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C278" t="s">
-        <v>567</v>
+        <v>282</v>
       </c>
       <c r="D278" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E278" t="s">
         <v>279</v>
@@ -12647,22 +12656,31 @@
       <c r="H278" t="s">
         <v>553</v>
       </c>
-      <c r="I278">
-        <v>2000</v>
-      </c>
-      <c r="J278">
-        <v>2015</v>
+      <c r="I278" t="s">
+        <v>9</v>
+      </c>
+      <c r="J278" t="s">
+        <v>9</v>
       </c>
       <c r="K278">
         <v>2000</v>
       </c>
+      <c r="M278" t="s">
+        <v>233</v>
+      </c>
+      <c r="N278" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B279" t="s">
-        <v>705</v>
+        <v>703</v>
+      </c>
+      <c r="C279" t="s">
+        <v>568</v>
       </c>
       <c r="D279" t="s">
         <v>29</v>
@@ -12679,34 +12697,28 @@
       <c r="H279" t="s">
         <v>553</v>
       </c>
-      <c r="I279" t="s">
-        <v>9</v>
-      </c>
-      <c r="J279" t="s">
-        <v>9</v>
+      <c r="I279">
+        <v>2000</v>
+      </c>
+      <c r="J279">
+        <v>2015</v>
       </c>
       <c r="K279">
         <v>2000</v>
       </c>
-      <c r="M279" t="s">
-        <v>233</v>
-      </c>
-      <c r="N279" t="s">
-        <v>233</v>
-      </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B280" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C280" t="s">
-        <v>16</v>
+        <v>567</v>
       </c>
       <c r="D280" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E280" t="s">
         <v>279</v>
@@ -12720,19 +12732,22 @@
       <c r="H280" t="s">
         <v>553</v>
       </c>
+      <c r="I280">
+        <v>2000</v>
+      </c>
+      <c r="J280">
+        <v>2015</v>
+      </c>
       <c r="K280">
         <v>2000</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="B281" t="s">
-        <v>707</v>
-      </c>
-      <c r="C281" t="s">
-        <v>161</v>
+        <v>705</v>
       </c>
       <c r="D281" t="s">
         <v>29</v>
@@ -12749,19 +12764,31 @@
       <c r="H281" t="s">
         <v>553</v>
       </c>
+      <c r="I281" t="s">
+        <v>9</v>
+      </c>
+      <c r="J281" t="s">
+        <v>9</v>
+      </c>
       <c r="K281">
         <v>2000</v>
       </c>
+      <c r="M281" t="s">
+        <v>233</v>
+      </c>
+      <c r="N281" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B282" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C282" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="D282" t="s">
         <v>29</v>
@@ -12784,19 +12811,19 @@
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>404</v>
+        <v>580</v>
       </c>
       <c r="B283" t="s">
-        <v>405</v>
+        <v>707</v>
       </c>
       <c r="C283" t="s">
-        <v>406</v>
+        <v>161</v>
       </c>
       <c r="D283" t="s">
         <v>29</v>
       </c>
       <c r="E283" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="F283" t="s">
         <v>17</v>
@@ -12805,36 +12832,27 @@
         <v>8</v>
       </c>
       <c r="H283" t="s">
-        <v>407</v>
-      </c>
-      <c r="J283">
-        <v>2018</v>
+        <v>553</v>
       </c>
       <c r="K283">
-        <v>1995</v>
-      </c>
-      <c r="M283" t="s">
-        <v>233</v>
-      </c>
-      <c r="N283" t="s">
-        <v>233</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>408</v>
+        <v>581</v>
       </c>
       <c r="B284" t="s">
-        <v>409</v>
+        <v>708</v>
       </c>
       <c r="C284" t="s">
-        <v>612</v>
+        <v>161</v>
       </c>
       <c r="D284" t="s">
         <v>29</v>
       </c>
       <c r="E284" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="F284" t="s">
         <v>17</v>
@@ -12843,36 +12861,27 @@
         <v>8</v>
       </c>
       <c r="H284" t="s">
-        <v>407</v>
-      </c>
-      <c r="J284">
-        <v>2019</v>
+        <v>553</v>
       </c>
       <c r="K284">
-        <v>1995</v>
-      </c>
-      <c r="M284" t="s">
-        <v>233</v>
-      </c>
-      <c r="N284" t="s">
-        <v>233</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B285" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C285" t="s">
-        <v>161</v>
+        <v>406</v>
       </c>
       <c r="D285" t="s">
         <v>29</v>
       </c>
       <c r="E285" t="s">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="F285" t="s">
         <v>17</v>
@@ -12884,10 +12893,10 @@
         <v>407</v>
       </c>
       <c r="J285">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="K285">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="M285" t="s">
         <v>233</v>
@@ -12898,13 +12907,13 @@
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B286" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C286" t="s">
-        <v>415</v>
+        <v>612</v>
       </c>
       <c r="D286" t="s">
         <v>29</v>
@@ -12936,19 +12945,19 @@
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B287" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C287" t="s">
-        <v>418</v>
+        <v>161</v>
       </c>
       <c r="D287" t="s">
         <v>29</v>
       </c>
       <c r="E287" t="s">
-        <v>17</v>
+        <v>412</v>
       </c>
       <c r="F287" t="s">
         <v>17</v>
@@ -12963,7 +12972,7 @@
         <v>2019</v>
       </c>
       <c r="K287">
-        <v>2018</v>
+        <v>2001</v>
       </c>
       <c r="M287" t="s">
         <v>233</v>
@@ -12974,16 +12983,19 @@
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B288" t="s">
-        <v>420</v>
+        <v>414</v>
+      </c>
+      <c r="C288" t="s">
+        <v>415</v>
       </c>
       <c r="D288" t="s">
         <v>29</v>
       </c>
       <c r="E288" t="s">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="F288" t="s">
         <v>17</v>
@@ -12998,7 +13010,7 @@
         <v>2019</v>
       </c>
       <c r="K288">
-        <v>2018</v>
+        <v>1995</v>
       </c>
       <c r="M288" t="s">
         <v>233</v>
@@ -13009,19 +13021,19 @@
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B289" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C289" t="s">
-        <v>161</v>
+        <v>418</v>
       </c>
       <c r="D289" t="s">
         <v>29</v>
       </c>
       <c r="E289" t="s">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="F289" t="s">
         <v>17</v>
@@ -13047,13 +13059,10 @@
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B290" t="s">
-        <v>424</v>
-      </c>
-      <c r="C290" t="s">
-        <v>214</v>
+        <v>420</v>
       </c>
       <c r="D290" t="s">
         <v>29</v>
@@ -13085,13 +13094,13 @@
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B291" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C291" t="s">
-        <v>427</v>
+        <v>161</v>
       </c>
       <c r="D291" t="s">
         <v>29</v>
@@ -13123,19 +13132,19 @@
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B292" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C292" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="D292" t="s">
         <v>29</v>
       </c>
       <c r="E292" t="s">
-        <v>17</v>
+        <v>412</v>
       </c>
       <c r="F292" t="s">
         <v>17</v>
@@ -13161,19 +13170,19 @@
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B293" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C293" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D293" t="s">
         <v>29</v>
       </c>
       <c r="E293" t="s">
-        <v>17</v>
+        <v>412</v>
       </c>
       <c r="F293" t="s">
         <v>17</v>
@@ -13199,13 +13208,13 @@
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B294" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="C294" t="s">
-        <v>418</v>
+        <v>161</v>
       </c>
       <c r="D294" t="s">
         <v>29</v>
@@ -13237,26 +13246,35 @@
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B295" t="s">
-        <v>435</v>
+        <v>431</v>
+      </c>
+      <c r="C295" t="s">
+        <v>432</v>
       </c>
       <c r="D295" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E295" t="s">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="F295" t="s">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="G295" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H295" t="s">
         <v>407</v>
       </c>
+      <c r="J295">
+        <v>2019</v>
+      </c>
+      <c r="K295">
+        <v>2018</v>
+      </c>
       <c r="M295" t="s">
         <v>233</v>
       </c>
@@ -13266,29 +13284,35 @@
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B296" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="C296" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="D296" t="s">
         <v>29</v>
       </c>
       <c r="E296" t="s">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="F296" t="s">
-        <v>439</v>
+        <v>17</v>
       </c>
       <c r="G296" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H296" t="s">
         <v>407</v>
       </c>
+      <c r="J296">
+        <v>2019</v>
+      </c>
+      <c r="K296">
+        <v>2018</v>
+      </c>
       <c r="M296" t="s">
         <v>233</v>
       </c>
@@ -13298,10 +13322,10 @@
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B297" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D297" t="s">
         <v>17</v>
@@ -13327,19 +13351,22 @@
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B298" t="s">
-        <v>443</v>
+        <v>437</v>
+      </c>
+      <c r="C298" t="s">
+        <v>438</v>
       </c>
       <c r="D298" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E298" t="s">
         <v>412</v>
       </c>
       <c r="F298" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="G298" t="s">
         <v>17</v>
@@ -13356,10 +13383,10 @@
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B299" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D299" t="s">
         <v>17</v>
@@ -13385,10 +13412,10 @@
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B300" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D300" t="s">
         <v>17</v>
@@ -13397,17 +13424,14 @@
         <v>412</v>
       </c>
       <c r="F300" t="s">
-        <v>17</v>
+        <v>412</v>
       </c>
       <c r="G300" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H300" t="s">
         <v>407</v>
       </c>
-      <c r="K300">
-        <v>2019</v>
-      </c>
       <c r="M300" t="s">
         <v>233</v>
       </c>
@@ -13417,32 +13441,26 @@
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B301" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D301" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E301" t="s">
-        <v>17</v>
+        <v>412</v>
       </c>
       <c r="F301" t="s">
-        <v>17</v>
+        <v>412</v>
       </c>
       <c r="G301" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H301" t="s">
         <v>407</v>
       </c>
-      <c r="J301">
-        <v>2019</v>
-      </c>
-      <c r="K301">
-        <v>1990</v>
-      </c>
       <c r="M301" t="s">
         <v>233</v>
       </c>
@@ -13452,16 +13470,16 @@
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B302" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D302" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E302" t="s">
-        <v>17</v>
+        <v>412</v>
       </c>
       <c r="F302" t="s">
         <v>17</v>
@@ -13472,11 +13490,8 @@
       <c r="H302" t="s">
         <v>407</v>
       </c>
-      <c r="J302">
+      <c r="K302">
         <v>2019</v>
-      </c>
-      <c r="K302">
-        <v>1990</v>
       </c>
       <c r="M302" t="s">
         <v>233</v>
@@ -13487,10 +13502,10 @@
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B303" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D303" t="s">
         <v>29</v>
@@ -13522,29 +13537,32 @@
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B304" t="s">
-        <v>455</v>
-      </c>
-      <c r="C304" t="s">
-        <v>601</v>
+        <v>451</v>
       </c>
       <c r="D304" t="s">
         <v>29</v>
       </c>
       <c r="E304" t="s">
-        <v>456</v>
+        <v>17</v>
       </c>
       <c r="F304" t="s">
         <v>17</v>
       </c>
       <c r="G304" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H304" t="s">
         <v>407</v>
       </c>
+      <c r="J304">
+        <v>2019</v>
+      </c>
+      <c r="K304">
+        <v>1990</v>
+      </c>
       <c r="M304" t="s">
         <v>233</v>
       </c>
@@ -13554,10 +13572,10 @@
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B305" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D305" t="s">
         <v>29</v>
@@ -13574,8 +13592,11 @@
       <c r="H305" t="s">
         <v>407</v>
       </c>
+      <c r="J305">
+        <v>2019</v>
+      </c>
       <c r="K305">
-        <v>2019</v>
+        <v>1990</v>
       </c>
       <c r="M305" t="s">
         <v>233</v>
@@ -13586,32 +13607,29 @@
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B306" t="s">
-        <v>460</v>
+        <v>455</v>
+      </c>
+      <c r="C306" t="s">
+        <v>601</v>
       </c>
       <c r="D306" t="s">
         <v>29</v>
       </c>
       <c r="E306" t="s">
-        <v>17</v>
+        <v>456</v>
       </c>
       <c r="F306" t="s">
         <v>17</v>
       </c>
       <c r="G306" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H306" t="s">
         <v>407</v>
       </c>
-      <c r="J306">
-        <v>2019</v>
-      </c>
-      <c r="K306">
-        <v>1990</v>
-      </c>
       <c r="M306" t="s">
         <v>233</v>
       </c>
@@ -13621,26 +13639,29 @@
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B307" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D307" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E307" t="s">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="F307" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="G307" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H307" t="s">
         <v>407</v>
       </c>
+      <c r="K307">
+        <v>2019</v>
+      </c>
       <c r="M307" t="s">
         <v>233</v>
       </c>
@@ -13650,10 +13671,10 @@
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B308" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D308" t="s">
         <v>29</v>
@@ -13670,8 +13691,11 @@
       <c r="H308" t="s">
         <v>407</v>
       </c>
+      <c r="J308">
+        <v>2019</v>
+      </c>
       <c r="K308">
-        <v>2019</v>
+        <v>1990</v>
       </c>
       <c r="M308" t="s">
         <v>233</v>
@@ -13682,32 +13706,26 @@
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B309" t="s">
-        <v>466</v>
-      </c>
-      <c r="C309" t="s">
-        <v>602</v>
+        <v>462</v>
       </c>
       <c r="D309" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E309" t="s">
         <v>412</v>
       </c>
       <c r="F309" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="G309" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H309" t="s">
         <v>407</v>
       </c>
-      <c r="K309">
-        <v>2001</v>
-      </c>
       <c r="M309" t="s">
         <v>233</v>
       </c>
@@ -13717,19 +13735,16 @@
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B310" t="s">
-        <v>468</v>
-      </c>
-      <c r="C310" t="s">
-        <v>602</v>
+        <v>464</v>
       </c>
       <c r="D310" t="s">
         <v>29</v>
       </c>
       <c r="E310" t="s">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="F310" t="s">
         <v>17</v>
@@ -13741,7 +13756,7 @@
         <v>407</v>
       </c>
       <c r="K310">
-        <v>2001</v>
+        <v>2019</v>
       </c>
       <c r="M310" t="s">
         <v>233</v>
@@ -13752,10 +13767,10 @@
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B311" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C311" t="s">
         <v>602</v>
@@ -13787,10 +13802,10 @@
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B312" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C312" t="s">
         <v>602</v>
@@ -13822,10 +13837,10 @@
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B313" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C313" t="s">
         <v>602</v>
@@ -13857,10 +13872,10 @@
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B314" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C314" t="s">
         <v>602</v>
@@ -13892,13 +13907,13 @@
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B315" t="s">
-        <v>603</v>
+        <v>474</v>
       </c>
       <c r="C315" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D315" t="s">
         <v>29</v>
@@ -13927,13 +13942,13 @@
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B316" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C316" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D316" t="s">
         <v>29</v>
@@ -13962,19 +13977,19 @@
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B317" t="s">
-        <v>486</v>
+        <v>603</v>
       </c>
       <c r="C317" t="s">
-        <v>161</v>
+        <v>608</v>
       </c>
       <c r="D317" t="s">
         <v>29</v>
       </c>
       <c r="E317" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="F317" t="s">
         <v>17</v>
@@ -13997,13 +14012,13 @@
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B318" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C318" t="s">
-        <v>161</v>
+        <v>608</v>
       </c>
       <c r="D318" t="s">
         <v>29</v>
@@ -14032,19 +14047,19 @@
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B319" t="s">
-        <v>610</v>
+        <v>486</v>
       </c>
       <c r="C319" t="s">
-        <v>604</v>
+        <v>161</v>
       </c>
       <c r="D319" t="s">
         <v>29</v>
       </c>
       <c r="E319" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="F319" t="s">
         <v>17</v>
@@ -14067,13 +14082,13 @@
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B320" t="s">
-        <v>607</v>
+        <v>488</v>
       </c>
       <c r="C320" t="s">
-        <v>604</v>
+        <v>161</v>
       </c>
       <c r="D320" t="s">
         <v>29</v>
@@ -14102,13 +14117,13 @@
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B321" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C321" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D321" t="s">
         <v>29</v>
@@ -14137,16 +14152,19 @@
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B322" t="s">
-        <v>493</v>
+        <v>607</v>
+      </c>
+      <c r="C322" t="s">
+        <v>604</v>
       </c>
       <c r="D322" t="s">
         <v>29</v>
       </c>
       <c r="E322" t="s">
-        <v>17</v>
+        <v>412</v>
       </c>
       <c r="F322" t="s">
         <v>17</v>
@@ -14169,19 +14187,19 @@
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B323" t="s">
-        <v>495</v>
+        <v>611</v>
       </c>
       <c r="C323" t="s">
-        <v>6</v>
+        <v>606</v>
       </c>
       <c r="D323" t="s">
         <v>29</v>
       </c>
       <c r="E323" t="s">
-        <v>201</v>
+        <v>412</v>
       </c>
       <c r="F323" t="s">
         <v>17</v>
@@ -14204,19 +14222,16 @@
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B324" t="s">
-        <v>497</v>
-      </c>
-      <c r="C324" t="s">
-        <v>605</v>
+        <v>493</v>
       </c>
       <c r="D324" t="s">
         <v>29</v>
       </c>
       <c r="E324" t="s">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="F324" t="s">
         <v>17</v>
@@ -14239,19 +14254,19 @@
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>595</v>
+        <v>494</v>
       </c>
       <c r="B325" t="s">
-        <v>596</v>
+        <v>495</v>
       </c>
       <c r="C325" t="s">
-        <v>608</v>
+        <v>6</v>
       </c>
       <c r="D325" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E325" t="s">
-        <v>412</v>
+        <v>201</v>
       </c>
       <c r="F325" t="s">
         <v>17</v>
@@ -14274,13 +14289,13 @@
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>609</v>
+        <v>496</v>
       </c>
       <c r="B326" t="s">
-        <v>613</v>
+        <v>497</v>
       </c>
       <c r="C326" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D326" t="s">
         <v>29</v>
@@ -14309,31 +14324,101 @@
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
+        <v>595</v>
+      </c>
+      <c r="B327" t="s">
+        <v>596</v>
+      </c>
+      <c r="C327" t="s">
+        <v>608</v>
+      </c>
+      <c r="D327" t="s">
+        <v>17</v>
+      </c>
+      <c r="E327" t="s">
+        <v>412</v>
+      </c>
+      <c r="F327" t="s">
+        <v>17</v>
+      </c>
+      <c r="G327" t="s">
+        <v>8</v>
+      </c>
+      <c r="H327" t="s">
+        <v>407</v>
+      </c>
+      <c r="K327">
+        <v>2001</v>
+      </c>
+      <c r="M327" t="s">
+        <v>233</v>
+      </c>
+      <c r="N327" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>609</v>
+      </c>
+      <c r="B328" t="s">
+        <v>613</v>
+      </c>
+      <c r="C328" t="s">
+        <v>602</v>
+      </c>
+      <c r="D328" t="s">
+        <v>29</v>
+      </c>
+      <c r="E328" t="s">
+        <v>412</v>
+      </c>
+      <c r="F328" t="s">
+        <v>17</v>
+      </c>
+      <c r="G328" t="s">
+        <v>8</v>
+      </c>
+      <c r="H328" t="s">
+        <v>407</v>
+      </c>
+      <c r="K328">
+        <v>2001</v>
+      </c>
+      <c r="M328" t="s">
+        <v>233</v>
+      </c>
+      <c r="N328" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
         <v>710</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B329" t="s">
         <v>709</v>
       </c>
-      <c r="D327" t="s">
-        <v>17</v>
-      </c>
-      <c r="E327" t="s">
-        <v>17</v>
-      </c>
-      <c r="F327" t="s">
-        <v>17</v>
-      </c>
-      <c r="G327" t="s">
-        <v>17</v>
-      </c>
-      <c r="H327" t="s">
+      <c r="D329" t="s">
+        <v>17</v>
+      </c>
+      <c r="E329" t="s">
+        <v>17</v>
+      </c>
+      <c r="F329" t="s">
+        <v>17</v>
+      </c>
+      <c r="G329" t="s">
+        <v>17</v>
+      </c>
+      <c r="H329" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L327" xr:uid="{5694E675-77F6-4F54-A793-A54451BF0049}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A150:L187">
-      <sortCondition descending="1" ref="A1:A327"/>
+  <autoFilter ref="A1:L329" xr:uid="{5694E675-77F6-4F54-A793-A54451BF0049}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A152:L189">
+      <sortCondition descending="1" ref="A1:A329"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Utilities/titles/VariableListing.xlsx
+++ b/Utilities/titles/VariableListing.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/f_j_m_m_nijsse_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Work profile\Documents\GitHub\FTT_StandAlone\Utilities\titles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{4F63962F-05BF-4AE5-844F-54068E3B0E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69F9F076-E2A3-47B5-8428-126CEEFD11BA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E63276A-489A-4C2C-ACBD-7F3D451179F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3966A5EA-18B5-40FC-82B6-8DC341B5B05B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3966A5EA-18B5-40FC-82B6-8DC341B5B05B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$329</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$333</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3338" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3382" uniqueCount="729">
   <si>
     <t>Variable name</t>
   </si>
@@ -2197,6 +2197,33 @@
   </si>
   <si>
     <t>Energy supply</t>
+  </si>
+  <si>
+    <t>HWIY</t>
+  </si>
+  <si>
+    <t>FTT-H Investment by technology</t>
+  </si>
+  <si>
+    <t>2014 mEuros</t>
+  </si>
+  <si>
+    <t>PRSC14</t>
+  </si>
+  <si>
+    <t>Price levels in 2014 (2010=100)</t>
+  </si>
+  <si>
+    <t>FU14A</t>
+  </si>
+  <si>
+    <t>FU14B</t>
+  </si>
+  <si>
+    <t>Fuel demand for heating in 2014</t>
+  </si>
+  <si>
+    <t>th toe</t>
   </si>
 </sst>
 </file>
@@ -2565,13 +2592,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5694E675-77F6-4F54-A793-A54451BF0049}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N329"/>
+  <dimension ref="A1:N333"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
+      <selection pane="bottomRight" activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8099,7 +8126,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>362</v>
       </c>
@@ -8125,7 +8152,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>374</v>
       </c>
@@ -8151,7 +8178,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>363</v>
       </c>
@@ -8177,7 +8204,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>364</v>
       </c>
@@ -8203,7 +8230,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>480</v>
       </c>
@@ -8229,7 +8256,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>379</v>
       </c>
@@ -8258,18 +8285,21 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>365</v>
+        <v>720</v>
       </c>
       <c r="B151" t="s">
-        <v>378</v>
+        <v>721</v>
+      </c>
+      <c r="C151" t="s">
+        <v>722</v>
       </c>
       <c r="D151" t="s">
         <v>29</v>
       </c>
       <c r="E151" t="s">
-        <v>201</v>
+        <v>315</v>
       </c>
       <c r="F151" t="s">
         <v>17</v>
@@ -8284,18 +8314,21 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>330</v>
+        <v>723</v>
       </c>
       <c r="B152" t="s">
-        <v>344</v>
+        <v>724</v>
+      </c>
+      <c r="C152" t="s">
+        <v>264</v>
       </c>
       <c r="D152" t="s">
         <v>29</v>
       </c>
       <c r="E152" t="s">
-        <v>347</v>
+        <v>17</v>
       </c>
       <c r="F152" t="s">
         <v>17</v>
@@ -8304,24 +8337,39 @@
         <v>8</v>
       </c>
       <c r="H152" t="s">
-        <v>388</v>
+        <v>317</v>
+      </c>
+      <c r="I152" t="s">
+        <v>9</v>
+      </c>
+      <c r="J152" t="s">
+        <v>9</v>
       </c>
       <c r="K152">
         <v>2001</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L152" t="s">
+        <v>9</v>
+      </c>
+      <c r="N152" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>477</v>
+        <v>725</v>
       </c>
       <c r="B153" t="s">
-        <v>386</v>
+        <v>727</v>
+      </c>
+      <c r="C153" t="s">
+        <v>35</v>
       </c>
       <c r="D153" t="s">
         <v>29</v>
       </c>
       <c r="E153" t="s">
-        <v>347</v>
+        <v>201</v>
       </c>
       <c r="F153" t="s">
         <v>17</v>
@@ -8330,24 +8378,36 @@
         <v>8</v>
       </c>
       <c r="H153" t="s">
-        <v>388</v>
-      </c>
-      <c r="K153">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="I153" t="s">
+        <v>9</v>
+      </c>
+      <c r="J153" t="s">
+        <v>9</v>
+      </c>
+      <c r="L153" t="s">
+        <v>9</v>
+      </c>
+      <c r="N153" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>401</v>
+        <v>726</v>
       </c>
       <c r="B154" t="s">
-        <v>386</v>
+        <v>727</v>
+      </c>
+      <c r="C154" t="s">
+        <v>728</v>
       </c>
       <c r="D154" t="s">
         <v>29</v>
       </c>
       <c r="E154" t="s">
-        <v>347</v>
+        <v>201</v>
       </c>
       <c r="F154" t="s">
         <v>17</v>
@@ -8356,24 +8416,33 @@
         <v>8</v>
       </c>
       <c r="H154" t="s">
-        <v>388</v>
-      </c>
-      <c r="K154">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="I154" t="s">
+        <v>9</v>
+      </c>
+      <c r="J154" t="s">
+        <v>9</v>
+      </c>
+      <c r="L154" t="s">
+        <v>9</v>
+      </c>
+      <c r="N154" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="B155" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="D155" t="s">
         <v>29</v>
       </c>
       <c r="E155" t="s">
-        <v>347</v>
+        <v>201</v>
       </c>
       <c r="F155" t="s">
         <v>17</v>
@@ -8382,18 +8451,18 @@
         <v>8</v>
       </c>
       <c r="H155" t="s">
-        <v>388</v>
+        <v>317</v>
       </c>
       <c r="K155">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B156" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D156" t="s">
         <v>29</v>
@@ -8414,12 +8483,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>329</v>
+        <v>477</v>
       </c>
       <c r="B157" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="D157" t="s">
         <v>29</v>
@@ -8437,12 +8506,12 @@
         <v>388</v>
       </c>
       <c r="K157">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B158" t="s">
         <v>386</v>
@@ -8466,41 +8535,44 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B159" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D159" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E159" t="s">
         <v>347</v>
       </c>
       <c r="F159" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="G159" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H159" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K159">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>400</v>
+        <v>322</v>
       </c>
       <c r="B160" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="D160" t="s">
         <v>29</v>
       </c>
       <c r="E160" t="s">
-        <v>201</v>
+        <v>347</v>
       </c>
       <c r="F160" t="s">
         <v>17</v>
@@ -8512,15 +8584,15 @@
         <v>388</v>
       </c>
       <c r="K160">
-        <v>2017</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>478</v>
+        <v>329</v>
       </c>
       <c r="B161" t="s">
-        <v>479</v>
+        <v>343</v>
       </c>
       <c r="D161" t="s">
         <v>29</v>
@@ -8538,18 +8610,18 @@
         <v>388</v>
       </c>
       <c r="K161">
-        <v>2014</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B162" t="s">
         <v>386</v>
       </c>
       <c r="D162" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E162" t="s">
         <v>347</v>
@@ -8564,41 +8636,35 @@
         <v>388</v>
       </c>
       <c r="K162">
-        <v>2012</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B163" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D163" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E163" t="s">
         <v>347</v>
       </c>
       <c r="F163" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="G163" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H163" t="s">
         <v>388</v>
       </c>
-      <c r="J163">
-        <v>2017</v>
-      </c>
-      <c r="K163">
-        <v>1990</v>
-      </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="B164" t="s">
         <v>386</v>
@@ -8607,7 +8673,7 @@
         <v>29</v>
       </c>
       <c r="E164" t="s">
-        <v>347</v>
+        <v>201</v>
       </c>
       <c r="F164" t="s">
         <v>17</v>
@@ -8624,10 +8690,10 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>398</v>
+        <v>478</v>
       </c>
       <c r="B165" t="s">
-        <v>386</v>
+        <v>479</v>
       </c>
       <c r="D165" t="s">
         <v>29</v>
@@ -8645,18 +8711,18 @@
         <v>388</v>
       </c>
       <c r="K165">
-        <v>2017</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="B166" t="s">
         <v>386</v>
       </c>
       <c r="D166" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E166" t="s">
         <v>347</v>
@@ -8671,15 +8737,15 @@
         <v>388</v>
       </c>
       <c r="K166">
-        <v>2017</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>402</v>
+        <v>323</v>
       </c>
       <c r="B167" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="D167" t="s">
         <v>29</v>
@@ -8696,13 +8762,16 @@
       <c r="H167" t="s">
         <v>388</v>
       </c>
+      <c r="J167">
+        <v>2017</v>
+      </c>
       <c r="K167">
-        <v>2017</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B168" t="s">
         <v>386</v>
@@ -8728,65 +8797,68 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>331</v>
+        <v>398</v>
       </c>
       <c r="B169" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="D169" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E169" t="s">
         <v>347</v>
       </c>
       <c r="F169" t="s">
-        <v>347</v>
+        <v>17</v>
       </c>
       <c r="G169" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H169" t="s">
         <v>388</v>
       </c>
+      <c r="K169">
+        <v>2017</v>
+      </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>711</v>
+        <v>389</v>
       </c>
       <c r="B170" t="s">
-        <v>712</v>
+        <v>386</v>
       </c>
       <c r="D170" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E170" t="s">
         <v>347</v>
       </c>
       <c r="F170" t="s">
-        <v>347</v>
+        <v>17</v>
       </c>
       <c r="G170" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H170" t="s">
         <v>388</v>
       </c>
+      <c r="K170">
+        <v>2017</v>
+      </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>351</v>
+        <v>402</v>
       </c>
       <c r="B171" t="s">
-        <v>352</v>
-      </c>
-      <c r="C171" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="D171" t="s">
         <v>29</v>
       </c>
       <c r="E171" t="s">
-        <v>41</v>
+        <v>347</v>
       </c>
       <c r="F171" t="s">
         <v>17</v>
@@ -8795,85 +8867,76 @@
         <v>8</v>
       </c>
       <c r="H171" t="s">
-        <v>36</v>
-      </c>
-      <c r="I171" t="s">
-        <v>9</v>
-      </c>
-      <c r="J171">
-        <v>2016</v>
+        <v>388</v>
       </c>
       <c r="K171">
-        <v>2010</v>
-      </c>
-      <c r="L171" t="s">
-        <v>228</v>
-      </c>
-      <c r="N171" t="s">
-        <v>233</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>326</v>
+        <v>391</v>
       </c>
       <c r="B172" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="D172" t="s">
         <v>29</v>
       </c>
       <c r="E172" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F172" t="s">
         <v>17</v>
       </c>
       <c r="G172" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="H172" t="s">
+        <v>388</v>
+      </c>
+      <c r="K172">
+        <v>2017</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>392</v>
+        <v>331</v>
       </c>
       <c r="B173" t="s">
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="D173" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E173" t="s">
         <v>347</v>
       </c>
       <c r="F173" t="s">
-        <v>17</v>
+        <v>347</v>
       </c>
       <c r="G173" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H173" t="s">
         <v>388</v>
       </c>
-      <c r="K173">
-        <v>2017</v>
-      </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B174" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D174" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E174" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F174" t="s">
-        <v>17</v>
+        <v>347</v>
       </c>
       <c r="G174" t="s">
         <v>17</v>
@@ -8884,56 +8947,68 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B175" t="s">
-        <v>350</v>
+        <v>352</v>
+      </c>
+      <c r="C175" t="s">
+        <v>25</v>
       </c>
       <c r="D175" t="s">
         <v>29</v>
       </c>
       <c r="E175" t="s">
-        <v>348</v>
+        <v>41</v>
       </c>
       <c r="F175" t="s">
         <v>17</v>
       </c>
       <c r="G175" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H175" t="s">
-        <v>388</v>
+        <v>36</v>
+      </c>
+      <c r="I175" t="s">
+        <v>9</v>
+      </c>
+      <c r="J175">
+        <v>2016</v>
+      </c>
+      <c r="K175">
+        <v>2010</v>
+      </c>
+      <c r="L175" t="s">
+        <v>228</v>
+      </c>
+      <c r="N175" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>394</v>
+        <v>326</v>
       </c>
       <c r="B176" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="D176" t="s">
         <v>29</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F176" t="s">
         <v>17</v>
       </c>
       <c r="G176" t="s">
-        <v>8</v>
-      </c>
-      <c r="H176" t="s">
-        <v>388</v>
-      </c>
-      <c r="K176">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B177" t="s">
         <v>386</v>
@@ -8957,73 +9032,64 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>399</v>
+        <v>714</v>
       </c>
       <c r="B178" t="s">
-        <v>386</v>
+        <v>713</v>
       </c>
       <c r="D178" t="s">
         <v>29</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F178" t="s">
         <v>17</v>
       </c>
       <c r="G178" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H178" t="s">
         <v>388</v>
       </c>
-      <c r="K178">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="B179" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="D179" t="s">
         <v>29</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F179" t="s">
         <v>17</v>
       </c>
       <c r="G179" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H179" t="s">
         <v>388</v>
       </c>
-      <c r="K179">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B180" t="s">
-        <v>384</v>
-      </c>
-      <c r="C180" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D180" t="s">
         <v>29</v>
       </c>
       <c r="E180" t="s">
-        <v>201</v>
+        <v>347</v>
       </c>
       <c r="F180" t="s">
         <v>17</v>
@@ -9034,25 +9100,22 @@
       <c r="H180" t="s">
         <v>388</v>
       </c>
-      <c r="J180">
-        <v>2016</v>
-      </c>
       <c r="K180">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="B181" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="D181" t="s">
         <v>29</v>
       </c>
       <c r="E181" t="s">
-        <v>17</v>
+        <v>347</v>
       </c>
       <c r="F181" t="s">
         <v>17</v>
@@ -9064,21 +9127,21 @@
         <v>388</v>
       </c>
       <c r="K181">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>321</v>
+        <v>399</v>
       </c>
       <c r="B182" t="s">
-        <v>335</v>
+        <v>386</v>
       </c>
       <c r="D182" t="s">
         <v>29</v>
       </c>
       <c r="E182" t="s">
-        <v>17</v>
+        <v>347</v>
       </c>
       <c r="F182" t="s">
         <v>17</v>
@@ -9090,21 +9153,21 @@
         <v>388</v>
       </c>
       <c r="K182">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>319</v>
+        <v>395</v>
       </c>
       <c r="B183" t="s">
-        <v>334</v>
+        <v>386</v>
       </c>
       <c r="D183" t="s">
         <v>29</v>
       </c>
       <c r="E183" t="s">
-        <v>17</v>
+        <v>347</v>
       </c>
       <c r="F183" t="s">
         <v>17</v>
@@ -9116,24 +9179,27 @@
         <v>388</v>
       </c>
       <c r="K183">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B184" t="s">
-        <v>386</v>
+        <v>384</v>
+      </c>
+      <c r="C184" t="s">
+        <v>385</v>
       </c>
       <c r="D184" t="s">
         <v>29</v>
       </c>
       <c r="E184" t="s">
-        <v>347</v>
+        <v>201</v>
       </c>
       <c r="F184" t="s">
-        <v>348</v>
+        <v>17</v>
       </c>
       <c r="G184" t="s">
         <v>8</v>
@@ -9141,16 +9207,19 @@
       <c r="H184" t="s">
         <v>388</v>
       </c>
+      <c r="J184">
+        <v>2016</v>
+      </c>
       <c r="K184">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>715</v>
+        <v>325</v>
       </c>
       <c r="B185" t="s">
-        <v>716</v>
+        <v>339</v>
       </c>
       <c r="D185" t="s">
         <v>29</v>
@@ -9171,12 +9240,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B186" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D186" t="s">
         <v>29</v>
@@ -9197,18 +9266,18 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>397</v>
+        <v>319</v>
       </c>
       <c r="B187" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="D187" t="s">
         <v>29</v>
       </c>
       <c r="E187" t="s">
-        <v>347</v>
+        <v>17</v>
       </c>
       <c r="F187" t="s">
         <v>17</v>
@@ -9220,24 +9289,24 @@
         <v>388</v>
       </c>
       <c r="K187">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>328</v>
+        <v>390</v>
       </c>
       <c r="B188" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="D188" t="s">
         <v>29</v>
       </c>
       <c r="E188" t="s">
-        <v>17</v>
+        <v>347</v>
       </c>
       <c r="F188" t="s">
-        <v>17</v>
+        <v>348</v>
       </c>
       <c r="G188" t="s">
         <v>8</v>
@@ -9246,50 +9315,47 @@
         <v>388</v>
       </c>
       <c r="K188">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>320</v>
+        <v>715</v>
       </c>
       <c r="B189" t="s">
-        <v>332</v>
+        <v>716</v>
       </c>
       <c r="D189" t="s">
         <v>29</v>
       </c>
       <c r="E189" t="s">
-        <v>347</v>
+        <v>17</v>
       </c>
       <c r="F189" t="s">
-        <v>346</v>
+        <v>17</v>
       </c>
       <c r="G189" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H189" t="s">
         <v>388</v>
       </c>
       <c r="K189">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>498</v>
+        <v>324</v>
       </c>
       <c r="B190" t="s">
-        <v>614</v>
-      </c>
-      <c r="C190" t="s">
-        <v>35</v>
+        <v>338</v>
       </c>
       <c r="D190" t="s">
         <v>29</v>
       </c>
       <c r="E190" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="F190" t="s">
         <v>17</v>
@@ -9298,39 +9364,24 @@
         <v>8</v>
       </c>
       <c r="H190" t="s">
-        <v>281</v>
-      </c>
-      <c r="I190">
-        <v>1970</v>
-      </c>
-      <c r="J190">
-        <v>2015</v>
+        <v>388</v>
       </c>
       <c r="K190">
-        <v>1970</v>
-      </c>
-      <c r="M190" t="s">
-        <v>233</v>
-      </c>
-      <c r="N190" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>499</v>
+        <v>397</v>
       </c>
       <c r="B191" t="s">
-        <v>615</v>
-      </c>
-      <c r="C191" t="s">
-        <v>161</v>
+        <v>386</v>
       </c>
       <c r="D191" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E191" t="s">
-        <v>279</v>
+        <v>347</v>
       </c>
       <c r="F191" t="s">
         <v>17</v>
@@ -9339,42 +9390,24 @@
         <v>8</v>
       </c>
       <c r="H191" t="s">
-        <v>281</v>
-      </c>
-      <c r="I191" t="s">
-        <v>9</v>
-      </c>
-      <c r="J191" t="s">
-        <v>9</v>
+        <v>388</v>
       </c>
       <c r="K191">
-        <v>2015</v>
-      </c>
-      <c r="L191" t="s">
-        <v>9</v>
-      </c>
-      <c r="M191" t="s">
-        <v>233</v>
-      </c>
-      <c r="N191" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>500</v>
+        <v>328</v>
       </c>
       <c r="B192" t="s">
-        <v>616</v>
-      </c>
-      <c r="C192" t="s">
-        <v>16</v>
+        <v>342</v>
       </c>
       <c r="D192" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E192" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="F192" t="s">
         <v>17</v>
@@ -9383,74 +9416,47 @@
         <v>8</v>
       </c>
       <c r="H192" t="s">
-        <v>281</v>
-      </c>
-      <c r="I192" t="s">
-        <v>9</v>
-      </c>
-      <c r="J192" t="s">
-        <v>9</v>
+        <v>388</v>
       </c>
       <c r="K192">
-        <v>2015</v>
-      </c>
-      <c r="M192" t="s">
-        <v>233</v>
-      </c>
-      <c r="N192" t="s">
-        <v>233</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>501</v>
+        <v>320</v>
       </c>
       <c r="B193" t="s">
-        <v>617</v>
-      </c>
-      <c r="C193" t="s">
-        <v>16</v>
+        <v>332</v>
       </c>
       <c r="D193" t="s">
         <v>29</v>
       </c>
       <c r="E193" t="s">
-        <v>279</v>
+        <v>347</v>
       </c>
       <c r="F193" t="s">
-        <v>17</v>
+        <v>346</v>
       </c>
       <c r="G193" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H193" t="s">
-        <v>281</v>
-      </c>
-      <c r="I193">
-        <v>1971</v>
-      </c>
-      <c r="J193">
-        <v>2015</v>
+        <v>388</v>
       </c>
       <c r="K193">
-        <v>1971</v>
-      </c>
-      <c r="M193" t="s">
-        <v>233</v>
-      </c>
-      <c r="N193" t="s">
-        <v>233</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B194" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C194" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D194" t="s">
         <v>29</v>
@@ -9485,13 +9491,13 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B195" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C195" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="D195" t="s">
         <v>17</v>
@@ -9500,10 +9506,10 @@
         <v>279</v>
       </c>
       <c r="F195" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="G195" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H195" t="s">
         <v>281</v>
@@ -9514,6 +9520,12 @@
       <c r="J195" t="s">
         <v>9</v>
       </c>
+      <c r="K195">
+        <v>2015</v>
+      </c>
+      <c r="L195" t="s">
+        <v>9</v>
+      </c>
       <c r="M195" t="s">
         <v>233</v>
       </c>
@@ -9523,25 +9535,25 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="B196" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C196" t="s">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="D196" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E196" t="s">
         <v>279</v>
       </c>
       <c r="F196" t="s">
-        <v>280</v>
+        <v>17</v>
       </c>
       <c r="G196" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H196" t="s">
         <v>281</v>
@@ -9552,6 +9564,9 @@
       <c r="J196" t="s">
         <v>9</v>
       </c>
+      <c r="K196">
+        <v>2015</v>
+      </c>
       <c r="M196" t="s">
         <v>233</v>
       </c>
@@ -9561,13 +9576,13 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B197" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C197" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="D197" t="s">
         <v>29</v>
@@ -9585,13 +9600,13 @@
         <v>281</v>
       </c>
       <c r="I197">
-        <v>2000</v>
+        <v>1971</v>
       </c>
       <c r="J197">
         <v>2015</v>
       </c>
       <c r="K197">
-        <v>2000</v>
+        <v>1971</v>
       </c>
       <c r="M197" t="s">
         <v>233</v>
@@ -9602,34 +9617,37 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B198" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C198" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E198" t="s">
         <v>279</v>
       </c>
       <c r="F198" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="G198" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H198" t="s">
         <v>281</v>
       </c>
-      <c r="I198" t="s">
-        <v>9</v>
-      </c>
-      <c r="J198" t="s">
-        <v>9</v>
+      <c r="I198">
+        <v>1970</v>
+      </c>
+      <c r="J198">
+        <v>2015</v>
+      </c>
+      <c r="K198">
+        <v>1970</v>
       </c>
       <c r="M198" t="s">
         <v>233</v>
@@ -9640,25 +9658,25 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B199" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C199" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="D199" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E199" t="s">
         <v>279</v>
       </c>
       <c r="F199" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="G199" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H199" t="s">
         <v>281</v>
@@ -9669,9 +9687,6 @@
       <c r="J199" t="s">
         <v>9</v>
       </c>
-      <c r="K199">
-        <v>2000</v>
-      </c>
       <c r="M199" t="s">
         <v>233</v>
       </c>
@@ -9681,13 +9696,13 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>507</v>
+        <v>594</v>
       </c>
       <c r="B200" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C200" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="D200" t="s">
         <v>29</v>
@@ -9696,10 +9711,10 @@
         <v>279</v>
       </c>
       <c r="F200" t="s">
-        <v>17</v>
+        <v>280</v>
       </c>
       <c r="G200" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H200" t="s">
         <v>281</v>
@@ -9710,9 +9725,6 @@
       <c r="J200" t="s">
         <v>9</v>
       </c>
-      <c r="K200">
-        <v>2000</v>
-      </c>
       <c r="M200" t="s">
         <v>233</v>
       </c>
@@ -9722,13 +9734,13 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B201" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C201" t="s">
-        <v>282</v>
+        <v>161</v>
       </c>
       <c r="D201" t="s">
         <v>29</v>
@@ -9745,11 +9757,11 @@
       <c r="H201" t="s">
         <v>281</v>
       </c>
-      <c r="I201" t="s">
-        <v>9</v>
-      </c>
-      <c r="J201" t="s">
-        <v>9</v>
+      <c r="I201">
+        <v>2000</v>
+      </c>
+      <c r="J201">
+        <v>2015</v>
       </c>
       <c r="K201">
         <v>2000</v>
@@ -9763,25 +9775,25 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B202" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C202" t="s">
-        <v>282</v>
+        <v>161</v>
       </c>
       <c r="D202" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E202" t="s">
         <v>279</v>
       </c>
       <c r="F202" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="G202" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H202" t="s">
         <v>281</v>
@@ -9792,9 +9804,6 @@
       <c r="J202" t="s">
         <v>9</v>
       </c>
-      <c r="K202">
-        <v>2000</v>
-      </c>
       <c r="M202" t="s">
         <v>233</v>
       </c>
@@ -9804,13 +9813,13 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>569</v>
+        <v>506</v>
       </c>
       <c r="B203" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C203" t="s">
-        <v>568</v>
+        <v>35</v>
       </c>
       <c r="D203" t="s">
         <v>29</v>
@@ -9827,22 +9836,34 @@
       <c r="H203" t="s">
         <v>281</v>
       </c>
+      <c r="I203" t="s">
+        <v>9</v>
+      </c>
+      <c r="J203" t="s">
+        <v>9</v>
+      </c>
       <c r="K203">
         <v>2000</v>
       </c>
+      <c r="M203" t="s">
+        <v>233</v>
+      </c>
+      <c r="N203" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>570</v>
+        <v>507</v>
       </c>
       <c r="B204" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C204" t="s">
-        <v>567</v>
+        <v>282</v>
       </c>
       <c r="D204" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E204" t="s">
         <v>279</v>
@@ -9856,16 +9877,31 @@
       <c r="H204" t="s">
         <v>281</v>
       </c>
+      <c r="I204" t="s">
+        <v>9</v>
+      </c>
+      <c r="J204" t="s">
+        <v>9</v>
+      </c>
       <c r="K204">
         <v>2000</v>
       </c>
+      <c r="M204" t="s">
+        <v>233</v>
+      </c>
+      <c r="N204" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B205" t="s">
-        <v>629</v>
+        <v>625</v>
+      </c>
+      <c r="C205" t="s">
+        <v>282</v>
       </c>
       <c r="D205" t="s">
         <v>29</v>
@@ -9882,6 +9918,12 @@
       <c r="H205" t="s">
         <v>281</v>
       </c>
+      <c r="I205" t="s">
+        <v>9</v>
+      </c>
+      <c r="J205" t="s">
+        <v>9</v>
+      </c>
       <c r="K205">
         <v>2000</v>
       </c>
@@ -9894,13 +9936,13 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>582</v>
+        <v>509</v>
       </c>
       <c r="B206" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C206" t="s">
-        <v>16</v>
+        <v>282</v>
       </c>
       <c r="D206" t="s">
         <v>29</v>
@@ -9917,19 +9959,31 @@
       <c r="H206" t="s">
         <v>281</v>
       </c>
+      <c r="I206" t="s">
+        <v>9</v>
+      </c>
+      <c r="J206" t="s">
+        <v>9</v>
+      </c>
       <c r="K206">
         <v>2000</v>
       </c>
+      <c r="M206" t="s">
+        <v>233</v>
+      </c>
+      <c r="N206" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="B207" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C207" t="s">
-        <v>161</v>
+        <v>568</v>
       </c>
       <c r="D207" t="s">
         <v>29</v>
@@ -9952,16 +10006,16 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="B208" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C208" t="s">
-        <v>161</v>
+        <v>567</v>
       </c>
       <c r="D208" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E208" t="s">
         <v>279</v>
@@ -9981,13 +10035,10 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B209" t="s">
-        <v>633</v>
-      </c>
-      <c r="C209" t="s">
-        <v>35</v>
+        <v>629</v>
       </c>
       <c r="D209" t="s">
         <v>29</v>
@@ -10002,16 +10053,10 @@
         <v>8</v>
       </c>
       <c r="H209" t="s">
-        <v>524</v>
-      </c>
-      <c r="I209">
-        <v>1970</v>
-      </c>
-      <c r="J209">
-        <v>2015</v>
+        <v>281</v>
       </c>
       <c r="K209">
-        <v>1970</v>
+        <v>2000</v>
       </c>
       <c r="M209" t="s">
         <v>233</v>
@@ -10022,16 +10067,16 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>512</v>
+        <v>582</v>
       </c>
       <c r="B210" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C210" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="D210" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E210" t="s">
         <v>279</v>
@@ -10043,39 +10088,24 @@
         <v>8</v>
       </c>
       <c r="H210" t="s">
-        <v>524</v>
-      </c>
-      <c r="I210" t="s">
-        <v>9</v>
-      </c>
-      <c r="J210" t="s">
-        <v>9</v>
+        <v>281</v>
       </c>
       <c r="K210">
-        <v>2015</v>
-      </c>
-      <c r="L210" t="s">
-        <v>9</v>
-      </c>
-      <c r="M210" t="s">
-        <v>233</v>
-      </c>
-      <c r="N210" t="s">
-        <v>233</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>513</v>
+        <v>583</v>
       </c>
       <c r="B211" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C211" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="D211" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E211" t="s">
         <v>279</v>
@@ -10087,33 +10117,21 @@
         <v>8</v>
       </c>
       <c r="H211" t="s">
-        <v>524</v>
-      </c>
-      <c r="I211" t="s">
-        <v>9</v>
-      </c>
-      <c r="J211" t="s">
-        <v>9</v>
+        <v>281</v>
       </c>
       <c r="K211">
-        <v>2015</v>
-      </c>
-      <c r="M211" t="s">
-        <v>233</v>
-      </c>
-      <c r="N211" t="s">
-        <v>233</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>514</v>
+        <v>584</v>
       </c>
       <c r="B212" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C212" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="D212" t="s">
         <v>29</v>
@@ -10128,33 +10146,21 @@
         <v>8</v>
       </c>
       <c r="H212" t="s">
-        <v>524</v>
-      </c>
-      <c r="I212">
-        <v>1971</v>
-      </c>
-      <c r="J212">
-        <v>2015</v>
+        <v>281</v>
       </c>
       <c r="K212">
-        <v>1971</v>
-      </c>
-      <c r="M212" t="s">
-        <v>233</v>
-      </c>
-      <c r="N212" t="s">
-        <v>233</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B213" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C213" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D213" t="s">
         <v>29</v>
@@ -10189,13 +10195,13 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B214" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C214" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="D214" t="s">
         <v>17</v>
@@ -10204,10 +10210,10 @@
         <v>279</v>
       </c>
       <c r="F214" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="G214" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H214" t="s">
         <v>524</v>
@@ -10218,6 +10224,12 @@
       <c r="J214" t="s">
         <v>9</v>
       </c>
+      <c r="K214">
+        <v>2015</v>
+      </c>
+      <c r="L214" t="s">
+        <v>9</v>
+      </c>
       <c r="M214" t="s">
         <v>233</v>
       </c>
@@ -10227,25 +10239,25 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>597</v>
+        <v>513</v>
       </c>
       <c r="B215" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C215" t="s">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="D215" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E215" t="s">
         <v>279</v>
       </c>
       <c r="F215" t="s">
-        <v>280</v>
+        <v>17</v>
       </c>
       <c r="G215" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H215" t="s">
         <v>524</v>
@@ -10256,6 +10268,9 @@
       <c r="J215" t="s">
         <v>9</v>
       </c>
+      <c r="K215">
+        <v>2015</v>
+      </c>
       <c r="M215" t="s">
         <v>233</v>
       </c>
@@ -10265,13 +10280,13 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B216" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C216" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="D216" t="s">
         <v>29</v>
@@ -10289,13 +10304,13 @@
         <v>524</v>
       </c>
       <c r="I216">
-        <v>2000</v>
+        <v>1971</v>
       </c>
       <c r="J216">
         <v>2015</v>
       </c>
       <c r="K216">
-        <v>2000</v>
+        <v>1971</v>
       </c>
       <c r="M216" t="s">
         <v>233</v>
@@ -10306,34 +10321,37 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B217" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C217" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="D217" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E217" t="s">
         <v>279</v>
       </c>
       <c r="F217" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="G217" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H217" t="s">
         <v>524</v>
       </c>
-      <c r="I217" t="s">
-        <v>9</v>
-      </c>
-      <c r="J217" t="s">
-        <v>9</v>
+      <c r="I217">
+        <v>1970</v>
+      </c>
+      <c r="J217">
+        <v>2015</v>
+      </c>
+      <c r="K217">
+        <v>1970</v>
       </c>
       <c r="M217" t="s">
         <v>233</v>
@@ -10344,25 +10362,25 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B218" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C218" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="D218" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E218" t="s">
         <v>279</v>
       </c>
       <c r="F218" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="G218" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H218" t="s">
         <v>524</v>
@@ -10373,9 +10391,6 @@
       <c r="J218" t="s">
         <v>9</v>
       </c>
-      <c r="K218">
-        <v>2000</v>
-      </c>
       <c r="M218" t="s">
         <v>233</v>
       </c>
@@ -10385,13 +10400,13 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>520</v>
+        <v>597</v>
       </c>
       <c r="B219" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C219" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="D219" t="s">
         <v>29</v>
@@ -10400,10 +10415,10 @@
         <v>279</v>
       </c>
       <c r="F219" t="s">
-        <v>17</v>
+        <v>280</v>
       </c>
       <c r="G219" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H219" t="s">
         <v>524</v>
@@ -10414,9 +10429,6 @@
       <c r="J219" t="s">
         <v>9</v>
       </c>
-      <c r="K219">
-        <v>2000</v>
-      </c>
       <c r="M219" t="s">
         <v>233</v>
       </c>
@@ -10426,13 +10438,13 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B220" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C220" t="s">
-        <v>282</v>
+        <v>161</v>
       </c>
       <c r="D220" t="s">
         <v>29</v>
@@ -10449,11 +10461,11 @@
       <c r="H220" t="s">
         <v>524</v>
       </c>
-      <c r="I220" t="s">
-        <v>9</v>
-      </c>
-      <c r="J220" t="s">
-        <v>9</v>
+      <c r="I220">
+        <v>2000</v>
+      </c>
+      <c r="J220">
+        <v>2015</v>
       </c>
       <c r="K220">
         <v>2000</v>
@@ -10467,25 +10479,25 @@
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B221" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C221" t="s">
-        <v>282</v>
+        <v>161</v>
       </c>
       <c r="D221" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E221" t="s">
         <v>279</v>
       </c>
       <c r="F221" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="G221" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H221" t="s">
         <v>524</v>
@@ -10496,9 +10508,6 @@
       <c r="J221" t="s">
         <v>9</v>
       </c>
-      <c r="K221">
-        <v>2000</v>
-      </c>
       <c r="M221" t="s">
         <v>233</v>
       </c>
@@ -10508,13 +10517,13 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>571</v>
+        <v>519</v>
       </c>
       <c r="B222" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C222" t="s">
-        <v>568</v>
+        <v>35</v>
       </c>
       <c r="D222" t="s">
         <v>29</v>
@@ -10531,28 +10540,34 @@
       <c r="H222" t="s">
         <v>524</v>
       </c>
-      <c r="I222">
-        <v>2000</v>
-      </c>
-      <c r="J222">
-        <v>2015</v>
+      <c r="I222" t="s">
+        <v>9</v>
+      </c>
+      <c r="J222" t="s">
+        <v>9</v>
       </c>
       <c r="K222">
         <v>2000</v>
       </c>
+      <c r="M222" t="s">
+        <v>233</v>
+      </c>
+      <c r="N222" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>572</v>
+        <v>520</v>
       </c>
       <c r="B223" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C223" t="s">
-        <v>567</v>
+        <v>282</v>
       </c>
       <c r="D223" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E223" t="s">
         <v>279</v>
@@ -10566,22 +10581,31 @@
       <c r="H223" t="s">
         <v>524</v>
       </c>
-      <c r="I223">
-        <v>2000</v>
-      </c>
-      <c r="J223">
-        <v>2015</v>
+      <c r="I223" t="s">
+        <v>9</v>
+      </c>
+      <c r="J223" t="s">
+        <v>9</v>
       </c>
       <c r="K223">
         <v>2000</v>
       </c>
+      <c r="M223" t="s">
+        <v>233</v>
+      </c>
+      <c r="N223" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B224" t="s">
-        <v>648</v>
+        <v>644</v>
+      </c>
+      <c r="C224" t="s">
+        <v>282</v>
       </c>
       <c r="D224" t="s">
         <v>29</v>
@@ -10616,13 +10640,13 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>585</v>
+        <v>522</v>
       </c>
       <c r="B225" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C225" t="s">
-        <v>16</v>
+        <v>282</v>
       </c>
       <c r="D225" t="s">
         <v>29</v>
@@ -10639,19 +10663,31 @@
       <c r="H225" t="s">
         <v>524</v>
       </c>
+      <c r="I225" t="s">
+        <v>9</v>
+      </c>
+      <c r="J225" t="s">
+        <v>9</v>
+      </c>
       <c r="K225">
         <v>2000</v>
       </c>
+      <c r="M225" t="s">
+        <v>233</v>
+      </c>
+      <c r="N225" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="B226" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C226" t="s">
-        <v>161</v>
+        <v>568</v>
       </c>
       <c r="D226" t="s">
         <v>29</v>
@@ -10668,22 +10704,28 @@
       <c r="H226" t="s">
         <v>524</v>
       </c>
+      <c r="I226">
+        <v>2000</v>
+      </c>
+      <c r="J226">
+        <v>2015</v>
+      </c>
       <c r="K226">
         <v>2000</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="B227" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C227" t="s">
-        <v>161</v>
+        <v>567</v>
       </c>
       <c r="D227" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E227" t="s">
         <v>279</v>
@@ -10697,19 +10739,22 @@
       <c r="H227" t="s">
         <v>524</v>
       </c>
+      <c r="I227">
+        <v>2000</v>
+      </c>
+      <c r="J227">
+        <v>2015</v>
+      </c>
       <c r="K227">
         <v>2000</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B228" t="s">
-        <v>652</v>
-      </c>
-      <c r="C228" t="s">
-        <v>35</v>
+        <v>648</v>
       </c>
       <c r="D228" t="s">
         <v>29</v>
@@ -10724,16 +10769,16 @@
         <v>8</v>
       </c>
       <c r="H228" t="s">
-        <v>525</v>
-      </c>
-      <c r="I228">
-        <v>1970</v>
-      </c>
-      <c r="J228">
-        <v>2015</v>
+        <v>524</v>
+      </c>
+      <c r="I228" t="s">
+        <v>9</v>
+      </c>
+      <c r="J228" t="s">
+        <v>9</v>
       </c>
       <c r="K228">
-        <v>1970</v>
+        <v>2000</v>
       </c>
       <c r="M228" t="s">
         <v>233</v>
@@ -10744,16 +10789,16 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="B229" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C229" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="D229" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E229" t="s">
         <v>279</v>
@@ -10765,39 +10810,24 @@
         <v>8</v>
       </c>
       <c r="H229" t="s">
-        <v>525</v>
-      </c>
-      <c r="I229" t="s">
-        <v>9</v>
-      </c>
-      <c r="J229" t="s">
-        <v>9</v>
+        <v>524</v>
       </c>
       <c r="K229">
-        <v>2015</v>
-      </c>
-      <c r="L229" t="s">
-        <v>9</v>
-      </c>
-      <c r="M229" t="s">
-        <v>233</v>
-      </c>
-      <c r="N229" t="s">
-        <v>233</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
       <c r="B230" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C230" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="D230" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E230" t="s">
         <v>279</v>
@@ -10809,33 +10839,21 @@
         <v>8</v>
       </c>
       <c r="H230" t="s">
-        <v>525</v>
-      </c>
-      <c r="I230" t="s">
-        <v>9</v>
-      </c>
-      <c r="J230" t="s">
-        <v>9</v>
+        <v>524</v>
       </c>
       <c r="K230">
-        <v>2015</v>
-      </c>
-      <c r="M230" t="s">
-        <v>233</v>
-      </c>
-      <c r="N230" t="s">
-        <v>233</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
       <c r="B231" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C231" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="D231" t="s">
         <v>29</v>
@@ -10850,33 +10868,21 @@
         <v>8</v>
       </c>
       <c r="H231" t="s">
-        <v>525</v>
-      </c>
-      <c r="I231">
-        <v>1971</v>
-      </c>
-      <c r="J231">
-        <v>2015</v>
+        <v>524</v>
       </c>
       <c r="K231">
-        <v>1971</v>
-      </c>
-      <c r="M231" t="s">
-        <v>233</v>
-      </c>
-      <c r="N231" t="s">
-        <v>233</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B232" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C232" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D232" t="s">
         <v>29</v>
@@ -10911,13 +10917,13 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B233" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C233" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="D233" t="s">
         <v>17</v>
@@ -10926,10 +10932,10 @@
         <v>279</v>
       </c>
       <c r="F233" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="G233" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H233" t="s">
         <v>525</v>
@@ -10940,6 +10946,12 @@
       <c r="J233" t="s">
         <v>9</v>
       </c>
+      <c r="K233">
+        <v>2015</v>
+      </c>
+      <c r="L233" t="s">
+        <v>9</v>
+      </c>
       <c r="M233" t="s">
         <v>233</v>
       </c>
@@ -10949,25 +10961,25 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>598</v>
+        <v>528</v>
       </c>
       <c r="B234" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C234" t="s">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="D234" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E234" t="s">
         <v>279</v>
       </c>
       <c r="F234" t="s">
-        <v>280</v>
+        <v>17</v>
       </c>
       <c r="G234" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H234" t="s">
         <v>525</v>
@@ -10978,6 +10990,9 @@
       <c r="J234" t="s">
         <v>9</v>
       </c>
+      <c r="K234">
+        <v>2015</v>
+      </c>
       <c r="M234" t="s">
         <v>233</v>
       </c>
@@ -10987,13 +11002,13 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B235" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C235" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="D235" t="s">
         <v>29</v>
@@ -11011,13 +11026,13 @@
         <v>525</v>
       </c>
       <c r="I235">
-        <v>2000</v>
+        <v>1971</v>
       </c>
       <c r="J235">
         <v>2015</v>
       </c>
       <c r="K235">
-        <v>2000</v>
+        <v>1971</v>
       </c>
       <c r="M235" t="s">
         <v>233</v>
@@ -11028,34 +11043,37 @@
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B236" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C236" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="D236" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E236" t="s">
         <v>279</v>
       </c>
       <c r="F236" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="G236" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H236" t="s">
         <v>525</v>
       </c>
-      <c r="I236" t="s">
-        <v>9</v>
-      </c>
-      <c r="J236" t="s">
-        <v>9</v>
+      <c r="I236">
+        <v>1970</v>
+      </c>
+      <c r="J236">
+        <v>2015</v>
+      </c>
+      <c r="K236">
+        <v>1970</v>
       </c>
       <c r="M236" t="s">
         <v>233</v>
@@ -11066,25 +11084,25 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B237" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C237" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="D237" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E237" t="s">
         <v>279</v>
       </c>
       <c r="F237" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="G237" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H237" t="s">
         <v>525</v>
@@ -11095,9 +11113,6 @@
       <c r="J237" t="s">
         <v>9</v>
       </c>
-      <c r="K237">
-        <v>2000</v>
-      </c>
       <c r="M237" t="s">
         <v>233</v>
       </c>
@@ -11107,13 +11122,13 @@
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>535</v>
+        <v>598</v>
       </c>
       <c r="B238" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C238" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="D238" t="s">
         <v>29</v>
@@ -11122,10 +11137,10 @@
         <v>279</v>
       </c>
       <c r="F238" t="s">
-        <v>17</v>
+        <v>280</v>
       </c>
       <c r="G238" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H238" t="s">
         <v>525</v>
@@ -11136,9 +11151,6 @@
       <c r="J238" t="s">
         <v>9</v>
       </c>
-      <c r="K238">
-        <v>2000</v>
-      </c>
       <c r="M238" t="s">
         <v>233</v>
       </c>
@@ -11148,13 +11160,13 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B239" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C239" t="s">
-        <v>282</v>
+        <v>161</v>
       </c>
       <c r="D239" t="s">
         <v>29</v>
@@ -11171,11 +11183,11 @@
       <c r="H239" t="s">
         <v>525</v>
       </c>
-      <c r="I239" t="s">
-        <v>9</v>
-      </c>
-      <c r="J239" t="s">
-        <v>9</v>
+      <c r="I239">
+        <v>2000</v>
+      </c>
+      <c r="J239">
+        <v>2015</v>
       </c>
       <c r="K239">
         <v>2000</v>
@@ -11189,25 +11201,25 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B240" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C240" t="s">
-        <v>282</v>
+        <v>161</v>
       </c>
       <c r="D240" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E240" t="s">
         <v>279</v>
       </c>
       <c r="F240" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="G240" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H240" t="s">
         <v>525</v>
@@ -11218,9 +11230,6 @@
       <c r="J240" t="s">
         <v>9</v>
       </c>
-      <c r="K240">
-        <v>2000</v>
-      </c>
       <c r="M240" t="s">
         <v>233</v>
       </c>
@@ -11230,13 +11239,13 @@
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="B241" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C241" t="s">
-        <v>568</v>
+        <v>35</v>
       </c>
       <c r="D241" t="s">
         <v>29</v>
@@ -11253,28 +11262,34 @@
       <c r="H241" t="s">
         <v>525</v>
       </c>
-      <c r="I241">
-        <v>2000</v>
-      </c>
-      <c r="J241">
-        <v>2015</v>
+      <c r="I241" t="s">
+        <v>9</v>
+      </c>
+      <c r="J241" t="s">
+        <v>9</v>
       </c>
       <c r="K241">
         <v>2000</v>
       </c>
+      <c r="M241" t="s">
+        <v>233</v>
+      </c>
+      <c r="N241" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="B242" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C242" t="s">
-        <v>567</v>
+        <v>282</v>
       </c>
       <c r="D242" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E242" t="s">
         <v>279</v>
@@ -11288,22 +11303,31 @@
       <c r="H242" t="s">
         <v>525</v>
       </c>
-      <c r="I242">
-        <v>2000</v>
-      </c>
-      <c r="J242">
-        <v>2015</v>
+      <c r="I242" t="s">
+        <v>9</v>
+      </c>
+      <c r="J242" t="s">
+        <v>9</v>
       </c>
       <c r="K242">
         <v>2000</v>
       </c>
+      <c r="M242" t="s">
+        <v>233</v>
+      </c>
+      <c r="N242" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B243" t="s">
-        <v>667</v>
+        <v>663</v>
+      </c>
+      <c r="C243" t="s">
+        <v>282</v>
       </c>
       <c r="D243" t="s">
         <v>29</v>
@@ -11338,13 +11362,13 @@
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>588</v>
+        <v>537</v>
       </c>
       <c r="B244" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C244" t="s">
-        <v>16</v>
+        <v>282</v>
       </c>
       <c r="D244" t="s">
         <v>29</v>
@@ -11361,19 +11385,31 @@
       <c r="H244" t="s">
         <v>525</v>
       </c>
+      <c r="I244" t="s">
+        <v>9</v>
+      </c>
+      <c r="J244" t="s">
+        <v>9</v>
+      </c>
       <c r="K244">
         <v>2000</v>
       </c>
+      <c r="M244" t="s">
+        <v>233</v>
+      </c>
+      <c r="N244" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="B245" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C245" t="s">
-        <v>161</v>
+        <v>568</v>
       </c>
       <c r="D245" t="s">
         <v>29</v>
@@ -11390,22 +11426,28 @@
       <c r="H245" t="s">
         <v>525</v>
       </c>
+      <c r="I245">
+        <v>2000</v>
+      </c>
+      <c r="J245">
+        <v>2015</v>
+      </c>
       <c r="K245">
         <v>2000</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="B246" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C246" t="s">
-        <v>161</v>
+        <v>567</v>
       </c>
       <c r="D246" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E246" t="s">
         <v>279</v>
@@ -11419,19 +11461,22 @@
       <c r="H246" t="s">
         <v>525</v>
       </c>
+      <c r="I246">
+        <v>2000</v>
+      </c>
+      <c r="J246">
+        <v>2015</v>
+      </c>
       <c r="K246">
         <v>2000</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B247" t="s">
-        <v>671</v>
-      </c>
-      <c r="C247" t="s">
-        <v>35</v>
+        <v>667</v>
       </c>
       <c r="D247" t="s">
         <v>29</v>
@@ -11446,16 +11491,16 @@
         <v>8</v>
       </c>
       <c r="H247" t="s">
-        <v>552</v>
-      </c>
-      <c r="I247">
-        <v>1970</v>
-      </c>
-      <c r="J247">
-        <v>2015</v>
+        <v>525</v>
+      </c>
+      <c r="I247" t="s">
+        <v>9</v>
+      </c>
+      <c r="J247" t="s">
+        <v>9</v>
       </c>
       <c r="K247">
-        <v>1970</v>
+        <v>2000</v>
       </c>
       <c r="M247" t="s">
         <v>233</v>
@@ -11466,16 +11511,16 @@
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>540</v>
+        <v>588</v>
       </c>
       <c r="B248" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C248" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="D248" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E248" t="s">
         <v>279</v>
@@ -11487,39 +11532,24 @@
         <v>8</v>
       </c>
       <c r="H248" t="s">
-        <v>552</v>
-      </c>
-      <c r="I248" t="s">
-        <v>9</v>
-      </c>
-      <c r="J248" t="s">
-        <v>9</v>
+        <v>525</v>
       </c>
       <c r="K248">
-        <v>2015</v>
-      </c>
-      <c r="L248" t="s">
-        <v>9</v>
-      </c>
-      <c r="M248" t="s">
-        <v>233</v>
-      </c>
-      <c r="N248" t="s">
-        <v>233</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>541</v>
+        <v>589</v>
       </c>
       <c r="B249" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C249" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="D249" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E249" t="s">
         <v>279</v>
@@ -11531,33 +11561,21 @@
         <v>8</v>
       </c>
       <c r="H249" t="s">
-        <v>552</v>
-      </c>
-      <c r="I249" t="s">
-        <v>9</v>
-      </c>
-      <c r="J249" t="s">
-        <v>9</v>
+        <v>525</v>
       </c>
       <c r="K249">
-        <v>2015</v>
-      </c>
-      <c r="M249" t="s">
-        <v>233</v>
-      </c>
-      <c r="N249" t="s">
-        <v>233</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>542</v>
+        <v>590</v>
       </c>
       <c r="B250" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C250" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="D250" t="s">
         <v>29</v>
@@ -11572,33 +11590,21 @@
         <v>8</v>
       </c>
       <c r="H250" t="s">
-        <v>552</v>
-      </c>
-      <c r="I250">
-        <v>1971</v>
-      </c>
-      <c r="J250">
-        <v>2015</v>
+        <v>525</v>
       </c>
       <c r="K250">
-        <v>1971</v>
-      </c>
-      <c r="M250" t="s">
-        <v>233</v>
-      </c>
-      <c r="N250" t="s">
-        <v>233</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B251" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C251" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D251" t="s">
         <v>29</v>
@@ -11633,13 +11639,13 @@
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B252" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C252" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="D252" t="s">
         <v>17</v>
@@ -11648,10 +11654,10 @@
         <v>279</v>
       </c>
       <c r="F252" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="G252" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H252" t="s">
         <v>552</v>
@@ -11662,6 +11668,12 @@
       <c r="J252" t="s">
         <v>9</v>
       </c>
+      <c r="K252">
+        <v>2015</v>
+      </c>
+      <c r="L252" t="s">
+        <v>9</v>
+      </c>
       <c r="M252" t="s">
         <v>233</v>
       </c>
@@ -11671,25 +11683,25 @@
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>599</v>
+        <v>541</v>
       </c>
       <c r="B253" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C253" t="s">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="D253" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E253" t="s">
         <v>279</v>
       </c>
       <c r="F253" t="s">
-        <v>280</v>
+        <v>17</v>
       </c>
       <c r="G253" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H253" t="s">
         <v>552</v>
@@ -11700,6 +11712,9 @@
       <c r="J253" t="s">
         <v>9</v>
       </c>
+      <c r="K253">
+        <v>2015</v>
+      </c>
       <c r="M253" t="s">
         <v>233</v>
       </c>
@@ -11709,13 +11724,13 @@
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B254" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C254" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="D254" t="s">
         <v>29</v>
@@ -11733,13 +11748,13 @@
         <v>552</v>
       </c>
       <c r="I254">
-        <v>2000</v>
+        <v>1971</v>
       </c>
       <c r="J254">
         <v>2015</v>
       </c>
       <c r="K254">
-        <v>2000</v>
+        <v>1971</v>
       </c>
       <c r="M254" t="s">
         <v>233</v>
@@ -11750,34 +11765,37 @@
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B255" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C255" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="D255" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E255" t="s">
         <v>279</v>
       </c>
       <c r="F255" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="G255" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H255" t="s">
         <v>552</v>
       </c>
-      <c r="I255" t="s">
-        <v>9</v>
-      </c>
-      <c r="J255" t="s">
-        <v>9</v>
+      <c r="I255">
+        <v>1970</v>
+      </c>
+      <c r="J255">
+        <v>2015</v>
+      </c>
+      <c r="K255">
+        <v>1970</v>
       </c>
       <c r="M255" t="s">
         <v>233</v>
@@ -11788,25 +11806,25 @@
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B256" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C256" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="D256" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E256" t="s">
         <v>279</v>
       </c>
       <c r="F256" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="G256" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H256" t="s">
         <v>552</v>
@@ -11817,9 +11835,6 @@
       <c r="J256" t="s">
         <v>9</v>
       </c>
-      <c r="K256">
-        <v>2000</v>
-      </c>
       <c r="M256" t="s">
         <v>233</v>
       </c>
@@ -11829,13 +11844,13 @@
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>548</v>
+        <v>599</v>
       </c>
       <c r="B257" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C257" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="D257" t="s">
         <v>29</v>
@@ -11844,10 +11859,10 @@
         <v>279</v>
       </c>
       <c r="F257" t="s">
-        <v>17</v>
+        <v>280</v>
       </c>
       <c r="G257" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H257" t="s">
         <v>552</v>
@@ -11858,9 +11873,6 @@
       <c r="J257" t="s">
         <v>9</v>
       </c>
-      <c r="K257">
-        <v>2000</v>
-      </c>
       <c r="M257" t="s">
         <v>233</v>
       </c>
@@ -11870,13 +11882,13 @@
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B258" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C258" t="s">
-        <v>282</v>
+        <v>161</v>
       </c>
       <c r="D258" t="s">
         <v>29</v>
@@ -11893,11 +11905,11 @@
       <c r="H258" t="s">
         <v>552</v>
       </c>
-      <c r="I258" t="s">
-        <v>9</v>
-      </c>
-      <c r="J258" t="s">
-        <v>9</v>
+      <c r="I258">
+        <v>2000</v>
+      </c>
+      <c r="J258">
+        <v>2015</v>
       </c>
       <c r="K258">
         <v>2000</v>
@@ -11911,25 +11923,25 @@
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B259" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C259" t="s">
-        <v>282</v>
+        <v>161</v>
       </c>
       <c r="D259" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E259" t="s">
         <v>279</v>
       </c>
       <c r="F259" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="G259" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H259" t="s">
         <v>552</v>
@@ -11940,9 +11952,6 @@
       <c r="J259" t="s">
         <v>9</v>
       </c>
-      <c r="K259">
-        <v>2000</v>
-      </c>
       <c r="M259" t="s">
         <v>233</v>
       </c>
@@ -11952,13 +11961,13 @@
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="B260" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C260" t="s">
-        <v>568</v>
+        <v>35</v>
       </c>
       <c r="D260" t="s">
         <v>29</v>
@@ -11975,28 +11984,34 @@
       <c r="H260" t="s">
         <v>552</v>
       </c>
-      <c r="I260">
-        <v>2000</v>
-      </c>
-      <c r="J260">
-        <v>2015</v>
+      <c r="I260" t="s">
+        <v>9</v>
+      </c>
+      <c r="J260" t="s">
+        <v>9</v>
       </c>
       <c r="K260">
         <v>2000</v>
       </c>
+      <c r="M260" t="s">
+        <v>233</v>
+      </c>
+      <c r="N260" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="B261" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C261" t="s">
-        <v>567</v>
+        <v>282</v>
       </c>
       <c r="D261" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E261" t="s">
         <v>279</v>
@@ -12010,22 +12025,31 @@
       <c r="H261" t="s">
         <v>552</v>
       </c>
-      <c r="I261">
-        <v>2000</v>
-      </c>
-      <c r="J261">
-        <v>2015</v>
+      <c r="I261" t="s">
+        <v>9</v>
+      </c>
+      <c r="J261" t="s">
+        <v>9</v>
       </c>
       <c r="K261">
         <v>2000</v>
       </c>
+      <c r="M261" t="s">
+        <v>233</v>
+      </c>
+      <c r="N261" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B262" t="s">
-        <v>686</v>
+        <v>682</v>
+      </c>
+      <c r="C262" t="s">
+        <v>282</v>
       </c>
       <c r="D262" t="s">
         <v>29</v>
@@ -12060,13 +12084,13 @@
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>591</v>
+        <v>550</v>
       </c>
       <c r="B263" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C263" t="s">
-        <v>16</v>
+        <v>282</v>
       </c>
       <c r="D263" t="s">
         <v>29</v>
@@ -12083,19 +12107,31 @@
       <c r="H263" t="s">
         <v>552</v>
       </c>
+      <c r="I263" t="s">
+        <v>9</v>
+      </c>
+      <c r="J263" t="s">
+        <v>9</v>
+      </c>
       <c r="K263">
         <v>2000</v>
       </c>
+      <c r="M263" t="s">
+        <v>233</v>
+      </c>
+      <c r="N263" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="B264" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C264" t="s">
-        <v>161</v>
+        <v>568</v>
       </c>
       <c r="D264" t="s">
         <v>29</v>
@@ -12112,22 +12148,28 @@
       <c r="H264" t="s">
         <v>552</v>
       </c>
+      <c r="I264">
+        <v>2000</v>
+      </c>
+      <c r="J264">
+        <v>2015</v>
+      </c>
       <c r="K264">
         <v>2000</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="B265" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C265" t="s">
-        <v>161</v>
+        <v>567</v>
       </c>
       <c r="D265" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E265" t="s">
         <v>279</v>
@@ -12141,19 +12183,22 @@
       <c r="H265" t="s">
         <v>552</v>
       </c>
+      <c r="I265">
+        <v>2000</v>
+      </c>
+      <c r="J265">
+        <v>2015</v>
+      </c>
       <c r="K265">
         <v>2000</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B266" t="s">
-        <v>690</v>
-      </c>
-      <c r="C266" t="s">
-        <v>35</v>
+        <v>686</v>
       </c>
       <c r="D266" t="s">
         <v>29</v>
@@ -12168,16 +12213,16 @@
         <v>8</v>
       </c>
       <c r="H266" t="s">
-        <v>553</v>
-      </c>
-      <c r="I266">
-        <v>1970</v>
-      </c>
-      <c r="J266">
-        <v>2015</v>
+        <v>552</v>
+      </c>
+      <c r="I266" t="s">
+        <v>9</v>
+      </c>
+      <c r="J266" t="s">
+        <v>9</v>
       </c>
       <c r="K266">
-        <v>1970</v>
+        <v>2000</v>
       </c>
       <c r="M266" t="s">
         <v>233</v>
@@ -12188,16 +12233,16 @@
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>555</v>
+        <v>591</v>
       </c>
       <c r="B267" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C267" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="D267" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E267" t="s">
         <v>279</v>
@@ -12209,39 +12254,24 @@
         <v>8</v>
       </c>
       <c r="H267" t="s">
-        <v>553</v>
-      </c>
-      <c r="I267" t="s">
-        <v>9</v>
-      </c>
-      <c r="J267" t="s">
-        <v>9</v>
+        <v>552</v>
       </c>
       <c r="K267">
-        <v>2015</v>
-      </c>
-      <c r="L267" t="s">
-        <v>9</v>
-      </c>
-      <c r="M267" t="s">
-        <v>233</v>
-      </c>
-      <c r="N267" t="s">
-        <v>233</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>556</v>
+        <v>592</v>
       </c>
       <c r="B268" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C268" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="D268" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E268" t="s">
         <v>279</v>
@@ -12253,33 +12283,21 @@
         <v>8</v>
       </c>
       <c r="H268" t="s">
-        <v>553</v>
-      </c>
-      <c r="I268" t="s">
-        <v>9</v>
-      </c>
-      <c r="J268" t="s">
-        <v>9</v>
+        <v>552</v>
       </c>
       <c r="K268">
-        <v>2015</v>
-      </c>
-      <c r="M268" t="s">
-        <v>233</v>
-      </c>
-      <c r="N268" t="s">
-        <v>233</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>557</v>
+        <v>593</v>
       </c>
       <c r="B269" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C269" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="D269" t="s">
         <v>29</v>
@@ -12294,33 +12312,21 @@
         <v>8</v>
       </c>
       <c r="H269" t="s">
-        <v>553</v>
-      </c>
-      <c r="I269">
-        <v>1971</v>
-      </c>
-      <c r="J269">
-        <v>2015</v>
+        <v>552</v>
       </c>
       <c r="K269">
-        <v>1971</v>
-      </c>
-      <c r="M269" t="s">
-        <v>233</v>
-      </c>
-      <c r="N269" t="s">
-        <v>233</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B270" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C270" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D270" t="s">
         <v>29</v>
@@ -12355,13 +12361,13 @@
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B271" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C271" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="D271" t="s">
         <v>17</v>
@@ -12370,10 +12376,10 @@
         <v>279</v>
       </c>
       <c r="F271" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="G271" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H271" t="s">
         <v>553</v>
@@ -12384,6 +12390,12 @@
       <c r="J271" t="s">
         <v>9</v>
       </c>
+      <c r="K271">
+        <v>2015</v>
+      </c>
+      <c r="L271" t="s">
+        <v>9</v>
+      </c>
       <c r="M271" t="s">
         <v>233</v>
       </c>
@@ -12393,25 +12405,25 @@
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="B272" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C272" t="s">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="D272" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E272" t="s">
         <v>279</v>
       </c>
       <c r="F272" t="s">
-        <v>280</v>
+        <v>17</v>
       </c>
       <c r="G272" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H272" t="s">
         <v>553</v>
@@ -12422,6 +12434,9 @@
       <c r="J272" t="s">
         <v>9</v>
       </c>
+      <c r="K272">
+        <v>2015</v>
+      </c>
       <c r="M272" t="s">
         <v>233</v>
       </c>
@@ -12431,13 +12446,13 @@
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B273" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C273" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="D273" t="s">
         <v>29</v>
@@ -12455,13 +12470,13 @@
         <v>553</v>
       </c>
       <c r="I273">
-        <v>2000</v>
+        <v>1971</v>
       </c>
       <c r="J273">
         <v>2015</v>
       </c>
       <c r="K273">
-        <v>2000</v>
+        <v>1971</v>
       </c>
       <c r="M273" t="s">
         <v>233</v>
@@ -12472,34 +12487,37 @@
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B274" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C274" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="D274" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E274" t="s">
         <v>279</v>
       </c>
       <c r="F274" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="G274" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H274" t="s">
         <v>553</v>
       </c>
-      <c r="I274" t="s">
-        <v>9</v>
-      </c>
-      <c r="J274" t="s">
-        <v>9</v>
+      <c r="I274">
+        <v>1970</v>
+      </c>
+      <c r="J274">
+        <v>2015</v>
+      </c>
+      <c r="K274">
+        <v>1970</v>
       </c>
       <c r="M274" t="s">
         <v>233</v>
@@ -12510,25 +12528,25 @@
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B275" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C275" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="D275" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E275" t="s">
         <v>279</v>
       </c>
       <c r="F275" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="G275" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H275" t="s">
         <v>553</v>
@@ -12539,9 +12557,6 @@
       <c r="J275" t="s">
         <v>9</v>
       </c>
-      <c r="K275">
-        <v>2000</v>
-      </c>
       <c r="M275" t="s">
         <v>233</v>
       </c>
@@ -12551,13 +12566,13 @@
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>563</v>
+        <v>600</v>
       </c>
       <c r="B276" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C276" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="D276" t="s">
         <v>29</v>
@@ -12566,10 +12581,10 @@
         <v>279</v>
       </c>
       <c r="F276" t="s">
-        <v>17</v>
+        <v>280</v>
       </c>
       <c r="G276" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H276" t="s">
         <v>553</v>
@@ -12580,9 +12595,6 @@
       <c r="J276" t="s">
         <v>9</v>
       </c>
-      <c r="K276">
-        <v>2000</v>
-      </c>
       <c r="M276" t="s">
         <v>233</v>
       </c>
@@ -12592,13 +12604,13 @@
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B277" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C277" t="s">
-        <v>282</v>
+        <v>161</v>
       </c>
       <c r="D277" t="s">
         <v>29</v>
@@ -12615,11 +12627,11 @@
       <c r="H277" t="s">
         <v>553</v>
       </c>
-      <c r="I277" t="s">
-        <v>9</v>
-      </c>
-      <c r="J277" t="s">
-        <v>9</v>
+      <c r="I277">
+        <v>2000</v>
+      </c>
+      <c r="J277">
+        <v>2015</v>
       </c>
       <c r="K277">
         <v>2000</v>
@@ -12633,25 +12645,25 @@
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B278" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C278" t="s">
-        <v>282</v>
+        <v>161</v>
       </c>
       <c r="D278" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E278" t="s">
         <v>279</v>
       </c>
       <c r="F278" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="G278" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H278" t="s">
         <v>553</v>
@@ -12662,9 +12674,6 @@
       <c r="J278" t="s">
         <v>9</v>
       </c>
-      <c r="K278">
-        <v>2000</v>
-      </c>
       <c r="M278" t="s">
         <v>233</v>
       </c>
@@ -12674,13 +12683,13 @@
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="B279" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C279" t="s">
-        <v>568</v>
+        <v>35</v>
       </c>
       <c r="D279" t="s">
         <v>29</v>
@@ -12697,28 +12706,34 @@
       <c r="H279" t="s">
         <v>553</v>
       </c>
-      <c r="I279">
-        <v>2000</v>
-      </c>
-      <c r="J279">
-        <v>2015</v>
+      <c r="I279" t="s">
+        <v>9</v>
+      </c>
+      <c r="J279" t="s">
+        <v>9</v>
       </c>
       <c r="K279">
         <v>2000</v>
       </c>
+      <c r="M279" t="s">
+        <v>233</v>
+      </c>
+      <c r="N279" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="B280" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C280" t="s">
-        <v>567</v>
+        <v>282</v>
       </c>
       <c r="D280" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E280" t="s">
         <v>279</v>
@@ -12732,22 +12747,31 @@
       <c r="H280" t="s">
         <v>553</v>
       </c>
-      <c r="I280">
-        <v>2000</v>
-      </c>
-      <c r="J280">
-        <v>2015</v>
+      <c r="I280" t="s">
+        <v>9</v>
+      </c>
+      <c r="J280" t="s">
+        <v>9</v>
       </c>
       <c r="K280">
         <v>2000</v>
       </c>
+      <c r="M280" t="s">
+        <v>233</v>
+      </c>
+      <c r="N280" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B281" t="s">
-        <v>705</v>
+        <v>701</v>
+      </c>
+      <c r="C281" t="s">
+        <v>282</v>
       </c>
       <c r="D281" t="s">
         <v>29</v>
@@ -12782,13 +12806,13 @@
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="B282" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C282" t="s">
-        <v>16</v>
+        <v>282</v>
       </c>
       <c r="D282" t="s">
         <v>29</v>
@@ -12805,19 +12829,31 @@
       <c r="H282" t="s">
         <v>553</v>
       </c>
+      <c r="I282" t="s">
+        <v>9</v>
+      </c>
+      <c r="J282" t="s">
+        <v>9</v>
+      </c>
       <c r="K282">
         <v>2000</v>
       </c>
+      <c r="M282" t="s">
+        <v>233</v>
+      </c>
+      <c r="N282" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B283" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C283" t="s">
-        <v>161</v>
+        <v>568</v>
       </c>
       <c r="D283" t="s">
         <v>29</v>
@@ -12834,22 +12870,28 @@
       <c r="H283" t="s">
         <v>553</v>
       </c>
+      <c r="I283">
+        <v>2000</v>
+      </c>
+      <c r="J283">
+        <v>2015</v>
+      </c>
       <c r="K283">
         <v>2000</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B284" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C284" t="s">
-        <v>161</v>
+        <v>567</v>
       </c>
       <c r="D284" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E284" t="s">
         <v>279</v>
@@ -12863,25 +12905,28 @@
       <c r="H284" t="s">
         <v>553</v>
       </c>
+      <c r="I284">
+        <v>2000</v>
+      </c>
+      <c r="J284">
+        <v>2015</v>
+      </c>
       <c r="K284">
         <v>2000</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>404</v>
+        <v>566</v>
       </c>
       <c r="B285" t="s">
-        <v>405</v>
-      </c>
-      <c r="C285" t="s">
-        <v>406</v>
+        <v>705</v>
       </c>
       <c r="D285" t="s">
         <v>29</v>
       </c>
       <c r="E285" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="F285" t="s">
         <v>17</v>
@@ -12890,13 +12935,16 @@
         <v>8</v>
       </c>
       <c r="H285" t="s">
-        <v>407</v>
-      </c>
-      <c r="J285">
-        <v>2018</v>
+        <v>553</v>
+      </c>
+      <c r="I285" t="s">
+        <v>9</v>
+      </c>
+      <c r="J285" t="s">
+        <v>9</v>
       </c>
       <c r="K285">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="M285" t="s">
         <v>233</v>
@@ -12907,19 +12955,19 @@
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>408</v>
+        <v>579</v>
       </c>
       <c r="B286" t="s">
-        <v>409</v>
+        <v>706</v>
       </c>
       <c r="C286" t="s">
-        <v>612</v>
+        <v>16</v>
       </c>
       <c r="D286" t="s">
         <v>29</v>
       </c>
       <c r="E286" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="F286" t="s">
         <v>17</v>
@@ -12928,27 +12976,18 @@
         <v>8</v>
       </c>
       <c r="H286" t="s">
-        <v>407</v>
-      </c>
-      <c r="J286">
-        <v>2019</v>
+        <v>553</v>
       </c>
       <c r="K286">
-        <v>1995</v>
-      </c>
-      <c r="M286" t="s">
-        <v>233</v>
-      </c>
-      <c r="N286" t="s">
-        <v>233</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>410</v>
+        <v>580</v>
       </c>
       <c r="B287" t="s">
-        <v>411</v>
+        <v>707</v>
       </c>
       <c r="C287" t="s">
         <v>161</v>
@@ -12957,7 +12996,7 @@
         <v>29</v>
       </c>
       <c r="E287" t="s">
-        <v>412</v>
+        <v>279</v>
       </c>
       <c r="F287" t="s">
         <v>17</v>
@@ -12966,36 +13005,27 @@
         <v>8</v>
       </c>
       <c r="H287" t="s">
-        <v>407</v>
-      </c>
-      <c r="J287">
-        <v>2019</v>
+        <v>553</v>
       </c>
       <c r="K287">
-        <v>2001</v>
-      </c>
-      <c r="M287" t="s">
-        <v>233</v>
-      </c>
-      <c r="N287" t="s">
-        <v>233</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>413</v>
+        <v>581</v>
       </c>
       <c r="B288" t="s">
-        <v>414</v>
+        <v>708</v>
       </c>
       <c r="C288" t="s">
-        <v>415</v>
+        <v>161</v>
       </c>
       <c r="D288" t="s">
         <v>29</v>
       </c>
       <c r="E288" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="F288" t="s">
         <v>17</v>
@@ -13004,30 +13034,21 @@
         <v>8</v>
       </c>
       <c r="H288" t="s">
-        <v>407</v>
-      </c>
-      <c r="J288">
-        <v>2019</v>
+        <v>553</v>
       </c>
       <c r="K288">
-        <v>1995</v>
-      </c>
-      <c r="M288" t="s">
-        <v>233</v>
-      </c>
-      <c r="N288" t="s">
-        <v>233</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="B289" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="C289" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="D289" t="s">
         <v>29</v>
@@ -13045,10 +13066,10 @@
         <v>407</v>
       </c>
       <c r="J289">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="K289">
-        <v>2018</v>
+        <v>1995</v>
       </c>
       <c r="M289" t="s">
         <v>233</v>
@@ -13059,16 +13080,19 @@
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B290" t="s">
-        <v>420</v>
+        <v>409</v>
+      </c>
+      <c r="C290" t="s">
+        <v>612</v>
       </c>
       <c r="D290" t="s">
         <v>29</v>
       </c>
       <c r="E290" t="s">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="F290" t="s">
         <v>17</v>
@@ -13083,7 +13107,7 @@
         <v>2019</v>
       </c>
       <c r="K290">
-        <v>2018</v>
+        <v>1995</v>
       </c>
       <c r="M290" t="s">
         <v>233</v>
@@ -13094,10 +13118,10 @@
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="B291" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="C291" t="s">
         <v>161</v>
@@ -13121,7 +13145,7 @@
         <v>2019</v>
       </c>
       <c r="K291">
-        <v>2018</v>
+        <v>2001</v>
       </c>
       <c r="M291" t="s">
         <v>233</v>
@@ -13132,19 +13156,19 @@
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B292" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="C292" t="s">
-        <v>214</v>
+        <v>415</v>
       </c>
       <c r="D292" t="s">
         <v>29</v>
       </c>
       <c r="E292" t="s">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="F292" t="s">
         <v>17</v>
@@ -13159,7 +13183,7 @@
         <v>2019</v>
       </c>
       <c r="K292">
-        <v>2018</v>
+        <v>1995</v>
       </c>
       <c r="M292" t="s">
         <v>233</v>
@@ -13170,19 +13194,19 @@
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B293" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C293" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="D293" t="s">
         <v>29</v>
       </c>
       <c r="E293" t="s">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="F293" t="s">
         <v>17</v>
@@ -13208,19 +13232,16 @@
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B294" t="s">
-        <v>429</v>
-      </c>
-      <c r="C294" t="s">
-        <v>161</v>
+        <v>420</v>
       </c>
       <c r="D294" t="s">
         <v>29</v>
       </c>
       <c r="E294" t="s">
-        <v>17</v>
+        <v>412</v>
       </c>
       <c r="F294" t="s">
         <v>17</v>
@@ -13246,19 +13267,19 @@
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B295" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C295" t="s">
-        <v>432</v>
+        <v>161</v>
       </c>
       <c r="D295" t="s">
         <v>29</v>
       </c>
       <c r="E295" t="s">
-        <v>17</v>
+        <v>412</v>
       </c>
       <c r="F295" t="s">
         <v>17</v>
@@ -13284,19 +13305,19 @@
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B296" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C296" t="s">
-        <v>418</v>
+        <v>214</v>
       </c>
       <c r="D296" t="s">
         <v>29</v>
       </c>
       <c r="E296" t="s">
-        <v>17</v>
+        <v>412</v>
       </c>
       <c r="F296" t="s">
         <v>17</v>
@@ -13322,26 +13343,35 @@
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B297" t="s">
-        <v>435</v>
+        <v>426</v>
+      </c>
+      <c r="C297" t="s">
+        <v>427</v>
       </c>
       <c r="D297" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E297" t="s">
         <v>412</v>
       </c>
       <c r="F297" t="s">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="G297" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H297" t="s">
         <v>407</v>
       </c>
+      <c r="J297">
+        <v>2019</v>
+      </c>
+      <c r="K297">
+        <v>2018</v>
+      </c>
       <c r="M297" t="s">
         <v>233</v>
       </c>
@@ -13351,29 +13381,35 @@
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B298" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C298" t="s">
-        <v>438</v>
+        <v>161</v>
       </c>
       <c r="D298" t="s">
         <v>29</v>
       </c>
       <c r="E298" t="s">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="F298" t="s">
-        <v>439</v>
+        <v>17</v>
       </c>
       <c r="G298" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H298" t="s">
         <v>407</v>
       </c>
+      <c r="J298">
+        <v>2019</v>
+      </c>
+      <c r="K298">
+        <v>2018</v>
+      </c>
       <c r="M298" t="s">
         <v>233</v>
       </c>
@@ -13383,26 +13419,35 @@
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B299" t="s">
-        <v>441</v>
+        <v>431</v>
+      </c>
+      <c r="C299" t="s">
+        <v>432</v>
       </c>
       <c r="D299" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E299" t="s">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="F299" t="s">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="G299" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H299" t="s">
         <v>407</v>
       </c>
+      <c r="J299">
+        <v>2019</v>
+      </c>
+      <c r="K299">
+        <v>2018</v>
+      </c>
       <c r="M299" t="s">
         <v>233</v>
       </c>
@@ -13412,26 +13457,35 @@
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B300" t="s">
-        <v>443</v>
+        <v>417</v>
+      </c>
+      <c r="C300" t="s">
+        <v>418</v>
       </c>
       <c r="D300" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E300" t="s">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="F300" t="s">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="G300" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H300" t="s">
         <v>407</v>
       </c>
+      <c r="J300">
+        <v>2019</v>
+      </c>
+      <c r="K300">
+        <v>2018</v>
+      </c>
       <c r="M300" t="s">
         <v>233</v>
       </c>
@@ -13441,10 +13495,10 @@
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B301" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D301" t="s">
         <v>17</v>
@@ -13470,29 +13524,29 @@
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B302" t="s">
-        <v>447</v>
+        <v>437</v>
+      </c>
+      <c r="C302" t="s">
+        <v>438</v>
       </c>
       <c r="D302" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E302" t="s">
         <v>412</v>
       </c>
       <c r="F302" t="s">
-        <v>17</v>
+        <v>439</v>
       </c>
       <c r="G302" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H302" t="s">
         <v>407</v>
       </c>
-      <c r="K302">
-        <v>2019</v>
-      </c>
       <c r="M302" t="s">
         <v>233</v>
       </c>
@@ -13502,32 +13556,26 @@
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B303" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D303" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E303" t="s">
-        <v>17</v>
+        <v>412</v>
       </c>
       <c r="F303" t="s">
-        <v>17</v>
+        <v>412</v>
       </c>
       <c r="G303" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H303" t="s">
         <v>407</v>
       </c>
-      <c r="J303">
-        <v>2019</v>
-      </c>
-      <c r="K303">
-        <v>1990</v>
-      </c>
       <c r="M303" t="s">
         <v>233</v>
       </c>
@@ -13537,32 +13585,26 @@
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B304" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D304" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E304" t="s">
-        <v>17</v>
+        <v>412</v>
       </c>
       <c r="F304" t="s">
-        <v>17</v>
+        <v>412</v>
       </c>
       <c r="G304" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H304" t="s">
         <v>407</v>
       </c>
-      <c r="J304">
-        <v>2019</v>
-      </c>
-      <c r="K304">
-        <v>1990</v>
-      </c>
       <c r="M304" t="s">
         <v>233</v>
       </c>
@@ -13572,32 +13614,26 @@
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B305" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D305" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E305" t="s">
-        <v>17</v>
+        <v>412</v>
       </c>
       <c r="F305" t="s">
-        <v>17</v>
+        <v>412</v>
       </c>
       <c r="G305" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H305" t="s">
         <v>407</v>
       </c>
-      <c r="J305">
-        <v>2019</v>
-      </c>
-      <c r="K305">
-        <v>1990</v>
-      </c>
       <c r="M305" t="s">
         <v>233</v>
       </c>
@@ -13607,29 +13643,29 @@
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B306" t="s">
-        <v>455</v>
-      </c>
-      <c r="C306" t="s">
-        <v>601</v>
+        <v>447</v>
       </c>
       <c r="D306" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E306" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="F306" t="s">
         <v>17</v>
       </c>
       <c r="G306" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H306" t="s">
         <v>407</v>
       </c>
+      <c r="K306">
+        <v>2019</v>
+      </c>
       <c r="M306" t="s">
         <v>233</v>
       </c>
@@ -13639,10 +13675,10 @@
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B307" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D307" t="s">
         <v>29</v>
@@ -13659,8 +13695,11 @@
       <c r="H307" t="s">
         <v>407</v>
       </c>
+      <c r="J307">
+        <v>2019</v>
+      </c>
       <c r="K307">
-        <v>2019</v>
+        <v>1990</v>
       </c>
       <c r="M307" t="s">
         <v>233</v>
@@ -13671,10 +13710,10 @@
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B308" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D308" t="s">
         <v>29</v>
@@ -13706,26 +13745,32 @@
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B309" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="D309" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E309" t="s">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="F309" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="G309" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H309" t="s">
         <v>407</v>
       </c>
+      <c r="J309">
+        <v>2019</v>
+      </c>
+      <c r="K309">
+        <v>1990</v>
+      </c>
       <c r="M309" t="s">
         <v>233</v>
       </c>
@@ -13735,29 +13780,29 @@
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B310" t="s">
-        <v>464</v>
+        <v>455</v>
+      </c>
+      <c r="C310" t="s">
+        <v>601</v>
       </c>
       <c r="D310" t="s">
         <v>29</v>
       </c>
       <c r="E310" t="s">
-        <v>17</v>
+        <v>456</v>
       </c>
       <c r="F310" t="s">
         <v>17</v>
       </c>
       <c r="G310" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H310" t="s">
         <v>407</v>
       </c>
-      <c r="K310">
-        <v>2019</v>
-      </c>
       <c r="M310" t="s">
         <v>233</v>
       </c>
@@ -13767,19 +13812,16 @@
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B311" t="s">
-        <v>466</v>
-      </c>
-      <c r="C311" t="s">
-        <v>602</v>
+        <v>458</v>
       </c>
       <c r="D311" t="s">
         <v>29</v>
       </c>
       <c r="E311" t="s">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="F311" t="s">
         <v>17</v>
@@ -13791,7 +13833,7 @@
         <v>407</v>
       </c>
       <c r="K311">
-        <v>2001</v>
+        <v>2019</v>
       </c>
       <c r="M311" t="s">
         <v>233</v>
@@ -13802,19 +13844,16 @@
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B312" t="s">
-        <v>468</v>
-      </c>
-      <c r="C312" t="s">
-        <v>602</v>
+        <v>460</v>
       </c>
       <c r="D312" t="s">
         <v>29</v>
       </c>
       <c r="E312" t="s">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="F312" t="s">
         <v>17</v>
@@ -13825,8 +13864,11 @@
       <c r="H312" t="s">
         <v>407</v>
       </c>
+      <c r="J312">
+        <v>2019</v>
+      </c>
       <c r="K312">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="M312" t="s">
         <v>233</v>
@@ -13837,32 +13879,26 @@
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B313" t="s">
-        <v>470</v>
-      </c>
-      <c r="C313" t="s">
-        <v>602</v>
+        <v>462</v>
       </c>
       <c r="D313" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E313" t="s">
         <v>412</v>
       </c>
       <c r="F313" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="G313" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H313" t="s">
         <v>407</v>
       </c>
-      <c r="K313">
-        <v>2001</v>
-      </c>
       <c r="M313" t="s">
         <v>233</v>
       </c>
@@ -13872,19 +13908,16 @@
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B314" t="s">
-        <v>472</v>
-      </c>
-      <c r="C314" t="s">
-        <v>602</v>
+        <v>464</v>
       </c>
       <c r="D314" t="s">
         <v>29</v>
       </c>
       <c r="E314" t="s">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="F314" t="s">
         <v>17</v>
@@ -13896,7 +13929,7 @@
         <v>407</v>
       </c>
       <c r="K314">
-        <v>2001</v>
+        <v>2019</v>
       </c>
       <c r="M314" t="s">
         <v>233</v>
@@ -13907,10 +13940,10 @@
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B315" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C315" t="s">
         <v>602</v>
@@ -13942,10 +13975,10 @@
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B316" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C316" t="s">
         <v>602</v>
@@ -13977,13 +14010,13 @@
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="B317" t="s">
-        <v>603</v>
+        <v>470</v>
       </c>
       <c r="C317" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D317" t="s">
         <v>29</v>
@@ -14012,13 +14045,13 @@
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B318" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="C318" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D318" t="s">
         <v>29</v>
@@ -14047,19 +14080,19 @@
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B319" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="C319" t="s">
-        <v>161</v>
+        <v>602</v>
       </c>
       <c r="D319" t="s">
         <v>29</v>
       </c>
       <c r="E319" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="F319" t="s">
         <v>17</v>
@@ -14082,13 +14115,13 @@
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="B320" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="C320" t="s">
-        <v>161</v>
+        <v>602</v>
       </c>
       <c r="D320" t="s">
         <v>29</v>
@@ -14117,13 +14150,13 @@
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B321" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="C321" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="D321" t="s">
         <v>29</v>
@@ -14152,13 +14185,13 @@
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B322" t="s">
-        <v>607</v>
+        <v>484</v>
       </c>
       <c r="C322" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="D322" t="s">
         <v>29</v>
@@ -14187,19 +14220,19 @@
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B323" t="s">
-        <v>611</v>
+        <v>486</v>
       </c>
       <c r="C323" t="s">
-        <v>606</v>
+        <v>161</v>
       </c>
       <c r="D323" t="s">
         <v>29</v>
       </c>
       <c r="E323" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="F323" t="s">
         <v>17</v>
@@ -14222,16 +14255,19 @@
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B324" t="s">
-        <v>493</v>
+        <v>488</v>
+      </c>
+      <c r="C324" t="s">
+        <v>161</v>
       </c>
       <c r="D324" t="s">
         <v>29</v>
       </c>
       <c r="E324" t="s">
-        <v>17</v>
+        <v>412</v>
       </c>
       <c r="F324" t="s">
         <v>17</v>
@@ -14254,19 +14290,19 @@
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B325" t="s">
-        <v>495</v>
+        <v>610</v>
       </c>
       <c r="C325" t="s">
-        <v>6</v>
+        <v>604</v>
       </c>
       <c r="D325" t="s">
         <v>29</v>
       </c>
       <c r="E325" t="s">
-        <v>201</v>
+        <v>412</v>
       </c>
       <c r="F325" t="s">
         <v>17</v>
@@ -14289,13 +14325,13 @@
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B326" t="s">
-        <v>497</v>
+        <v>607</v>
       </c>
       <c r="C326" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D326" t="s">
         <v>29</v>
@@ -14324,16 +14360,16 @@
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>595</v>
+        <v>491</v>
       </c>
       <c r="B327" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="C327" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D327" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E327" t="s">
         <v>412</v>
@@ -14359,19 +14395,16 @@
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>609</v>
+        <v>492</v>
       </c>
       <c r="B328" t="s">
-        <v>613</v>
-      </c>
-      <c r="C328" t="s">
-        <v>602</v>
+        <v>493</v>
       </c>
       <c r="D328" t="s">
         <v>29</v>
       </c>
       <c r="E328" t="s">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="F328" t="s">
         <v>17</v>
@@ -14394,31 +14427,171 @@
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
+        <v>494</v>
+      </c>
+      <c r="B329" t="s">
+        <v>495</v>
+      </c>
+      <c r="C329" t="s">
+        <v>6</v>
+      </c>
+      <c r="D329" t="s">
+        <v>29</v>
+      </c>
+      <c r="E329" t="s">
+        <v>201</v>
+      </c>
+      <c r="F329" t="s">
+        <v>17</v>
+      </c>
+      <c r="G329" t="s">
+        <v>8</v>
+      </c>
+      <c r="H329" t="s">
+        <v>407</v>
+      </c>
+      <c r="K329">
+        <v>2001</v>
+      </c>
+      <c r="M329" t="s">
+        <v>233</v>
+      </c>
+      <c r="N329" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>496</v>
+      </c>
+      <c r="B330" t="s">
+        <v>497</v>
+      </c>
+      <c r="C330" t="s">
+        <v>605</v>
+      </c>
+      <c r="D330" t="s">
+        <v>29</v>
+      </c>
+      <c r="E330" t="s">
+        <v>412</v>
+      </c>
+      <c r="F330" t="s">
+        <v>17</v>
+      </c>
+      <c r="G330" t="s">
+        <v>8</v>
+      </c>
+      <c r="H330" t="s">
+        <v>407</v>
+      </c>
+      <c r="K330">
+        <v>2001</v>
+      </c>
+      <c r="M330" t="s">
+        <v>233</v>
+      </c>
+      <c r="N330" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>595</v>
+      </c>
+      <c r="B331" t="s">
+        <v>596</v>
+      </c>
+      <c r="C331" t="s">
+        <v>608</v>
+      </c>
+      <c r="D331" t="s">
+        <v>17</v>
+      </c>
+      <c r="E331" t="s">
+        <v>412</v>
+      </c>
+      <c r="F331" t="s">
+        <v>17</v>
+      </c>
+      <c r="G331" t="s">
+        <v>8</v>
+      </c>
+      <c r="H331" t="s">
+        <v>407</v>
+      </c>
+      <c r="K331">
+        <v>2001</v>
+      </c>
+      <c r="M331" t="s">
+        <v>233</v>
+      </c>
+      <c r="N331" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>609</v>
+      </c>
+      <c r="B332" t="s">
+        <v>613</v>
+      </c>
+      <c r="C332" t="s">
+        <v>602</v>
+      </c>
+      <c r="D332" t="s">
+        <v>29</v>
+      </c>
+      <c r="E332" t="s">
+        <v>412</v>
+      </c>
+      <c r="F332" t="s">
+        <v>17</v>
+      </c>
+      <c r="G332" t="s">
+        <v>8</v>
+      </c>
+      <c r="H332" t="s">
+        <v>407</v>
+      </c>
+      <c r="K332">
+        <v>2001</v>
+      </c>
+      <c r="M332" t="s">
+        <v>233</v>
+      </c>
+      <c r="N332" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
         <v>710</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B333" t="s">
         <v>709</v>
       </c>
-      <c r="D329" t="s">
-        <v>17</v>
-      </c>
-      <c r="E329" t="s">
-        <v>17</v>
-      </c>
-      <c r="F329" t="s">
-        <v>17</v>
-      </c>
-      <c r="G329" t="s">
-        <v>17</v>
-      </c>
-      <c r="H329" t="s">
+      <c r="D333" t="s">
+        <v>17</v>
+      </c>
+      <c r="E333" t="s">
+        <v>17</v>
+      </c>
+      <c r="F333" t="s">
+        <v>17</v>
+      </c>
+      <c r="G333" t="s">
+        <v>17</v>
+      </c>
+      <c r="H333" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L329" xr:uid="{5694E675-77F6-4F54-A793-A54451BF0049}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A152:L189">
-      <sortCondition descending="1" ref="A1:A329"/>
+  <autoFilter ref="A1:L333" xr:uid="{5694E675-77F6-4F54-A793-A54451BF0049}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A156:L193">
+      <sortCondition descending="1" ref="A1:A333"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Utilities/titles/VariableListing.xlsx
+++ b/Utilities/titles/VariableListing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Work profile\Documents\GitHub\FTT_StandAlone\Utilities\titles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E63276A-489A-4C2C-ACBD-7F3D451179F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64002A6-087A-4710-A4E2-8DCABD50D6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3966A5EA-18B5-40FC-82B6-8DC341B5B05B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$333</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$332</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3382" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3380" uniqueCount="740">
   <si>
     <t>Variable name</t>
   </si>
@@ -1521,12 +1521,6 @@
     <t>FTT-Fr Fuel use</t>
   </si>
   <si>
-    <t>ZJNJ</t>
-  </si>
-  <si>
-    <t>FTT-Fr Fuel use by fuel type</t>
-  </si>
-  <si>
     <t>ZEWE</t>
   </si>
   <si>
@@ -2224,6 +2218,45 @@
   </si>
   <si>
     <t>th toe</t>
+  </si>
+  <si>
+    <t>mln km/y</t>
+  </si>
+  <si>
+    <t>Mt/y</t>
+  </si>
+  <si>
+    <t>$/pkm</t>
+  </si>
+  <si>
+    <t>FTT-Transport demand</t>
+  </si>
+  <si>
+    <t>FTT-Transport emissions</t>
+  </si>
+  <si>
+    <t>FTT-Transport levelised costs</t>
+  </si>
+  <si>
+    <t>th-veh</t>
+  </si>
+  <si>
+    <t>FTT-Transport sales</t>
+  </si>
+  <si>
+    <t>FTT-Transport fleet size</t>
+  </si>
+  <si>
+    <t>FTT-Transport cumulative sales</t>
+  </si>
+  <si>
+    <t>FTT-Transport fuel use</t>
+  </si>
+  <si>
+    <t>FTT-Transport log(levelised costs)</t>
+  </si>
+  <si>
+    <t>FTT-Transport levelised costs with taxes</t>
   </si>
 </sst>
 </file>
@@ -2592,13 +2625,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5694E675-77F6-4F54-A793-A54451BF0049}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N333"/>
+  <dimension ref="A1:N332"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H303" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E154" sqref="E154"/>
+      <selection pane="bottomRight" activeCell="A329" sqref="A329:XFD329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6237,10 +6270,10 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B89" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
@@ -6278,7 +6311,7 @@
         <v>62</v>
       </c>
       <c r="B90" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C90" t="s">
         <v>193</v>
@@ -8287,13 +8320,13 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>718</v>
+      </c>
+      <c r="B151" t="s">
+        <v>719</v>
+      </c>
+      <c r="C151" t="s">
         <v>720</v>
-      </c>
-      <c r="B151" t="s">
-        <v>721</v>
-      </c>
-      <c r="C151" t="s">
-        <v>722</v>
       </c>
       <c r="D151" t="s">
         <v>29</v>
@@ -8316,10 +8349,10 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B152" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C152" t="s">
         <v>264</v>
@@ -8357,10 +8390,10 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>723</v>
+      </c>
+      <c r="B153" t="s">
         <v>725</v>
-      </c>
-      <c r="B153" t="s">
-        <v>727</v>
       </c>
       <c r="C153" t="s">
         <v>35</v>
@@ -8395,13 +8428,13 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>724</v>
+      </c>
+      <c r="B154" t="s">
+        <v>725</v>
+      </c>
+      <c r="C154" t="s">
         <v>726</v>
-      </c>
-      <c r="B154" t="s">
-        <v>727</v>
-      </c>
-      <c r="C154" t="s">
-        <v>728</v>
       </c>
       <c r="D154" t="s">
         <v>29</v>
@@ -8618,7 +8651,7 @@
         <v>396</v>
       </c>
       <c r="B162" t="s">
-        <v>386</v>
+        <v>738</v>
       </c>
       <c r="D162" t="s">
         <v>29</v>
@@ -8667,7 +8700,10 @@
         <v>400</v>
       </c>
       <c r="B164" t="s">
-        <v>386</v>
+        <v>737</v>
+      </c>
+      <c r="C164" t="s">
+        <v>726</v>
       </c>
       <c r="D164" t="s">
         <v>29</v>
@@ -8719,7 +8755,10 @@
         <v>403</v>
       </c>
       <c r="B166" t="s">
-        <v>386</v>
+        <v>736</v>
+      </c>
+      <c r="C166" t="s">
+        <v>733</v>
       </c>
       <c r="D166" t="s">
         <v>17</v>
@@ -8774,7 +8813,10 @@
         <v>387</v>
       </c>
       <c r="B168" t="s">
-        <v>386</v>
+        <v>735</v>
+      </c>
+      <c r="C168" t="s">
+        <v>733</v>
       </c>
       <c r="D168" t="s">
         <v>29</v>
@@ -8800,7 +8842,10 @@
         <v>398</v>
       </c>
       <c r="B169" t="s">
-        <v>386</v>
+        <v>734</v>
+      </c>
+      <c r="C169" t="s">
+        <v>733</v>
       </c>
       <c r="D169" t="s">
         <v>29</v>
@@ -8826,7 +8871,10 @@
         <v>389</v>
       </c>
       <c r="B170" t="s">
-        <v>386</v>
+        <v>730</v>
+      </c>
+      <c r="C170" t="s">
+        <v>727</v>
       </c>
       <c r="D170" t="s">
         <v>29</v>
@@ -8852,7 +8900,10 @@
         <v>402</v>
       </c>
       <c r="B171" t="s">
-        <v>386</v>
+        <v>731</v>
+      </c>
+      <c r="C171" t="s">
+        <v>728</v>
       </c>
       <c r="D171" t="s">
         <v>29</v>
@@ -8878,7 +8929,10 @@
         <v>391</v>
       </c>
       <c r="B172" t="s">
-        <v>386</v>
+        <v>732</v>
+      </c>
+      <c r="C172" t="s">
+        <v>729</v>
       </c>
       <c r="D172" t="s">
         <v>29</v>
@@ -8924,10 +8978,10 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B174" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D174" t="s">
         <v>17</v>
@@ -9011,7 +9065,10 @@
         <v>392</v>
       </c>
       <c r="B177" t="s">
-        <v>386</v>
+        <v>739</v>
+      </c>
+      <c r="C177" t="s">
+        <v>729</v>
       </c>
       <c r="D177" t="s">
         <v>29</v>
@@ -9034,10 +9091,10 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B178" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D178" t="s">
         <v>29</v>
@@ -9320,10 +9377,10 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B189" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D189" t="s">
         <v>29</v>
@@ -9450,10 +9507,10 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B194" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C194" t="s">
         <v>35</v>
@@ -9491,10 +9548,10 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B195" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C195" t="s">
         <v>161</v>
@@ -9535,10 +9592,10 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B196" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C196" t="s">
         <v>16</v>
@@ -9576,10 +9633,10 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B197" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C197" t="s">
         <v>16</v>
@@ -9617,10 +9674,10 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B198" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C198" t="s">
         <v>16</v>
@@ -9658,10 +9715,10 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B199" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C199" t="s">
         <v>188</v>
@@ -9696,10 +9753,10 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B200" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C200" t="s">
         <v>263</v>
@@ -9734,10 +9791,10 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B201" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C201" t="s">
         <v>161</v>
@@ -9775,10 +9832,10 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B202" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C202" t="s">
         <v>161</v>
@@ -9813,10 +9870,10 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B203" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C203" t="s">
         <v>35</v>
@@ -9854,10 +9911,10 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B204" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C204" t="s">
         <v>282</v>
@@ -9895,10 +9952,10 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B205" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C205" t="s">
         <v>282</v>
@@ -9936,10 +9993,10 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B206" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C206" t="s">
         <v>282</v>
@@ -9977,13 +10034,13 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B207" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C207" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D207" t="s">
         <v>29</v>
@@ -10006,13 +10063,13 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B208" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C208" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D208" t="s">
         <v>17</v>
@@ -10035,10 +10092,10 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B209" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D209" t="s">
         <v>29</v>
@@ -10067,10 +10124,10 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B210" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C210" t="s">
         <v>16</v>
@@ -10096,10 +10153,10 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B211" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C211" t="s">
         <v>161</v>
@@ -10125,10 +10182,10 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B212" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C212" t="s">
         <v>161</v>
@@ -10154,10 +10211,10 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B213" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C213" t="s">
         <v>35</v>
@@ -10175,7 +10232,7 @@
         <v>8</v>
       </c>
       <c r="H213" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I213">
         <v>1970</v>
@@ -10195,10 +10252,10 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B214" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C214" t="s">
         <v>161</v>
@@ -10216,7 +10273,7 @@
         <v>8</v>
       </c>
       <c r="H214" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I214" t="s">
         <v>9</v>
@@ -10239,10 +10296,10 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B215" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C215" t="s">
         <v>16</v>
@@ -10260,7 +10317,7 @@
         <v>8</v>
       </c>
       <c r="H215" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I215" t="s">
         <v>9</v>
@@ -10280,10 +10337,10 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B216" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C216" t="s">
         <v>16</v>
@@ -10301,7 +10358,7 @@
         <v>8</v>
       </c>
       <c r="H216" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I216">
         <v>1971</v>
@@ -10321,10 +10378,10 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B217" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C217" t="s">
         <v>16</v>
@@ -10342,7 +10399,7 @@
         <v>8</v>
       </c>
       <c r="H217" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I217">
         <v>1970</v>
@@ -10362,10 +10419,10 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B218" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C218" t="s">
         <v>188</v>
@@ -10383,7 +10440,7 @@
         <v>17</v>
       </c>
       <c r="H218" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I218" t="s">
         <v>9</v>
@@ -10400,10 +10457,10 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B219" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C219" t="s">
         <v>263</v>
@@ -10421,7 +10478,7 @@
         <v>17</v>
       </c>
       <c r="H219" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I219" t="s">
         <v>9</v>
@@ -10438,10 +10495,10 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B220" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C220" t="s">
         <v>161</v>
@@ -10459,7 +10516,7 @@
         <v>8</v>
       </c>
       <c r="H220" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I220">
         <v>2000</v>
@@ -10479,10 +10536,10 @@
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B221" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C221" t="s">
         <v>161</v>
@@ -10500,7 +10557,7 @@
         <v>17</v>
       </c>
       <c r="H221" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I221" t="s">
         <v>9</v>
@@ -10517,10 +10574,10 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B222" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C222" t="s">
         <v>35</v>
@@ -10538,7 +10595,7 @@
         <v>8</v>
       </c>
       <c r="H222" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I222" t="s">
         <v>9</v>
@@ -10558,10 +10615,10 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B223" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C223" t="s">
         <v>282</v>
@@ -10579,7 +10636,7 @@
         <v>8</v>
       </c>
       <c r="H223" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I223" t="s">
         <v>9</v>
@@ -10599,10 +10656,10 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B224" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C224" t="s">
         <v>282</v>
@@ -10620,7 +10677,7 @@
         <v>8</v>
       </c>
       <c r="H224" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I224" t="s">
         <v>9</v>
@@ -10640,10 +10697,10 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B225" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C225" t="s">
         <v>282</v>
@@ -10661,7 +10718,7 @@
         <v>8</v>
       </c>
       <c r="H225" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I225" t="s">
         <v>9</v>
@@ -10681,13 +10738,13 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B226" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C226" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D226" t="s">
         <v>29</v>
@@ -10702,7 +10759,7 @@
         <v>8</v>
       </c>
       <c r="H226" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I226">
         <v>2000</v>
@@ -10716,13 +10773,13 @@
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B227" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C227" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D227" t="s">
         <v>17</v>
@@ -10737,7 +10794,7 @@
         <v>8</v>
       </c>
       <c r="H227" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I227">
         <v>2000</v>
@@ -10751,10 +10808,10 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B228" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D228" t="s">
         <v>29</v>
@@ -10769,7 +10826,7 @@
         <v>8</v>
       </c>
       <c r="H228" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I228" t="s">
         <v>9</v>
@@ -10789,10 +10846,10 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B229" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C229" t="s">
         <v>16</v>
@@ -10810,7 +10867,7 @@
         <v>8</v>
       </c>
       <c r="H229" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="K229">
         <v>2000</v>
@@ -10818,10 +10875,10 @@
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B230" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C230" t="s">
         <v>161</v>
@@ -10839,7 +10896,7 @@
         <v>8</v>
       </c>
       <c r="H230" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="K230">
         <v>2000</v>
@@ -10847,10 +10904,10 @@
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B231" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C231" t="s">
         <v>161</v>
@@ -10868,7 +10925,7 @@
         <v>8</v>
       </c>
       <c r="H231" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="K231">
         <v>2000</v>
@@ -10876,10 +10933,10 @@
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B232" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C232" t="s">
         <v>35</v>
@@ -10897,7 +10954,7 @@
         <v>8</v>
       </c>
       <c r="H232" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I232">
         <v>1970</v>
@@ -10917,10 +10974,10 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B233" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C233" t="s">
         <v>161</v>
@@ -10938,7 +10995,7 @@
         <v>8</v>
       </c>
       <c r="H233" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I233" t="s">
         <v>9</v>
@@ -10961,10 +11018,10 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B234" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C234" t="s">
         <v>16</v>
@@ -10982,7 +11039,7 @@
         <v>8</v>
       </c>
       <c r="H234" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I234" t="s">
         <v>9</v>
@@ -11002,10 +11059,10 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B235" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C235" t="s">
         <v>16</v>
@@ -11023,7 +11080,7 @@
         <v>8</v>
       </c>
       <c r="H235" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I235">
         <v>1971</v>
@@ -11043,10 +11100,10 @@
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B236" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C236" t="s">
         <v>16</v>
@@ -11064,7 +11121,7 @@
         <v>8</v>
       </c>
       <c r="H236" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I236">
         <v>1970</v>
@@ -11084,10 +11141,10 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B237" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C237" t="s">
         <v>188</v>
@@ -11105,7 +11162,7 @@
         <v>17</v>
       </c>
       <c r="H237" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I237" t="s">
         <v>9</v>
@@ -11122,10 +11179,10 @@
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B238" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C238" t="s">
         <v>263</v>
@@ -11143,7 +11200,7 @@
         <v>17</v>
       </c>
       <c r="H238" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I238" t="s">
         <v>9</v>
@@ -11160,10 +11217,10 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B239" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C239" t="s">
         <v>161</v>
@@ -11181,7 +11238,7 @@
         <v>8</v>
       </c>
       <c r="H239" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I239">
         <v>2000</v>
@@ -11201,10 +11258,10 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B240" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C240" t="s">
         <v>161</v>
@@ -11222,7 +11279,7 @@
         <v>17</v>
       </c>
       <c r="H240" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I240" t="s">
         <v>9</v>
@@ -11239,10 +11296,10 @@
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B241" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C241" t="s">
         <v>35</v>
@@ -11260,7 +11317,7 @@
         <v>8</v>
       </c>
       <c r="H241" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I241" t="s">
         <v>9</v>
@@ -11280,10 +11337,10 @@
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B242" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C242" t="s">
         <v>282</v>
@@ -11301,7 +11358,7 @@
         <v>8</v>
       </c>
       <c r="H242" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I242" t="s">
         <v>9</v>
@@ -11321,10 +11378,10 @@
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B243" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C243" t="s">
         <v>282</v>
@@ -11342,7 +11399,7 @@
         <v>8</v>
       </c>
       <c r="H243" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I243" t="s">
         <v>9</v>
@@ -11362,10 +11419,10 @@
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B244" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C244" t="s">
         <v>282</v>
@@ -11383,7 +11440,7 @@
         <v>8</v>
       </c>
       <c r="H244" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I244" t="s">
         <v>9</v>
@@ -11403,13 +11460,13 @@
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B245" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C245" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D245" t="s">
         <v>29</v>
@@ -11424,7 +11481,7 @@
         <v>8</v>
       </c>
       <c r="H245" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I245">
         <v>2000</v>
@@ -11438,13 +11495,13 @@
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B246" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C246" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D246" t="s">
         <v>17</v>
@@ -11459,7 +11516,7 @@
         <v>8</v>
       </c>
       <c r="H246" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I246">
         <v>2000</v>
@@ -11473,10 +11530,10 @@
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B247" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D247" t="s">
         <v>29</v>
@@ -11491,7 +11548,7 @@
         <v>8</v>
       </c>
       <c r="H247" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I247" t="s">
         <v>9</v>
@@ -11511,10 +11568,10 @@
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B248" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C248" t="s">
         <v>16</v>
@@ -11532,7 +11589,7 @@
         <v>8</v>
       </c>
       <c r="H248" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="K248">
         <v>2000</v>
@@ -11540,10 +11597,10 @@
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B249" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C249" t="s">
         <v>161</v>
@@ -11561,7 +11618,7 @@
         <v>8</v>
       </c>
       <c r="H249" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="K249">
         <v>2000</v>
@@ -11569,10 +11626,10 @@
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B250" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C250" t="s">
         <v>161</v>
@@ -11590,7 +11647,7 @@
         <v>8</v>
       </c>
       <c r="H250" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="K250">
         <v>2000</v>
@@ -11598,10 +11655,10 @@
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B251" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C251" t="s">
         <v>35</v>
@@ -11619,7 +11676,7 @@
         <v>8</v>
       </c>
       <c r="H251" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I251">
         <v>1970</v>
@@ -11639,10 +11696,10 @@
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B252" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C252" t="s">
         <v>161</v>
@@ -11660,7 +11717,7 @@
         <v>8</v>
       </c>
       <c r="H252" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I252" t="s">
         <v>9</v>
@@ -11683,10 +11740,10 @@
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B253" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C253" t="s">
         <v>16</v>
@@ -11704,7 +11761,7 @@
         <v>8</v>
       </c>
       <c r="H253" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I253" t="s">
         <v>9</v>
@@ -11724,10 +11781,10 @@
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B254" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C254" t="s">
         <v>16</v>
@@ -11745,7 +11802,7 @@
         <v>8</v>
       </c>
       <c r="H254" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I254">
         <v>1971</v>
@@ -11765,10 +11822,10 @@
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B255" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C255" t="s">
         <v>16</v>
@@ -11786,7 +11843,7 @@
         <v>8</v>
       </c>
       <c r="H255" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I255">
         <v>1970</v>
@@ -11806,10 +11863,10 @@
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B256" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C256" t="s">
         <v>188</v>
@@ -11827,7 +11884,7 @@
         <v>17</v>
       </c>
       <c r="H256" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I256" t="s">
         <v>9</v>
@@ -11844,10 +11901,10 @@
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B257" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C257" t="s">
         <v>263</v>
@@ -11865,7 +11922,7 @@
         <v>17</v>
       </c>
       <c r="H257" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I257" t="s">
         <v>9</v>
@@ -11882,10 +11939,10 @@
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B258" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C258" t="s">
         <v>161</v>
@@ -11903,7 +11960,7 @@
         <v>8</v>
       </c>
       <c r="H258" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I258">
         <v>2000</v>
@@ -11923,10 +11980,10 @@
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B259" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C259" t="s">
         <v>161</v>
@@ -11944,7 +12001,7 @@
         <v>17</v>
       </c>
       <c r="H259" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I259" t="s">
         <v>9</v>
@@ -11961,10 +12018,10 @@
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B260" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C260" t="s">
         <v>35</v>
@@ -11982,7 +12039,7 @@
         <v>8</v>
       </c>
       <c r="H260" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I260" t="s">
         <v>9</v>
@@ -12002,10 +12059,10 @@
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B261" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C261" t="s">
         <v>282</v>
@@ -12023,7 +12080,7 @@
         <v>8</v>
       </c>
       <c r="H261" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I261" t="s">
         <v>9</v>
@@ -12043,10 +12100,10 @@
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B262" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C262" t="s">
         <v>282</v>
@@ -12064,7 +12121,7 @@
         <v>8</v>
       </c>
       <c r="H262" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I262" t="s">
         <v>9</v>
@@ -12084,10 +12141,10 @@
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B263" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C263" t="s">
         <v>282</v>
@@ -12105,7 +12162,7 @@
         <v>8</v>
       </c>
       <c r="H263" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I263" t="s">
         <v>9</v>
@@ -12125,13 +12182,13 @@
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B264" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C264" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D264" t="s">
         <v>29</v>
@@ -12146,7 +12203,7 @@
         <v>8</v>
       </c>
       <c r="H264" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I264">
         <v>2000</v>
@@ -12160,13 +12217,13 @@
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B265" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C265" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D265" t="s">
         <v>17</v>
@@ -12181,7 +12238,7 @@
         <v>8</v>
       </c>
       <c r="H265" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I265">
         <v>2000</v>
@@ -12195,10 +12252,10 @@
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B266" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D266" t="s">
         <v>29</v>
@@ -12213,7 +12270,7 @@
         <v>8</v>
       </c>
       <c r="H266" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I266" t="s">
         <v>9</v>
@@ -12233,10 +12290,10 @@
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B267" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C267" t="s">
         <v>16</v>
@@ -12254,7 +12311,7 @@
         <v>8</v>
       </c>
       <c r="H267" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="K267">
         <v>2000</v>
@@ -12262,10 +12319,10 @@
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B268" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C268" t="s">
         <v>161</v>
@@ -12283,7 +12340,7 @@
         <v>8</v>
       </c>
       <c r="H268" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="K268">
         <v>2000</v>
@@ -12291,10 +12348,10 @@
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B269" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C269" t="s">
         <v>161</v>
@@ -12312,7 +12369,7 @@
         <v>8</v>
       </c>
       <c r="H269" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="K269">
         <v>2000</v>
@@ -12320,10 +12377,10 @@
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B270" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C270" t="s">
         <v>35</v>
@@ -12341,7 +12398,7 @@
         <v>8</v>
       </c>
       <c r="H270" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I270">
         <v>1970</v>
@@ -12361,10 +12418,10 @@
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B271" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C271" t="s">
         <v>161</v>
@@ -12382,7 +12439,7 @@
         <v>8</v>
       </c>
       <c r="H271" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I271" t="s">
         <v>9</v>
@@ -12405,10 +12462,10 @@
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B272" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C272" t="s">
         <v>16</v>
@@ -12426,7 +12483,7 @@
         <v>8</v>
       </c>
       <c r="H272" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I272" t="s">
         <v>9</v>
@@ -12446,10 +12503,10 @@
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B273" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C273" t="s">
         <v>16</v>
@@ -12467,7 +12524,7 @@
         <v>8</v>
       </c>
       <c r="H273" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I273">
         <v>1971</v>
@@ -12487,10 +12544,10 @@
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B274" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C274" t="s">
         <v>16</v>
@@ -12508,7 +12565,7 @@
         <v>8</v>
       </c>
       <c r="H274" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I274">
         <v>1970</v>
@@ -12528,10 +12585,10 @@
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B275" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C275" t="s">
         <v>188</v>
@@ -12549,7 +12606,7 @@
         <v>17</v>
       </c>
       <c r="H275" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I275" t="s">
         <v>9</v>
@@ -12566,10 +12623,10 @@
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B276" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C276" t="s">
         <v>263</v>
@@ -12587,7 +12644,7 @@
         <v>17</v>
       </c>
       <c r="H276" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I276" t="s">
         <v>9</v>
@@ -12604,10 +12661,10 @@
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B277" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C277" t="s">
         <v>161</v>
@@ -12625,7 +12682,7 @@
         <v>8</v>
       </c>
       <c r="H277" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I277">
         <v>2000</v>
@@ -12645,10 +12702,10 @@
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B278" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C278" t="s">
         <v>161</v>
@@ -12666,7 +12723,7 @@
         <v>17</v>
       </c>
       <c r="H278" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I278" t="s">
         <v>9</v>
@@ -12683,10 +12740,10 @@
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B279" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C279" t="s">
         <v>35</v>
@@ -12704,7 +12761,7 @@
         <v>8</v>
       </c>
       <c r="H279" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I279" t="s">
         <v>9</v>
@@ -12724,10 +12781,10 @@
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B280" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C280" t="s">
         <v>282</v>
@@ -12745,7 +12802,7 @@
         <v>8</v>
       </c>
       <c r="H280" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I280" t="s">
         <v>9</v>
@@ -12765,10 +12822,10 @@
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B281" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C281" t="s">
         <v>282</v>
@@ -12786,7 +12843,7 @@
         <v>8</v>
       </c>
       <c r="H281" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I281" t="s">
         <v>9</v>
@@ -12806,10 +12863,10 @@
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B282" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C282" t="s">
         <v>282</v>
@@ -12827,7 +12884,7 @@
         <v>8</v>
       </c>
       <c r="H282" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I282" t="s">
         <v>9</v>
@@ -12847,13 +12904,13 @@
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B283" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C283" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D283" t="s">
         <v>29</v>
@@ -12868,7 +12925,7 @@
         <v>8</v>
       </c>
       <c r="H283" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I283">
         <v>2000</v>
@@ -12882,13 +12939,13 @@
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B284" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C284" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D284" t="s">
         <v>17</v>
@@ -12903,7 +12960,7 @@
         <v>8</v>
       </c>
       <c r="H284" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I284">
         <v>2000</v>
@@ -12917,10 +12974,10 @@
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B285" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D285" t="s">
         <v>29</v>
@@ -12935,7 +12992,7 @@
         <v>8</v>
       </c>
       <c r="H285" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I285" t="s">
         <v>9</v>
@@ -12955,10 +13012,10 @@
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B286" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C286" t="s">
         <v>16</v>
@@ -12976,7 +13033,7 @@
         <v>8</v>
       </c>
       <c r="H286" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K286">
         <v>2000</v>
@@ -12984,10 +13041,10 @@
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B287" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C287" t="s">
         <v>161</v>
@@ -13005,7 +13062,7 @@
         <v>8</v>
       </c>
       <c r="H287" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K287">
         <v>2000</v>
@@ -13013,10 +13070,10 @@
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B288" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C288" t="s">
         <v>161</v>
@@ -13034,7 +13091,7 @@
         <v>8</v>
       </c>
       <c r="H288" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K288">
         <v>2000</v>
@@ -13086,7 +13143,7 @@
         <v>409</v>
       </c>
       <c r="C290" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D290" t="s">
         <v>29</v>
@@ -13786,7 +13843,7 @@
         <v>455</v>
       </c>
       <c r="C310" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D310" t="s">
         <v>29</v>
@@ -13946,7 +14003,7 @@
         <v>466</v>
       </c>
       <c r="C315" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D315" t="s">
         <v>29</v>
@@ -13981,7 +14038,7 @@
         <v>468</v>
       </c>
       <c r="C316" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D316" t="s">
         <v>29</v>
@@ -14016,7 +14073,7 @@
         <v>470</v>
       </c>
       <c r="C317" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D317" t="s">
         <v>29</v>
@@ -14051,7 +14108,7 @@
         <v>472</v>
       </c>
       <c r="C318" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D318" t="s">
         <v>29</v>
@@ -14086,7 +14143,7 @@
         <v>474</v>
       </c>
       <c r="C319" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D319" t="s">
         <v>29</v>
@@ -14121,7 +14178,7 @@
         <v>476</v>
       </c>
       <c r="C320" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D320" t="s">
         <v>29</v>
@@ -14153,10 +14210,10 @@
         <v>482</v>
       </c>
       <c r="B321" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C321" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D321" t="s">
         <v>29</v>
@@ -14190,9 +14247,6 @@
       <c r="B322" t="s">
         <v>484</v>
       </c>
-      <c r="C322" t="s">
-        <v>608</v>
-      </c>
       <c r="D322" t="s">
         <v>29</v>
       </c>
@@ -14293,10 +14347,10 @@
         <v>489</v>
       </c>
       <c r="B325" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C325" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D325" t="s">
         <v>29</v>
@@ -14328,10 +14382,10 @@
         <v>490</v>
       </c>
       <c r="B326" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C326" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D326" t="s">
         <v>29</v>
@@ -14363,10 +14417,10 @@
         <v>491</v>
       </c>
       <c r="B327" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C327" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D327" t="s">
         <v>29</v>
@@ -14400,11 +14454,14 @@
       <c r="B328" t="s">
         <v>493</v>
       </c>
+      <c r="C328" t="s">
+        <v>6</v>
+      </c>
       <c r="D328" t="s">
         <v>29</v>
       </c>
       <c r="E328" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="F328" t="s">
         <v>17</v>
@@ -14433,13 +14490,13 @@
         <v>495</v>
       </c>
       <c r="C329" t="s">
-        <v>6</v>
+        <v>603</v>
       </c>
       <c r="D329" t="s">
         <v>29</v>
       </c>
       <c r="E329" t="s">
-        <v>201</v>
+        <v>412</v>
       </c>
       <c r="F329" t="s">
         <v>17</v>
@@ -14462,16 +14519,16 @@
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>496</v>
+        <v>593</v>
       </c>
       <c r="B330" t="s">
-        <v>497</v>
+        <v>594</v>
       </c>
       <c r="C330" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D330" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E330" t="s">
         <v>412</v>
@@ -14497,16 +14554,16 @@
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="B331" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="C331" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D331" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E331" t="s">
         <v>412</v>
@@ -14532,66 +14589,31 @@
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>609</v>
+        <v>708</v>
       </c>
       <c r="B332" t="s">
-        <v>613</v>
-      </c>
-      <c r="C332" t="s">
-        <v>602</v>
+        <v>707</v>
       </c>
       <c r="D332" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E332" t="s">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="F332" t="s">
         <v>17</v>
       </c>
       <c r="G332" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H332" t="s">
-        <v>407</v>
-      </c>
-      <c r="K332">
-        <v>2001</v>
-      </c>
-      <c r="M332" t="s">
-        <v>233</v>
-      </c>
-      <c r="N332" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>710</v>
-      </c>
-      <c r="B333" t="s">
-        <v>709</v>
-      </c>
-      <c r="D333" t="s">
-        <v>17</v>
-      </c>
-      <c r="E333" t="s">
-        <v>17</v>
-      </c>
-      <c r="F333" t="s">
-        <v>17</v>
-      </c>
-      <c r="G333" t="s">
-        <v>17</v>
-      </c>
-      <c r="H333" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L333" xr:uid="{5694E675-77F6-4F54-A793-A54451BF0049}">
+  <autoFilter ref="A1:L332" xr:uid="{5694E675-77F6-4F54-A793-A54451BF0049}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A156:L193">
-      <sortCondition descending="1" ref="A1:A333"/>
+      <sortCondition descending="1" ref="A1:A332"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Utilities/titles/VariableListing.xlsx
+++ b/Utilities/titles/VariableListing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Work profile\Documents\GitHub\FTT_StandAlone\Utilities\titles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64002A6-087A-4710-A4E2-8DCABD50D6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F1A958-DA3F-4CC1-802C-B0D80A15EF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3966A5EA-18B5-40FC-82B6-8DC341B5B05B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3380" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3381" uniqueCount="740">
   <si>
     <t>Variable name</t>
   </si>
@@ -1524,9 +1524,6 @@
     <t>ZEWE</t>
   </si>
   <si>
-    <t>FTT-Fr emissions</t>
-  </si>
-  <si>
     <t>IUD1</t>
   </si>
   <si>
@@ -2257,6 +2254,9 @@
   </si>
   <si>
     <t>FTT-Transport levelised costs with taxes</t>
+  </si>
+  <si>
+    <t>FTT-Fr Emissions</t>
   </si>
 </sst>
 </file>
@@ -2628,10 +2628,10 @@
   <dimension ref="A1:N332"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H303" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A329" sqref="A329:XFD329"/>
+      <selection pane="bottomRight" activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6270,10 +6270,10 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>715</v>
+      </c>
+      <c r="B89" t="s">
         <v>716</v>
-      </c>
-      <c r="B89" t="s">
-        <v>717</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
@@ -6311,7 +6311,7 @@
         <v>62</v>
       </c>
       <c r="B90" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C90" t="s">
         <v>193</v>
@@ -7961,6 +7961,9 @@
       <c r="B137" t="s">
         <v>368</v>
       </c>
+      <c r="C137" t="s">
+        <v>35</v>
+      </c>
       <c r="D137" t="s">
         <v>29</v>
       </c>
@@ -8320,13 +8323,13 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>717</v>
+      </c>
+      <c r="B151" t="s">
         <v>718</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>719</v>
-      </c>
-      <c r="C151" t="s">
-        <v>720</v>
       </c>
       <c r="D151" t="s">
         <v>29</v>
@@ -8349,10 +8352,10 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>720</v>
+      </c>
+      <c r="B152" t="s">
         <v>721</v>
-      </c>
-      <c r="B152" t="s">
-        <v>722</v>
       </c>
       <c r="C152" t="s">
         <v>264</v>
@@ -8390,10 +8393,10 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B153" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C153" t="s">
         <v>35</v>
@@ -8408,7 +8411,7 @@
         <v>17</v>
       </c>
       <c r="G153" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H153" t="s">
         <v>317</v>
@@ -8428,13 +8431,13 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>723</v>
+      </c>
+      <c r="B154" t="s">
         <v>724</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>725</v>
-      </c>
-      <c r="C154" t="s">
-        <v>726</v>
       </c>
       <c r="D154" t="s">
         <v>29</v>
@@ -8446,7 +8449,7 @@
         <v>17</v>
       </c>
       <c r="G154" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H154" t="s">
         <v>317</v>
@@ -8651,7 +8654,7 @@
         <v>396</v>
       </c>
       <c r="B162" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D162" t="s">
         <v>29</v>
@@ -8700,10 +8703,10 @@
         <v>400</v>
       </c>
       <c r="B164" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C164" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D164" t="s">
         <v>29</v>
@@ -8755,10 +8758,10 @@
         <v>403</v>
       </c>
       <c r="B166" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C166" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D166" t="s">
         <v>17</v>
@@ -8813,10 +8816,10 @@
         <v>387</v>
       </c>
       <c r="B168" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C168" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D168" t="s">
         <v>29</v>
@@ -8842,10 +8845,10 @@
         <v>398</v>
       </c>
       <c r="B169" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C169" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D169" t="s">
         <v>29</v>
@@ -8871,10 +8874,10 @@
         <v>389</v>
       </c>
       <c r="B170" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C170" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D170" t="s">
         <v>29</v>
@@ -8900,10 +8903,10 @@
         <v>402</v>
       </c>
       <c r="B171" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C171" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D171" t="s">
         <v>29</v>
@@ -8929,10 +8932,10 @@
         <v>391</v>
       </c>
       <c r="B172" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C172" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D172" t="s">
         <v>29</v>
@@ -8978,10 +8981,10 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>708</v>
+      </c>
+      <c r="B174" t="s">
         <v>709</v>
-      </c>
-      <c r="B174" t="s">
-        <v>710</v>
       </c>
       <c r="D174" t="s">
         <v>17</v>
@@ -9065,10 +9068,10 @@
         <v>392</v>
       </c>
       <c r="B177" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C177" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D177" t="s">
         <v>29</v>
@@ -9091,10 +9094,10 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B178" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D178" t="s">
         <v>29</v>
@@ -9377,10 +9380,10 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>712</v>
+      </c>
+      <c r="B189" t="s">
         <v>713</v>
-      </c>
-      <c r="B189" t="s">
-        <v>714</v>
       </c>
       <c r="D189" t="s">
         <v>29</v>
@@ -9507,10 +9510,10 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B194" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C194" t="s">
         <v>35</v>
@@ -9548,10 +9551,10 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B195" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C195" t="s">
         <v>161</v>
@@ -9592,10 +9595,10 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B196" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C196" t="s">
         <v>16</v>
@@ -9633,10 +9636,10 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B197" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C197" t="s">
         <v>16</v>
@@ -9674,10 +9677,10 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B198" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C198" t="s">
         <v>16</v>
@@ -9715,10 +9718,10 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B199" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C199" t="s">
         <v>188</v>
@@ -9753,10 +9756,10 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B200" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C200" t="s">
         <v>263</v>
@@ -9791,10 +9794,10 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B201" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C201" t="s">
         <v>161</v>
@@ -9832,10 +9835,10 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B202" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C202" t="s">
         <v>161</v>
@@ -9870,10 +9873,10 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B203" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C203" t="s">
         <v>35</v>
@@ -9911,10 +9914,10 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B204" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C204" t="s">
         <v>282</v>
@@ -9952,10 +9955,10 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B205" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C205" t="s">
         <v>282</v>
@@ -9993,10 +9996,10 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B206" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C206" t="s">
         <v>282</v>
@@ -10034,13 +10037,13 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B207" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C207" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D207" t="s">
         <v>29</v>
@@ -10063,13 +10066,13 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B208" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C208" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D208" t="s">
         <v>17</v>
@@ -10092,10 +10095,10 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B209" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D209" t="s">
         <v>29</v>
@@ -10124,10 +10127,10 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B210" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C210" t="s">
         <v>16</v>
@@ -10153,10 +10156,10 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B211" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C211" t="s">
         <v>161</v>
@@ -10182,10 +10185,10 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B212" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C212" t="s">
         <v>161</v>
@@ -10211,10 +10214,10 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B213" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C213" t="s">
         <v>35</v>
@@ -10232,7 +10235,7 @@
         <v>8</v>
       </c>
       <c r="H213" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I213">
         <v>1970</v>
@@ -10252,10 +10255,10 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B214" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C214" t="s">
         <v>161</v>
@@ -10273,7 +10276,7 @@
         <v>8</v>
       </c>
       <c r="H214" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I214" t="s">
         <v>9</v>
@@ -10296,10 +10299,10 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C215" t="s">
         <v>16</v>
@@ -10317,7 +10320,7 @@
         <v>8</v>
       </c>
       <c r="H215" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I215" t="s">
         <v>9</v>
@@ -10337,10 +10340,10 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B216" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C216" t="s">
         <v>16</v>
@@ -10358,7 +10361,7 @@
         <v>8</v>
       </c>
       <c r="H216" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I216">
         <v>1971</v>
@@ -10378,10 +10381,10 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B217" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C217" t="s">
         <v>16</v>
@@ -10399,7 +10402,7 @@
         <v>8</v>
       </c>
       <c r="H217" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I217">
         <v>1970</v>
@@ -10419,10 +10422,10 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B218" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C218" t="s">
         <v>188</v>
@@ -10440,7 +10443,7 @@
         <v>17</v>
       </c>
       <c r="H218" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I218" t="s">
         <v>9</v>
@@ -10457,10 +10460,10 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B219" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C219" t="s">
         <v>263</v>
@@ -10478,7 +10481,7 @@
         <v>17</v>
       </c>
       <c r="H219" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I219" t="s">
         <v>9</v>
@@ -10495,10 +10498,10 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B220" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C220" t="s">
         <v>161</v>
@@ -10516,7 +10519,7 @@
         <v>8</v>
       </c>
       <c r="H220" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I220">
         <v>2000</v>
@@ -10536,10 +10539,10 @@
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B221" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C221" t="s">
         <v>161</v>
@@ -10557,7 +10560,7 @@
         <v>17</v>
       </c>
       <c r="H221" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I221" t="s">
         <v>9</v>
@@ -10574,10 +10577,10 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B222" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C222" t="s">
         <v>35</v>
@@ -10595,7 +10598,7 @@
         <v>8</v>
       </c>
       <c r="H222" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I222" t="s">
         <v>9</v>
@@ -10615,10 +10618,10 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B223" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C223" t="s">
         <v>282</v>
@@ -10636,7 +10639,7 @@
         <v>8</v>
       </c>
       <c r="H223" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I223" t="s">
         <v>9</v>
@@ -10656,10 +10659,10 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B224" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C224" t="s">
         <v>282</v>
@@ -10677,7 +10680,7 @@
         <v>8</v>
       </c>
       <c r="H224" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I224" t="s">
         <v>9</v>
@@ -10697,10 +10700,10 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B225" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C225" t="s">
         <v>282</v>
@@ -10718,7 +10721,7 @@
         <v>8</v>
       </c>
       <c r="H225" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I225" t="s">
         <v>9</v>
@@ -10738,13 +10741,13 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B226" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C226" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D226" t="s">
         <v>29</v>
@@ -10759,7 +10762,7 @@
         <v>8</v>
       </c>
       <c r="H226" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I226">
         <v>2000</v>
@@ -10773,13 +10776,13 @@
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B227" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C227" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D227" t="s">
         <v>17</v>
@@ -10794,7 +10797,7 @@
         <v>8</v>
       </c>
       <c r="H227" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I227">
         <v>2000</v>
@@ -10808,10 +10811,10 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B228" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D228" t="s">
         <v>29</v>
@@ -10826,7 +10829,7 @@
         <v>8</v>
       </c>
       <c r="H228" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I228" t="s">
         <v>9</v>
@@ -10846,10 +10849,10 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B229" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C229" t="s">
         <v>16</v>
@@ -10867,7 +10870,7 @@
         <v>8</v>
       </c>
       <c r="H229" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K229">
         <v>2000</v>
@@ -10875,10 +10878,10 @@
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B230" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C230" t="s">
         <v>161</v>
@@ -10896,7 +10899,7 @@
         <v>8</v>
       </c>
       <c r="H230" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K230">
         <v>2000</v>
@@ -10904,10 +10907,10 @@
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B231" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C231" t="s">
         <v>161</v>
@@ -10925,7 +10928,7 @@
         <v>8</v>
       </c>
       <c r="H231" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K231">
         <v>2000</v>
@@ -10933,10 +10936,10 @@
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B232" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C232" t="s">
         <v>35</v>
@@ -10954,7 +10957,7 @@
         <v>8</v>
       </c>
       <c r="H232" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I232">
         <v>1970</v>
@@ -10974,10 +10977,10 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B233" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C233" t="s">
         <v>161</v>
@@ -10995,7 +10998,7 @@
         <v>8</v>
       </c>
       <c r="H233" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I233" t="s">
         <v>9</v>
@@ -11018,10 +11021,10 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B234" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C234" t="s">
         <v>16</v>
@@ -11039,7 +11042,7 @@
         <v>8</v>
       </c>
       <c r="H234" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I234" t="s">
         <v>9</v>
@@ -11059,10 +11062,10 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B235" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C235" t="s">
         <v>16</v>
@@ -11080,7 +11083,7 @@
         <v>8</v>
       </c>
       <c r="H235" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I235">
         <v>1971</v>
@@ -11100,10 +11103,10 @@
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B236" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C236" t="s">
         <v>16</v>
@@ -11121,7 +11124,7 @@
         <v>8</v>
       </c>
       <c r="H236" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I236">
         <v>1970</v>
@@ -11141,10 +11144,10 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B237" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C237" t="s">
         <v>188</v>
@@ -11162,7 +11165,7 @@
         <v>17</v>
       </c>
       <c r="H237" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I237" t="s">
         <v>9</v>
@@ -11179,10 +11182,10 @@
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B238" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C238" t="s">
         <v>263</v>
@@ -11200,7 +11203,7 @@
         <v>17</v>
       </c>
       <c r="H238" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I238" t="s">
         <v>9</v>
@@ -11217,10 +11220,10 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B239" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C239" t="s">
         <v>161</v>
@@ -11238,7 +11241,7 @@
         <v>8</v>
       </c>
       <c r="H239" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I239">
         <v>2000</v>
@@ -11258,10 +11261,10 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B240" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C240" t="s">
         <v>161</v>
@@ -11279,7 +11282,7 @@
         <v>17</v>
       </c>
       <c r="H240" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I240" t="s">
         <v>9</v>
@@ -11296,10 +11299,10 @@
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B241" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C241" t="s">
         <v>35</v>
@@ -11317,7 +11320,7 @@
         <v>8</v>
       </c>
       <c r="H241" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I241" t="s">
         <v>9</v>
@@ -11337,10 +11340,10 @@
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B242" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C242" t="s">
         <v>282</v>
@@ -11358,7 +11361,7 @@
         <v>8</v>
       </c>
       <c r="H242" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I242" t="s">
         <v>9</v>
@@ -11378,10 +11381,10 @@
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B243" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C243" t="s">
         <v>282</v>
@@ -11399,7 +11402,7 @@
         <v>8</v>
       </c>
       <c r="H243" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I243" t="s">
         <v>9</v>
@@ -11419,10 +11422,10 @@
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B244" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C244" t="s">
         <v>282</v>
@@ -11440,7 +11443,7 @@
         <v>8</v>
       </c>
       <c r="H244" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I244" t="s">
         <v>9</v>
@@ -11460,13 +11463,13 @@
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B245" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C245" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D245" t="s">
         <v>29</v>
@@ -11481,7 +11484,7 @@
         <v>8</v>
       </c>
       <c r="H245" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I245">
         <v>2000</v>
@@ -11495,13 +11498,13 @@
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B246" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C246" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D246" t="s">
         <v>17</v>
@@ -11516,7 +11519,7 @@
         <v>8</v>
       </c>
       <c r="H246" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I246">
         <v>2000</v>
@@ -11530,10 +11533,10 @@
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B247" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D247" t="s">
         <v>29</v>
@@ -11548,7 +11551,7 @@
         <v>8</v>
       </c>
       <c r="H247" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I247" t="s">
         <v>9</v>
@@ -11568,10 +11571,10 @@
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B248" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C248" t="s">
         <v>16</v>
@@ -11589,7 +11592,7 @@
         <v>8</v>
       </c>
       <c r="H248" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K248">
         <v>2000</v>
@@ -11597,10 +11600,10 @@
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B249" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C249" t="s">
         <v>161</v>
@@ -11618,7 +11621,7 @@
         <v>8</v>
       </c>
       <c r="H249" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K249">
         <v>2000</v>
@@ -11626,10 +11629,10 @@
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B250" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C250" t="s">
         <v>161</v>
@@ -11647,7 +11650,7 @@
         <v>8</v>
       </c>
       <c r="H250" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K250">
         <v>2000</v>
@@ -11655,10 +11658,10 @@
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B251" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C251" t="s">
         <v>35</v>
@@ -11676,7 +11679,7 @@
         <v>8</v>
       </c>
       <c r="H251" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I251">
         <v>1970</v>
@@ -11696,10 +11699,10 @@
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B252" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C252" t="s">
         <v>161</v>
@@ -11717,7 +11720,7 @@
         <v>8</v>
       </c>
       <c r="H252" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I252" t="s">
         <v>9</v>
@@ -11740,10 +11743,10 @@
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B253" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C253" t="s">
         <v>16</v>
@@ -11761,7 +11764,7 @@
         <v>8</v>
       </c>
       <c r="H253" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I253" t="s">
         <v>9</v>
@@ -11781,10 +11784,10 @@
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B254" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C254" t="s">
         <v>16</v>
@@ -11802,7 +11805,7 @@
         <v>8</v>
       </c>
       <c r="H254" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I254">
         <v>1971</v>
@@ -11822,10 +11825,10 @@
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B255" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C255" t="s">
         <v>16</v>
@@ -11843,7 +11846,7 @@
         <v>8</v>
       </c>
       <c r="H255" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I255">
         <v>1970</v>
@@ -11863,10 +11866,10 @@
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B256" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C256" t="s">
         <v>188</v>
@@ -11884,7 +11887,7 @@
         <v>17</v>
       </c>
       <c r="H256" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I256" t="s">
         <v>9</v>
@@ -11901,10 +11904,10 @@
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B257" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C257" t="s">
         <v>263</v>
@@ -11922,7 +11925,7 @@
         <v>17</v>
       </c>
       <c r="H257" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I257" t="s">
         <v>9</v>
@@ -11939,10 +11942,10 @@
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B258" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C258" t="s">
         <v>161</v>
@@ -11960,7 +11963,7 @@
         <v>8</v>
       </c>
       <c r="H258" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I258">
         <v>2000</v>
@@ -11980,10 +11983,10 @@
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B259" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C259" t="s">
         <v>161</v>
@@ -12001,7 +12004,7 @@
         <v>17</v>
       </c>
       <c r="H259" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I259" t="s">
         <v>9</v>
@@ -12018,10 +12021,10 @@
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B260" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C260" t="s">
         <v>35</v>
@@ -12039,7 +12042,7 @@
         <v>8</v>
       </c>
       <c r="H260" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I260" t="s">
         <v>9</v>
@@ -12059,10 +12062,10 @@
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B261" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C261" t="s">
         <v>282</v>
@@ -12080,7 +12083,7 @@
         <v>8</v>
       </c>
       <c r="H261" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I261" t="s">
         <v>9</v>
@@ -12100,10 +12103,10 @@
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B262" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C262" t="s">
         <v>282</v>
@@ -12121,7 +12124,7 @@
         <v>8</v>
       </c>
       <c r="H262" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I262" t="s">
         <v>9</v>
@@ -12141,10 +12144,10 @@
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B263" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C263" t="s">
         <v>282</v>
@@ -12162,7 +12165,7 @@
         <v>8</v>
       </c>
       <c r="H263" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I263" t="s">
         <v>9</v>
@@ -12182,13 +12185,13 @@
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B264" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C264" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D264" t="s">
         <v>29</v>
@@ -12203,7 +12206,7 @@
         <v>8</v>
       </c>
       <c r="H264" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I264">
         <v>2000</v>
@@ -12217,13 +12220,13 @@
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B265" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C265" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D265" t="s">
         <v>17</v>
@@ -12238,7 +12241,7 @@
         <v>8</v>
       </c>
       <c r="H265" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I265">
         <v>2000</v>
@@ -12252,10 +12255,10 @@
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B266" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D266" t="s">
         <v>29</v>
@@ -12270,7 +12273,7 @@
         <v>8</v>
       </c>
       <c r="H266" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I266" t="s">
         <v>9</v>
@@ -12290,10 +12293,10 @@
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B267" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C267" t="s">
         <v>16</v>
@@ -12311,7 +12314,7 @@
         <v>8</v>
       </c>
       <c r="H267" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K267">
         <v>2000</v>
@@ -12319,10 +12322,10 @@
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B268" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C268" t="s">
         <v>161</v>
@@ -12340,7 +12343,7 @@
         <v>8</v>
       </c>
       <c r="H268" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K268">
         <v>2000</v>
@@ -12348,10 +12351,10 @@
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B269" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C269" t="s">
         <v>161</v>
@@ -12369,7 +12372,7 @@
         <v>8</v>
       </c>
       <c r="H269" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K269">
         <v>2000</v>
@@ -12377,10 +12380,10 @@
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B270" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C270" t="s">
         <v>35</v>
@@ -12398,7 +12401,7 @@
         <v>8</v>
       </c>
       <c r="H270" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I270">
         <v>1970</v>
@@ -12418,10 +12421,10 @@
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B271" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C271" t="s">
         <v>161</v>
@@ -12439,7 +12442,7 @@
         <v>8</v>
       </c>
       <c r="H271" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I271" t="s">
         <v>9</v>
@@ -12462,10 +12465,10 @@
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B272" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C272" t="s">
         <v>16</v>
@@ -12483,7 +12486,7 @@
         <v>8</v>
       </c>
       <c r="H272" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I272" t="s">
         <v>9</v>
@@ -12503,10 +12506,10 @@
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B273" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C273" t="s">
         <v>16</v>
@@ -12524,7 +12527,7 @@
         <v>8</v>
       </c>
       <c r="H273" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I273">
         <v>1971</v>
@@ -12544,10 +12547,10 @@
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B274" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C274" t="s">
         <v>16</v>
@@ -12565,7 +12568,7 @@
         <v>8</v>
       </c>
       <c r="H274" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I274">
         <v>1970</v>
@@ -12585,10 +12588,10 @@
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B275" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C275" t="s">
         <v>188</v>
@@ -12606,7 +12609,7 @@
         <v>17</v>
       </c>
       <c r="H275" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I275" t="s">
         <v>9</v>
@@ -12623,10 +12626,10 @@
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B276" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C276" t="s">
         <v>263</v>
@@ -12644,7 +12647,7 @@
         <v>17</v>
       </c>
       <c r="H276" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I276" t="s">
         <v>9</v>
@@ -12661,10 +12664,10 @@
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B277" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C277" t="s">
         <v>161</v>
@@ -12682,7 +12685,7 @@
         <v>8</v>
       </c>
       <c r="H277" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I277">
         <v>2000</v>
@@ -12702,10 +12705,10 @@
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B278" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C278" t="s">
         <v>161</v>
@@ -12723,7 +12726,7 @@
         <v>17</v>
       </c>
       <c r="H278" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I278" t="s">
         <v>9</v>
@@ -12740,10 +12743,10 @@
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B279" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C279" t="s">
         <v>35</v>
@@ -12761,7 +12764,7 @@
         <v>8</v>
       </c>
       <c r="H279" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I279" t="s">
         <v>9</v>
@@ -12781,10 +12784,10 @@
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B280" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C280" t="s">
         <v>282</v>
@@ -12802,7 +12805,7 @@
         <v>8</v>
       </c>
       <c r="H280" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I280" t="s">
         <v>9</v>
@@ -12822,10 +12825,10 @@
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B281" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C281" t="s">
         <v>282</v>
@@ -12843,7 +12846,7 @@
         <v>8</v>
       </c>
       <c r="H281" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I281" t="s">
         <v>9</v>
@@ -12863,10 +12866,10 @@
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B282" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C282" t="s">
         <v>282</v>
@@ -12884,7 +12887,7 @@
         <v>8</v>
       </c>
       <c r="H282" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I282" t="s">
         <v>9</v>
@@ -12904,13 +12907,13 @@
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B283" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C283" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D283" t="s">
         <v>29</v>
@@ -12925,7 +12928,7 @@
         <v>8</v>
       </c>
       <c r="H283" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I283">
         <v>2000</v>
@@ -12939,13 +12942,13 @@
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B284" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C284" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D284" t="s">
         <v>17</v>
@@ -12960,7 +12963,7 @@
         <v>8</v>
       </c>
       <c r="H284" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I284">
         <v>2000</v>
@@ -12974,10 +12977,10 @@
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B285" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D285" t="s">
         <v>29</v>
@@ -12992,7 +12995,7 @@
         <v>8</v>
       </c>
       <c r="H285" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I285" t="s">
         <v>9</v>
@@ -13012,10 +13015,10 @@
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B286" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C286" t="s">
         <v>16</v>
@@ -13033,7 +13036,7 @@
         <v>8</v>
       </c>
       <c r="H286" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K286">
         <v>2000</v>
@@ -13041,10 +13044,10 @@
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B287" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C287" t="s">
         <v>161</v>
@@ -13062,7 +13065,7 @@
         <v>8</v>
       </c>
       <c r="H287" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K287">
         <v>2000</v>
@@ -13070,10 +13073,10 @@
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B288" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C288" t="s">
         <v>161</v>
@@ -13091,7 +13094,7 @@
         <v>8</v>
       </c>
       <c r="H288" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K288">
         <v>2000</v>
@@ -13143,7 +13146,7 @@
         <v>409</v>
       </c>
       <c r="C290" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D290" t="s">
         <v>29</v>
@@ -13843,7 +13846,7 @@
         <v>455</v>
       </c>
       <c r="C310" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D310" t="s">
         <v>29</v>
@@ -14003,7 +14006,7 @@
         <v>466</v>
       </c>
       <c r="C315" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D315" t="s">
         <v>29</v>
@@ -14038,7 +14041,7 @@
         <v>468</v>
       </c>
       <c r="C316" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D316" t="s">
         <v>29</v>
@@ -14073,7 +14076,7 @@
         <v>470</v>
       </c>
       <c r="C317" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D317" t="s">
         <v>29</v>
@@ -14108,7 +14111,7 @@
         <v>472</v>
       </c>
       <c r="C318" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D318" t="s">
         <v>29</v>
@@ -14143,7 +14146,7 @@
         <v>474</v>
       </c>
       <c r="C319" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D319" t="s">
         <v>29</v>
@@ -14178,7 +14181,7 @@
         <v>476</v>
       </c>
       <c r="C320" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D320" t="s">
         <v>29</v>
@@ -14210,10 +14213,10 @@
         <v>482</v>
       </c>
       <c r="B321" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C321" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D321" t="s">
         <v>29</v>
@@ -14347,10 +14350,10 @@
         <v>489</v>
       </c>
       <c r="B325" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C325" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D325" t="s">
         <v>29</v>
@@ -14382,10 +14385,10 @@
         <v>490</v>
       </c>
       <c r="B326" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C326" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D326" t="s">
         <v>29</v>
@@ -14417,10 +14420,10 @@
         <v>491</v>
       </c>
       <c r="B327" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C327" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D327" t="s">
         <v>29</v>
@@ -14487,10 +14490,10 @@
         <v>494</v>
       </c>
       <c r="B329" t="s">
-        <v>495</v>
+        <v>739</v>
       </c>
       <c r="C329" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D329" t="s">
         <v>29</v>
@@ -14519,13 +14522,13 @@
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
+        <v>592</v>
+      </c>
+      <c r="B330" t="s">
         <v>593</v>
       </c>
-      <c r="B330" t="s">
-        <v>594</v>
-      </c>
       <c r="C330" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D330" t="s">
         <v>17</v>
@@ -14554,13 +14557,13 @@
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B331" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C331" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D331" t="s">
         <v>29</v>
@@ -14589,10 +14592,10 @@
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B332" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D332" t="s">
         <v>17</v>
